--- a/helper/Employee.xlsx
+++ b/helper/Employee.xlsx
@@ -1099,7 +1099,7 @@
     <t>LINK</t>
   </si>
   <si>
-    <t>Head of UserTeam, Norway  Company</t>
+    <t>Head of User_Team, Norway  Company</t>
   </si>
   <si>
     <t>Head of Service_Operation Team,  Sweden Company</t>
@@ -1108,7 +1108,7 @@
     <t>Head of Service_Operation  Germany</t>
   </si>
   <si>
-    <t>Head of UserDevelopment Denmark</t>
+    <t>Head of User_Development Denmark</t>
   </si>
   <si>
     <t>Head of Network_Development_Team</t>
@@ -1132,7 +1132,7 @@
     <t>Head of Market Expansion  Planning &amp; Expert_Program_Management</t>
   </si>
   <si>
-    <t>Head of UserDevelopment Germany</t>
+    <t>Head of User_Development Germany</t>
   </si>
   <si>
     <t>Head of Digital Support PMO Team  &amp; Lead_Program_Manager</t>
@@ -1141,16 +1141,16 @@
     <t>Head of Service_Operation  Denmark</t>
   </si>
   <si>
-    <t>Head of UserOperation Germany</t>
+    <t>Head of User_Operation Germany</t>
   </si>
   <si>
     <t>Event_Manager</t>
   </si>
   <si>
-    <t>Head of Europe UserOperation  Department</t>
-  </si>
-  <si>
-    <t>Head of UserRelations Team  &amp; Lead Analyst, Market &amp; UserResearch</t>
+    <t>Head of Europe User_Operation  Department</t>
+  </si>
+  <si>
+    <t>Head of User_Relations Team  &amp; Lead Analyst, Market &amp; User_Research</t>
   </si>
   <si>
     <t>Head_of_Construction_Management_Team_&amp;_Retail_Construction_Project_Manager</t>
@@ -1171,7 +1171,7 @@
     <t>Country_General_Manager_Sweden_Company</t>
   </si>
   <si>
-    <t>Head of UserOperation Sweden</t>
+    <t>Head of User_Operation Sweden</t>
   </si>
   <si>
     <t>Head of Service_Operation Netherlands</t>
@@ -1189,10 +1189,10 @@
     <t>Head of Business Development  Team &amp; Lead_Business_Development</t>
   </si>
   <si>
-    <t>Head of UserOperation Denmark</t>
-  </si>
-  <si>
-    <t>UserRelationship Manager  Netherlands</t>
+    <t>Head of User_Operation Denmark</t>
+  </si>
+  <si>
+    <t>User_Relationship Manager  Netherlands</t>
   </si>
   <si>
     <t>Country_General_Manager_Nertherland_Company</t>
@@ -1207,7 +1207,7 @@
     <t>Head_of_Europe_Project_Management_&amp;_Enabling_Department_&amp;_Expert_Business_Development</t>
   </si>
   <si>
-    <t>Head of UserDevelopment  Netherlands</t>
+    <t>Head of User_Development  Netherlands</t>
   </si>
   <si>
     <t>Lead_Analyst_Business_Planning</t>
@@ -1216,7 +1216,7 @@
     <t>Head_of_Europe_Commercial_Operation_Department</t>
   </si>
   <si>
-    <t>Head of UserOperation  Netherlands</t>
+    <t>Head of User_Operation  Netherlands</t>
   </si>
   <si>
     <t>Head_of_Service_&amp;_Product_PMO_Team_&amp;_Expert_Business_Planning</t>
@@ -1228,7 +1228,7 @@
     <t>Analyst_Business_Planning</t>
   </si>
   <si>
-    <t>Analyst, Market &amp; User Research</t>
+    <t>Analyst, Market &amp; User_ Research</t>
   </si>
   <si>
     <t>Associate_PMO</t>
@@ -1249,7 +1249,7 @@
     <t>Country General Manager of  United_Kingdom Company</t>
   </si>
   <si>
-    <t>Digital Marketing Specialist,  UserDevelopment</t>
+    <t>Digital Marketing Specialist,  User_Development</t>
   </si>
   <si>
     <t>Europe_NIO_House_Manager</t>
@@ -1312,7 +1312,7 @@
     <t>Lead_Business_Operation_Management</t>
   </si>
   <si>
-    <t>Lead_Content_Marketing_Planning</t>
+    <t>Lead_Content _Marketing_Planning</t>
   </si>
   <si>
     <t>Lead_PMO</t>
@@ -1333,7 +1333,7 @@
     <t>Program_Specialist</t>
   </si>
   <si>
-    <t>Project Management - User Development</t>
+    <t>Project Management - User_ Development</t>
   </si>
   <si>
     <t>Real_Estate_Specialist</t>
@@ -1417,7 +1417,7 @@
     <t>Employee_Communications_Specialist</t>
   </si>
   <si>
-    <t>Event &amp; UserRelationship  Manager Denmark</t>
+    <t>Event &amp; User_Relationship  Manager Denmark</t>
   </si>
   <si>
     <t>Fellow</t>
@@ -1438,7 +1438,7 @@
     <t>Fleet_Planning_Specialist,Vehicle_manager</t>
   </si>
   <si>
-    <t>Head of UserRelationships</t>
+    <t>Head of User_Relationships</t>
   </si>
   <si>
     <t>Intern_NIO_House_Specialist_Berlin</t>
@@ -1480,7 +1480,7 @@
     <t>Lead_Advisor_Training_Germany</t>
   </si>
   <si>
-    <t>Lead Advisor, UserSatisfaction  Germany</t>
+    <t>Lead Advisor, User_Satisfaction  Germany</t>
   </si>
   <si>
     <t>Lead_Advisor_Warranty</t>
@@ -1519,7 +1519,7 @@
     <t>Manager_Spare_Parts_and_Accessories</t>
   </si>
   <si>
-    <t xml:space="preserve">Manager, UserRepresentative  </t>
+    <t xml:space="preserve">Manager, User_Representative  </t>
   </si>
   <si>
     <t>Mobile_Service_Technician</t>
@@ -1705,19 +1705,19 @@
     <t>UD_Specialist</t>
   </si>
   <si>
-    <t>UserDevelopment Intern</t>
-  </si>
-  <si>
-    <t>UserRelationship Manager</t>
-  </si>
-  <si>
-    <t>UserRelationship Manager Sweden</t>
-  </si>
-  <si>
-    <t>UserRelationship Specialist</t>
-  </si>
-  <si>
-    <t>UserRepresentative</t>
+    <t>User_Development Intern</t>
+  </si>
+  <si>
+    <t>User_Relationship Manager</t>
+  </si>
+  <si>
+    <t>User_Relationship Manager Sweden</t>
+  </si>
+  <si>
+    <t>User_Relationship Specialist</t>
+  </si>
+  <si>
+    <t>User_Representative</t>
   </si>
   <si>
     <t>Vehicle_Management_Manager,Vehicle_manager</t>
@@ -1756,7 +1756,7 @@
     <t>Market_Entry_PMO_Team</t>
   </si>
   <si>
-    <t>Regional_Operations_Support_Team</t>
+    <t xml:space="preserve">Regional_Operations_Support_Team </t>
   </si>
   <si>
     <t>European_Business</t>
@@ -1768,7 +1768,7 @@
     <t>UserDevelopment_Team_Germany_Company</t>
   </si>
   <si>
-    <t>Digital_Support_PMO_Team</t>
+    <t xml:space="preserve">Digital_Support_PMO_Team </t>
   </si>
   <si>
     <t>Service_Operations_Team_Denmark_Company</t>
@@ -1810,7 +1810,7 @@
     <t>Revenue_Management_Team</t>
   </si>
   <si>
-    <t>Service_Coordinator_Team</t>
+    <t xml:space="preserve">Service_Coordinator _Team </t>
   </si>
   <si>
     <t>NIO_Germany_Company</t>
@@ -1912,7 +1912,7 @@
     <t>Senior Manager, Digital Support  PMO Team &amp; Lead_Program_Manager / 高级经理，数字化支持项目管理团队 &amp; 资深项目经理</t>
   </si>
   <si>
-    <t>Head of UserRelations Team  &amp; Lead Analyst, Market &amp; UserResearch / 用户关系团队负责人 &amp;  资深分析师，市场及用户研究</t>
+    <t>Head of User_Relations Team  &amp; Lead Analyst, Market &amp; User_Research / 用户关系团队负责人 &amp;  资深分析师，市场及用户研究</t>
   </si>
   <si>
     <t>Country_General_Manager_Norway_Company / 国家公司总经理，挪威公司</t>
@@ -1945,7 +1945,7 @@
     <t>Analyst_Business_Planning /  分析师，业务规划</t>
   </si>
   <si>
-    <t>Analyst, Market &amp; User Research / 分析师，市场及用户研究</t>
+    <t>Analyst, Market &amp; User_ Research / 分析师，市场及用户研究</t>
   </si>
   <si>
     <t>Associate_PMO / 助理PMO</t>
@@ -2038,10 +2038,10 @@
     <t>Manager, Fellow South Germany</t>
   </si>
   <si>
-    <t>Manager, UserRepresentative  Berlin</t>
-  </si>
-  <si>
-    <t>Manager, UserRepresentative  Hamburg</t>
+    <t>Manager, User_Representative  Berlin</t>
+  </si>
+  <si>
+    <t>Manager, User_Representative  Hamburg</t>
   </si>
   <si>
     <t>Sales_Advisor, Stavanger</t>
@@ -2053,16 +2053,16 @@
     <t>Specialist_Vehicle_Operation</t>
   </si>
   <si>
-    <t>UserRepresentative Berlin</t>
-  </si>
-  <si>
-    <t>UserRepresentative, Düsseldorf</t>
-  </si>
-  <si>
-    <t>UserRepresentative, Essen</t>
-  </si>
-  <si>
-    <t>UserRepresentative, Stuttgart</t>
+    <t>User_Representative Berlin</t>
+  </si>
+  <si>
+    <t>User_Representative, Düsseldorf</t>
+  </si>
+  <si>
+    <t>User_Representative, Essen</t>
+  </si>
+  <si>
+    <t>User_Representative, Stuttgart</t>
   </si>
   <si>
     <t>Vehicle_Management_Manager</t>

--- a/helper/Employee.xlsx
+++ b/helper/Employee.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1883" uniqueCount="670">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1869" uniqueCount="671">
   <si>
     <t>Employee</t>
   </si>
@@ -751,9 +751,6 @@
     <t>josephus_padilla</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>roberto_pavon</t>
   </si>
   <si>
@@ -1339,6 +1336,9 @@
     <t>Infrastructure_Project_Management_Specialist,Everybody_in_EU</t>
   </si>
   <si>
+    <t>Everybody_in_EU,Intern</t>
+  </si>
+  <si>
     <t>Intern,Everybody_in_EU</t>
   </si>
   <si>
@@ -1915,6 +1915,9 @@
     <t>Service_PMO</t>
   </si>
   <si>
+    <t>Europe_Business_Operation</t>
+  </si>
+  <si>
     <t>NIO_House_Operation</t>
   </si>
   <si>
@@ -1966,7 +1969,7 @@
     <t>Europe_Business_HRBP_Department</t>
   </si>
   <si>
-    <t>Retail_Sales,Fleet_&amp;_Business_Sales,Sales_Planning</t>
+    <t>Retail_Sales,Fleet_&amp;_Business_Sales,Sales_Planning,Europe_Business_Operation</t>
   </si>
   <si>
     <t>Parts_&amp;_Logistics</t>
@@ -1981,7 +1984,7 @@
     <t>Operational_Procurement</t>
   </si>
   <si>
-    <t>Sales_Product_Group</t>
+    <t>(Digital) Sales Product Group</t>
   </si>
   <si>
     <t>Digital_Development_PMO_Team</t>
@@ -2381,7 +2384,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G375"/>
+  <dimension ref="A1:G372"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2415,10 +2418,10 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
+        <v>377</v>
+      </c>
+      <c r="D2" t="s">
         <v>378</v>
-      </c>
-      <c r="D2" t="s">
-        <v>379</v>
       </c>
       <c r="E2" t="s">
         <v>595</v>
@@ -2427,7 +2430,7 @@
         <v>595</v>
       </c>
       <c r="G2" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2438,10 +2441,10 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E3" t="s">
         <v>596</v>
@@ -2450,7 +2453,7 @@
         <v>596</v>
       </c>
       <c r="G3" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -2461,10 +2464,10 @@
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D4" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E4" t="s">
         <v>597</v>
@@ -2473,7 +2476,7 @@
         <v>597</v>
       </c>
       <c r="G4" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -2484,10 +2487,10 @@
         <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D5" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E5" t="s">
         <v>598</v>
@@ -2496,7 +2499,7 @@
         <v>598</v>
       </c>
       <c r="G5" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -2507,10 +2510,10 @@
         <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D6" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E6" t="s">
         <v>599</v>
@@ -2519,7 +2522,7 @@
         <v>599</v>
       </c>
       <c r="G6" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -2530,10 +2533,10 @@
         <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D7" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E7" t="s">
         <v>600</v>
@@ -2542,7 +2545,7 @@
         <v>600</v>
       </c>
       <c r="G7" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -2553,10 +2556,10 @@
         <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D8" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E8" t="s">
         <v>601</v>
@@ -2565,7 +2568,7 @@
         <v>601</v>
       </c>
       <c r="G8" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -2576,10 +2579,10 @@
         <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D9" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E9" t="s">
         <v>602</v>
@@ -2588,7 +2591,7 @@
         <v>602</v>
       </c>
       <c r="G9" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -2599,13 +2602,13 @@
         <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D10" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F10" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -2616,19 +2619,19 @@
         <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D11" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E11" t="s">
         <v>603</v>
       </c>
       <c r="F11" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="G11" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -2639,10 +2642,10 @@
         <v>16</v>
       </c>
       <c r="C12" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D12" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E12" t="s">
         <v>604</v>
@@ -2651,7 +2654,7 @@
         <v>604</v>
       </c>
       <c r="G12" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -2662,10 +2665,10 @@
         <v>17</v>
       </c>
       <c r="C13" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D13" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E13" t="s">
         <v>605</v>
@@ -2674,7 +2677,7 @@
         <v>605</v>
       </c>
       <c r="G13" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -2685,10 +2688,10 @@
         <v>18</v>
       </c>
       <c r="C14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D14" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E14" t="s">
         <v>606</v>
@@ -2697,7 +2700,7 @@
         <v>606</v>
       </c>
       <c r="G14" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -2708,10 +2711,10 @@
         <v>19</v>
       </c>
       <c r="C15" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D15" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E15" t="s">
         <v>607</v>
@@ -2720,7 +2723,7 @@
         <v>607</v>
       </c>
       <c r="G15" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -2731,10 +2734,10 @@
         <v>20</v>
       </c>
       <c r="C16" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D16" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E16" t="s">
         <v>608</v>
@@ -2743,7 +2746,7 @@
         <v>608</v>
       </c>
       <c r="G16" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -2754,10 +2757,10 @@
         <v>21</v>
       </c>
       <c r="C17" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D17" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E17" t="s">
         <v>609</v>
@@ -2766,7 +2769,7 @@
         <v>609</v>
       </c>
       <c r="G17" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -2777,10 +2780,10 @@
         <v>22</v>
       </c>
       <c r="C18" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D18" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E18" t="s">
         <v>610</v>
@@ -2789,7 +2792,7 @@
         <v>610</v>
       </c>
       <c r="G18" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -2800,10 +2803,10 @@
         <v>23</v>
       </c>
       <c r="C19" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D19" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E19" t="s">
         <v>611</v>
@@ -2812,7 +2815,7 @@
         <v>611</v>
       </c>
       <c r="G19" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -2823,10 +2826,10 @@
         <v>24</v>
       </c>
       <c r="C20" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D20" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E20" t="s">
         <v>612</v>
@@ -2835,7 +2838,7 @@
         <v>612</v>
       </c>
       <c r="G20" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -2846,10 +2849,10 @@
         <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D21" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E21" t="s">
         <v>613</v>
@@ -2858,7 +2861,7 @@
         <v>613</v>
       </c>
       <c r="G21" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -2869,16 +2872,16 @@
         <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D22" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E22" t="s">
         <v>614</v>
       </c>
       <c r="G22" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -2889,10 +2892,10 @@
         <v>27</v>
       </c>
       <c r="C23" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D23" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E23" t="s">
         <v>615</v>
@@ -2901,7 +2904,7 @@
         <v>615</v>
       </c>
       <c r="G23" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -2912,10 +2915,10 @@
         <v>28</v>
       </c>
       <c r="C24" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D24" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E24" t="s">
         <v>616</v>
@@ -2924,7 +2927,7 @@
         <v>616</v>
       </c>
       <c r="G24" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -2935,10 +2938,10 @@
         <v>29</v>
       </c>
       <c r="C25" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D25" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E25" t="s">
         <v>617</v>
@@ -2947,7 +2950,7 @@
         <v>617</v>
       </c>
       <c r="G25" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -2958,10 +2961,10 @@
         <v>30</v>
       </c>
       <c r="C26" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D26" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E26" t="s">
         <v>618</v>
@@ -2970,7 +2973,7 @@
         <v>618</v>
       </c>
       <c r="G26" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -2981,10 +2984,10 @@
         <v>31</v>
       </c>
       <c r="C27" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D27" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E27" t="s">
         <v>614</v>
@@ -2993,7 +2996,7 @@
         <v>614</v>
       </c>
       <c r="G27" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -3004,10 +3007,10 @@
         <v>32</v>
       </c>
       <c r="C28" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D28" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E28" t="s">
         <v>619</v>
@@ -3016,7 +3019,7 @@
         <v>619</v>
       </c>
       <c r="G28" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -3027,10 +3030,10 @@
         <v>33</v>
       </c>
       <c r="C29" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D29" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E29" t="s">
         <v>620</v>
@@ -3039,7 +3042,7 @@
         <v>620</v>
       </c>
       <c r="G29" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -3050,10 +3053,10 @@
         <v>34</v>
       </c>
       <c r="C30" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D30" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E30" t="s">
         <v>621</v>
@@ -3062,7 +3065,7 @@
         <v>621</v>
       </c>
       <c r="G30" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -3073,10 +3076,10 @@
         <v>35</v>
       </c>
       <c r="C31" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D31" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E31" t="s">
         <v>622</v>
@@ -3085,7 +3088,7 @@
         <v>622</v>
       </c>
       <c r="G31" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -3096,10 +3099,10 @@
         <v>36</v>
       </c>
       <c r="C32" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D32" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E32" t="s">
         <v>623</v>
@@ -3108,7 +3111,7 @@
         <v>623</v>
       </c>
       <c r="G32" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -3119,10 +3122,10 @@
         <v>37</v>
       </c>
       <c r="C33" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D33" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E33" t="s">
         <v>624</v>
@@ -3131,7 +3134,7 @@
         <v>624</v>
       </c>
       <c r="G33" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -3142,10 +3145,10 @@
         <v>38</v>
       </c>
       <c r="C34" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D34" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E34" t="s">
         <v>625</v>
@@ -3154,7 +3157,7 @@
         <v>625</v>
       </c>
       <c r="G34" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -3165,10 +3168,10 @@
         <v>39</v>
       </c>
       <c r="C35" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D35" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E35" t="s">
         <v>625</v>
@@ -3177,7 +3180,7 @@
         <v>625</v>
       </c>
       <c r="G35" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -3188,10 +3191,10 @@
         <v>40</v>
       </c>
       <c r="C36" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D36" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E36" t="s">
         <v>626</v>
@@ -3200,7 +3203,7 @@
         <v>626</v>
       </c>
       <c r="G36" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -3211,10 +3214,10 @@
         <v>41</v>
       </c>
       <c r="C37" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D37" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E37" t="s">
         <v>627</v>
@@ -3223,7 +3226,7 @@
         <v>627</v>
       </c>
       <c r="G37" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -3234,10 +3237,10 @@
         <v>42</v>
       </c>
       <c r="C38" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D38" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E38" t="s">
         <v>628</v>
@@ -3246,7 +3249,7 @@
         <v>628</v>
       </c>
       <c r="G38" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -3257,10 +3260,10 @@
         <v>43</v>
       </c>
       <c r="C39" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D39" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E39" t="s">
         <v>629</v>
@@ -3269,7 +3272,7 @@
         <v>629</v>
       </c>
       <c r="G39" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -3280,16 +3283,16 @@
         <v>44</v>
       </c>
       <c r="C40" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D40" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E40" t="s">
         <v>628</v>
       </c>
       <c r="G40" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -3300,10 +3303,10 @@
         <v>45</v>
       </c>
       <c r="C41" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D41" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E41" t="s">
         <v>630</v>
@@ -3312,7 +3315,7 @@
         <v>630</v>
       </c>
       <c r="G41" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -3323,10 +3326,10 @@
         <v>46</v>
       </c>
       <c r="C42" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D42" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E42" t="s">
         <v>631</v>
@@ -3335,7 +3338,7 @@
         <v>631</v>
       </c>
       <c r="G42" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -3346,10 +3349,10 @@
         <v>47</v>
       </c>
       <c r="C43" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D43" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E43" t="s">
         <v>632</v>
@@ -3358,7 +3361,7 @@
         <v>632</v>
       </c>
       <c r="G43" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -3369,13 +3372,13 @@
         <v>48</v>
       </c>
       <c r="C44" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D44" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F44" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -3386,16 +3389,16 @@
         <v>49</v>
       </c>
       <c r="C45" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D45" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E45" t="s">
         <v>599</v>
       </c>
       <c r="G45" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -3406,16 +3409,16 @@
         <v>50</v>
       </c>
       <c r="C46" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D46" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="E46" t="s">
         <v>615</v>
       </c>
       <c r="G46" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -3426,16 +3429,16 @@
         <v>51</v>
       </c>
       <c r="C47" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D47" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E47" t="s">
         <v>612</v>
       </c>
       <c r="G47" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -3446,16 +3449,16 @@
         <v>52</v>
       </c>
       <c r="C48" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D48" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E48" t="s">
         <v>602</v>
       </c>
       <c r="G48" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -3466,13 +3469,13 @@
         <v>53</v>
       </c>
       <c r="C49" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D49" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="G49" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -3483,16 +3486,16 @@
         <v>54</v>
       </c>
       <c r="C50" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D50" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E50" t="s">
         <v>632</v>
       </c>
       <c r="G50" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -3503,16 +3506,16 @@
         <v>55</v>
       </c>
       <c r="C51" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D51" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E51" t="s">
         <v>612</v>
       </c>
       <c r="G51" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -3523,13 +3526,13 @@
         <v>56</v>
       </c>
       <c r="C52" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D52" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="G52" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -3540,16 +3543,19 @@
         <v>57</v>
       </c>
       <c r="C53" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D53" t="s">
-        <v>429</v>
+        <v>428</v>
+      </c>
+      <c r="E53" t="s">
+        <v>633</v>
       </c>
       <c r="F53" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="G53" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -3560,16 +3566,16 @@
         <v>58</v>
       </c>
       <c r="C54" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D54" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E54" t="s">
         <v>615</v>
       </c>
       <c r="G54" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -3580,19 +3586,19 @@
         <v>59</v>
       </c>
       <c r="C55" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D55" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E55" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="F55" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="G55" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -3603,19 +3609,19 @@
         <v>60</v>
       </c>
       <c r="C56" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D56" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E56" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="F56" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="G56" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -3626,16 +3632,16 @@
         <v>61</v>
       </c>
       <c r="C57" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D57" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E57" t="s">
         <v>615</v>
       </c>
       <c r="G57" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -3646,13 +3652,13 @@
         <v>62</v>
       </c>
       <c r="C58" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D58" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="G58" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -3663,16 +3669,16 @@
         <v>63</v>
       </c>
       <c r="C59" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D59" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E59" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="G59" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -3683,16 +3689,16 @@
         <v>64</v>
       </c>
       <c r="C60" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D60" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E60" t="s">
         <v>620</v>
       </c>
       <c r="G60" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -3703,19 +3709,19 @@
         <v>65</v>
       </c>
       <c r="C61" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D61" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E61" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="F61" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="G61" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -3726,13 +3732,13 @@
         <v>66</v>
       </c>
       <c r="C62" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D62" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G62" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -3743,19 +3749,19 @@
         <v>67</v>
       </c>
       <c r="C63" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D63" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E63" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="F63" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="G63" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -3766,16 +3772,16 @@
         <v>68</v>
       </c>
       <c r="C64" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D64" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E64" t="s">
         <v>613</v>
       </c>
       <c r="G64" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -3786,16 +3792,16 @@
         <v>69</v>
       </c>
       <c r="C65" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D65" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E65" t="s">
         <v>612</v>
       </c>
       <c r="G65" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -3806,13 +3812,13 @@
         <v>70</v>
       </c>
       <c r="C66" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D66" t="s">
         <v>441</v>
       </c>
       <c r="G66" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -3823,7 +3829,7 @@
         <v>71</v>
       </c>
       <c r="C67" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D67" t="s">
         <v>441</v>
@@ -3832,7 +3838,7 @@
         <v>623</v>
       </c>
       <c r="G67" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -3843,7 +3849,7 @@
         <v>72</v>
       </c>
       <c r="C68" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D68" t="s">
         <v>441</v>
@@ -3852,7 +3858,7 @@
         <v>623</v>
       </c>
       <c r="G68" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -3863,7 +3869,7 @@
         <v>73</v>
       </c>
       <c r="C69" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D69" t="s">
         <v>441</v>
@@ -3872,7 +3878,7 @@
         <v>632</v>
       </c>
       <c r="G69" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -3883,7 +3889,7 @@
         <v>74</v>
       </c>
       <c r="C70" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D70" t="s">
         <v>441</v>
@@ -3892,7 +3898,7 @@
         <v>602</v>
       </c>
       <c r="G70" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -3903,13 +3909,13 @@
         <v>75</v>
       </c>
       <c r="C71" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D71" t="s">
         <v>441</v>
       </c>
       <c r="G71" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -3920,7 +3926,7 @@
         <v>76</v>
       </c>
       <c r="C72" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D72" t="s">
         <v>441</v>
@@ -3929,7 +3935,7 @@
         <v>605</v>
       </c>
       <c r="G72" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -3940,7 +3946,7 @@
         <v>77</v>
       </c>
       <c r="C73" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D73" t="s">
         <v>441</v>
@@ -3949,7 +3955,7 @@
         <v>605</v>
       </c>
       <c r="G73" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -3960,7 +3966,7 @@
         <v>78</v>
       </c>
       <c r="C74" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D74" t="s">
         <v>441</v>
@@ -3969,7 +3975,7 @@
         <v>623</v>
       </c>
       <c r="G74" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -3980,7 +3986,7 @@
         <v>79</v>
       </c>
       <c r="C75" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D75" t="s">
         <v>441</v>
@@ -3989,7 +3995,7 @@
         <v>632</v>
       </c>
       <c r="G75" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -4000,7 +4006,7 @@
         <v>80</v>
       </c>
       <c r="C76" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D76" t="s">
         <v>442</v>
@@ -4009,7 +4015,7 @@
         <v>601</v>
       </c>
       <c r="G76" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -4020,7 +4026,7 @@
         <v>81</v>
       </c>
       <c r="C77" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D77" t="s">
         <v>442</v>
@@ -4029,7 +4035,7 @@
         <v>601</v>
       </c>
       <c r="G77" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -4040,13 +4046,13 @@
         <v>82</v>
       </c>
       <c r="C78" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D78" t="s">
         <v>443</v>
       </c>
       <c r="G78" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -4057,7 +4063,7 @@
         <v>83</v>
       </c>
       <c r="C79" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D79" t="s">
         <v>444</v>
@@ -4066,7 +4072,7 @@
         <v>615</v>
       </c>
       <c r="G79" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -4077,7 +4083,7 @@
         <v>84</v>
       </c>
       <c r="C80" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D80" t="s">
         <v>445</v>
@@ -4086,7 +4092,7 @@
         <v>632</v>
       </c>
       <c r="G80" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
     </row>
     <row r="81" spans="1:7">
@@ -4097,7 +4103,7 @@
         <v>85</v>
       </c>
       <c r="C81" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D81" t="s">
         <v>446</v>
@@ -4106,7 +4112,7 @@
         <v>599</v>
       </c>
       <c r="G81" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
     </row>
     <row r="82" spans="1:7">
@@ -4117,13 +4123,13 @@
         <v>86</v>
       </c>
       <c r="C82" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D82" t="s">
         <v>447</v>
       </c>
       <c r="G82" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
     </row>
     <row r="83" spans="1:7">
@@ -4134,7 +4140,7 @@
         <v>87</v>
       </c>
       <c r="C83" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D83" t="s">
         <v>447</v>
@@ -4143,7 +4149,7 @@
         <v>616</v>
       </c>
       <c r="G83" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
     </row>
     <row r="84" spans="1:7">
@@ -4154,7 +4160,7 @@
         <v>88</v>
       </c>
       <c r="C84" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D84" t="s">
         <v>448</v>
@@ -4163,7 +4169,7 @@
         <v>616</v>
       </c>
       <c r="G84" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
     </row>
     <row r="85" spans="1:7">
@@ -4174,16 +4180,16 @@
         <v>89</v>
       </c>
       <c r="C85" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D85" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E85" t="s">
         <v>632</v>
       </c>
       <c r="G85" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
     </row>
     <row r="86" spans="1:7">
@@ -4194,13 +4200,13 @@
         <v>90</v>
       </c>
       <c r="C86" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D86" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="G86" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
     </row>
     <row r="87" spans="1:7">
@@ -4211,7 +4217,7 @@
         <v>91</v>
       </c>
       <c r="C87" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D87" t="s">
         <v>449</v>
@@ -4220,7 +4226,7 @@
         <v>603</v>
       </c>
       <c r="G87" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
     </row>
     <row r="88" spans="1:7">
@@ -4231,7 +4237,7 @@
         <v>92</v>
       </c>
       <c r="C88" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D88" t="s">
         <v>449</v>
@@ -4240,7 +4246,7 @@
         <v>623</v>
       </c>
       <c r="G88" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
     </row>
     <row r="89" spans="1:7">
@@ -4251,7 +4257,7 @@
         <v>93</v>
       </c>
       <c r="C89" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D89" t="s">
         <v>449</v>
@@ -4260,7 +4266,7 @@
         <v>623</v>
       </c>
       <c r="G89" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
     </row>
     <row r="90" spans="1:7">
@@ -4271,7 +4277,7 @@
         <v>94</v>
       </c>
       <c r="C90" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D90" t="s">
         <v>450</v>
@@ -4280,7 +4286,7 @@
         <v>632</v>
       </c>
       <c r="G90" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
     </row>
     <row r="91" spans="1:7">
@@ -4291,7 +4297,7 @@
         <v>95</v>
       </c>
       <c r="C91" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D91" t="s">
         <v>450</v>
@@ -4300,7 +4306,7 @@
         <v>632</v>
       </c>
       <c r="G91" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
     </row>
     <row r="92" spans="1:7">
@@ -4311,7 +4317,7 @@
         <v>96</v>
       </c>
       <c r="C92" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D92" t="s">
         <v>451</v>
@@ -4320,7 +4326,7 @@
         <v>615</v>
       </c>
       <c r="G92" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
     </row>
     <row r="93" spans="1:7">
@@ -4331,7 +4337,7 @@
         <v>97</v>
       </c>
       <c r="C93" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D93" t="s">
         <v>452</v>
@@ -4340,7 +4346,7 @@
         <v>605</v>
       </c>
       <c r="G93" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
     </row>
     <row r="94" spans="1:7">
@@ -4351,7 +4357,7 @@
         <v>98</v>
       </c>
       <c r="C94" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D94" t="s">
         <v>453</v>
@@ -4360,7 +4366,7 @@
         <v>602</v>
       </c>
       <c r="G94" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
     </row>
     <row r="95" spans="1:7">
@@ -4371,7 +4377,7 @@
         <v>99</v>
       </c>
       <c r="C95" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D95" t="s">
         <v>453</v>
@@ -4380,7 +4386,7 @@
         <v>632</v>
       </c>
       <c r="G95" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
     </row>
     <row r="96" spans="1:7">
@@ -4391,7 +4397,7 @@
         <v>100</v>
       </c>
       <c r="C96" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D96" t="s">
         <v>453</v>
@@ -4400,7 +4406,7 @@
         <v>605</v>
       </c>
       <c r="G96" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
     </row>
     <row r="97" spans="1:7">
@@ -4411,7 +4417,7 @@
         <v>101</v>
       </c>
       <c r="C97" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D97" t="s">
         <v>453</v>
@@ -4420,7 +4426,7 @@
         <v>603</v>
       </c>
       <c r="G97" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
     </row>
     <row r="98" spans="1:7">
@@ -4431,7 +4437,7 @@
         <v>102</v>
       </c>
       <c r="C98" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D98" t="s">
         <v>453</v>
@@ -4440,7 +4446,7 @@
         <v>607</v>
       </c>
       <c r="G98" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
     </row>
     <row r="99" spans="1:7">
@@ -4451,7 +4457,7 @@
         <v>103</v>
       </c>
       <c r="C99" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D99" t="s">
         <v>453</v>
@@ -4460,7 +4466,7 @@
         <v>603</v>
       </c>
       <c r="G99" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
     </row>
     <row r="100" spans="1:7">
@@ -4471,7 +4477,7 @@
         <v>104</v>
       </c>
       <c r="C100" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D100" t="s">
         <v>454</v>
@@ -4480,7 +4486,7 @@
         <v>613</v>
       </c>
       <c r="G100" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
     </row>
     <row r="101" spans="1:7">
@@ -4491,7 +4497,7 @@
         <v>105</v>
       </c>
       <c r="C101" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D101" t="s">
         <v>454</v>
@@ -4500,7 +4506,7 @@
         <v>613</v>
       </c>
       <c r="G101" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
     </row>
     <row r="102" spans="1:7">
@@ -4511,7 +4517,7 @@
         <v>106</v>
       </c>
       <c r="C102" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D102" t="s">
         <v>455</v>
@@ -4520,7 +4526,7 @@
         <v>615</v>
       </c>
       <c r="G102" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
     </row>
     <row r="103" spans="1:7">
@@ -4531,7 +4537,7 @@
         <v>107</v>
       </c>
       <c r="C103" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D103" t="s">
         <v>456</v>
@@ -4540,7 +4546,7 @@
         <v>607</v>
       </c>
       <c r="G103" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
     </row>
     <row r="104" spans="1:7">
@@ -4551,7 +4557,7 @@
         <v>108</v>
       </c>
       <c r="C104" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D104" t="s">
         <v>456</v>
@@ -4560,7 +4566,7 @@
         <v>607</v>
       </c>
       <c r="G104" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
     </row>
     <row r="105" spans="1:7">
@@ -4571,7 +4577,7 @@
         <v>109</v>
       </c>
       <c r="C105" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D105" t="s">
         <v>456</v>
@@ -4580,7 +4586,7 @@
         <v>607</v>
       </c>
       <c r="G105" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
     </row>
     <row r="106" spans="1:7">
@@ -4591,7 +4597,7 @@
         <v>110</v>
       </c>
       <c r="C106" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D106" t="s">
         <v>456</v>
@@ -4600,7 +4606,7 @@
         <v>632</v>
       </c>
       <c r="G106" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
     </row>
     <row r="107" spans="1:7">
@@ -4611,7 +4617,7 @@
         <v>111</v>
       </c>
       <c r="C107" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D107" t="s">
         <v>457</v>
@@ -4620,7 +4626,7 @@
         <v>602</v>
       </c>
       <c r="G107" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
     </row>
     <row r="108" spans="1:7">
@@ -4631,7 +4637,7 @@
         <v>112</v>
       </c>
       <c r="C108" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D108" t="s">
         <v>458</v>
@@ -4640,7 +4646,7 @@
         <v>615</v>
       </c>
       <c r="G108" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
     </row>
     <row r="109" spans="1:7">
@@ -4651,7 +4657,7 @@
         <v>113</v>
       </c>
       <c r="C109" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D109" t="s">
         <v>459</v>
@@ -4660,7 +4666,7 @@
         <v>599</v>
       </c>
       <c r="G109" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
     </row>
     <row r="110" spans="1:7">
@@ -4671,7 +4677,7 @@
         <v>114</v>
       </c>
       <c r="C110" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D110" t="s">
         <v>460</v>
@@ -4680,7 +4686,7 @@
         <v>620</v>
       </c>
       <c r="G110" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
     </row>
     <row r="111" spans="1:7">
@@ -4691,13 +4697,13 @@
         <v>115</v>
       </c>
       <c r="C111" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D111" t="s">
         <v>461</v>
       </c>
       <c r="G111" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
     </row>
     <row r="112" spans="1:7">
@@ -4708,7 +4714,7 @@
         <v>116</v>
       </c>
       <c r="C112" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D112" t="s">
         <v>462</v>
@@ -4717,7 +4723,7 @@
         <v>621</v>
       </c>
       <c r="G112" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
     </row>
     <row r="113" spans="1:7">
@@ -4728,7 +4734,7 @@
         <v>117</v>
       </c>
       <c r="C113" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D113" t="s">
         <v>462</v>
@@ -4737,7 +4743,7 @@
         <v>621</v>
       </c>
       <c r="G113" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
     </row>
     <row r="114" spans="1:7">
@@ -4748,7 +4754,7 @@
         <v>118</v>
       </c>
       <c r="C114" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D114" t="s">
         <v>462</v>
@@ -4757,7 +4763,7 @@
         <v>621</v>
       </c>
       <c r="G114" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
     </row>
     <row r="115" spans="1:7">
@@ -4768,7 +4774,7 @@
         <v>119</v>
       </c>
       <c r="C115" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D115" t="s">
         <v>463</v>
@@ -4777,7 +4783,7 @@
         <v>621</v>
       </c>
       <c r="G115" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
     </row>
     <row r="116" spans="1:7">
@@ -4788,7 +4794,7 @@
         <v>120</v>
       </c>
       <c r="C116" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D116" t="s">
         <v>463</v>
@@ -4797,7 +4803,7 @@
         <v>621</v>
       </c>
       <c r="G116" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
     </row>
     <row r="117" spans="1:7">
@@ -4808,7 +4814,7 @@
         <v>121</v>
       </c>
       <c r="C117" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D117" t="s">
         <v>464</v>
@@ -4817,7 +4823,7 @@
         <v>621</v>
       </c>
       <c r="G117" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
     </row>
     <row r="118" spans="1:7">
@@ -4828,13 +4834,13 @@
         <v>122</v>
       </c>
       <c r="C118" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D118" t="s">
         <v>465</v>
       </c>
       <c r="G118" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
     </row>
     <row r="119" spans="1:7">
@@ -4845,7 +4851,7 @@
         <v>123</v>
       </c>
       <c r="C119" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D119" t="s">
         <v>466</v>
@@ -4854,7 +4860,7 @@
         <v>607</v>
       </c>
       <c r="G119" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
     </row>
     <row r="120" spans="1:7">
@@ -4865,13 +4871,13 @@
         <v>124</v>
       </c>
       <c r="C120" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D120" t="s">
         <v>467</v>
       </c>
       <c r="G120" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
     </row>
     <row r="121" spans="1:7">
@@ -4882,7 +4888,7 @@
         <v>125</v>
       </c>
       <c r="C121" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D121" t="s">
         <v>468</v>
@@ -4891,7 +4897,7 @@
         <v>602</v>
       </c>
       <c r="G121" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
     </row>
     <row r="122" spans="1:7">
@@ -4902,7 +4908,7 @@
         <v>126</v>
       </c>
       <c r="C122" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D122" t="s">
         <v>468</v>
@@ -4911,7 +4917,7 @@
         <v>602</v>
       </c>
       <c r="G122" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
     </row>
     <row r="123" spans="1:7">
@@ -4922,7 +4928,7 @@
         <v>127</v>
       </c>
       <c r="C123" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D123" t="s">
         <v>468</v>
@@ -4931,7 +4937,7 @@
         <v>602</v>
       </c>
       <c r="G123" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
     </row>
     <row r="124" spans="1:7">
@@ -4942,7 +4948,7 @@
         <v>128</v>
       </c>
       <c r="C124" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D124" t="s">
         <v>469</v>
@@ -4951,7 +4957,7 @@
         <v>605</v>
       </c>
       <c r="G124" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
     </row>
     <row r="125" spans="1:7">
@@ -4962,7 +4968,7 @@
         <v>129</v>
       </c>
       <c r="C125" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D125" t="s">
         <v>468</v>
@@ -4971,7 +4977,7 @@
         <v>607</v>
       </c>
       <c r="G125" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
     </row>
     <row r="126" spans="1:7">
@@ -4982,7 +4988,7 @@
         <v>130</v>
       </c>
       <c r="C126" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D126" t="s">
         <v>470</v>
@@ -4991,7 +4997,7 @@
         <v>621</v>
       </c>
       <c r="G126" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
     </row>
     <row r="127" spans="1:7">
@@ -5002,7 +5008,7 @@
         <v>131</v>
       </c>
       <c r="C127" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D127" t="s">
         <v>470</v>
@@ -5011,7 +5017,7 @@
         <v>621</v>
       </c>
       <c r="G127" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
     </row>
     <row r="128" spans="1:7">
@@ -5022,7 +5028,7 @@
         <v>132</v>
       </c>
       <c r="C128" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D128" t="s">
         <v>470</v>
@@ -5031,7 +5037,7 @@
         <v>621</v>
       </c>
       <c r="G128" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
     </row>
     <row r="129" spans="1:7">
@@ -5042,7 +5048,7 @@
         <v>133</v>
       </c>
       <c r="C129" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D129" t="s">
         <v>470</v>
@@ -5051,7 +5057,7 @@
         <v>621</v>
       </c>
       <c r="G129" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
     </row>
     <row r="130" spans="1:7">
@@ -5062,7 +5068,7 @@
         <v>134</v>
       </c>
       <c r="C130" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D130" t="s">
         <v>470</v>
@@ -5071,7 +5077,7 @@
         <v>621</v>
       </c>
       <c r="G130" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
     </row>
     <row r="131" spans="1:7">
@@ -5082,7 +5088,7 @@
         <v>135</v>
       </c>
       <c r="C131" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D131" t="s">
         <v>470</v>
@@ -5091,7 +5097,7 @@
         <v>621</v>
       </c>
       <c r="G131" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
     </row>
     <row r="132" spans="1:7">
@@ -5102,7 +5108,7 @@
         <v>136</v>
       </c>
       <c r="C132" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D132" t="s">
         <v>470</v>
@@ -5111,7 +5117,7 @@
         <v>621</v>
       </c>
       <c r="G132" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
     </row>
     <row r="133" spans="1:7">
@@ -5122,7 +5128,7 @@
         <v>137</v>
       </c>
       <c r="C133" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D133" t="s">
         <v>471</v>
@@ -5131,7 +5137,7 @@
         <v>627</v>
       </c>
       <c r="G133" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
     </row>
     <row r="134" spans="1:7">
@@ -5142,7 +5148,7 @@
         <v>138</v>
       </c>
       <c r="C134" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D134" t="s">
         <v>472</v>
@@ -5151,7 +5157,7 @@
         <v>597</v>
       </c>
       <c r="G134" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
     </row>
     <row r="135" spans="1:7">
@@ -5162,7 +5168,7 @@
         <v>139</v>
       </c>
       <c r="C135" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D135" t="s">
         <v>472</v>
@@ -5171,7 +5177,7 @@
         <v>597</v>
       </c>
       <c r="G135" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
     </row>
     <row r="136" spans="1:7">
@@ -5182,7 +5188,7 @@
         <v>140</v>
       </c>
       <c r="C136" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D136" t="s">
         <v>473</v>
@@ -5191,7 +5197,7 @@
         <v>597</v>
       </c>
       <c r="G136" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
     </row>
     <row r="137" spans="1:7">
@@ -5202,7 +5208,7 @@
         <v>141</v>
       </c>
       <c r="C137" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D137" t="s">
         <v>474</v>
@@ -5211,7 +5217,7 @@
         <v>626</v>
       </c>
       <c r="G137" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
     </row>
     <row r="138" spans="1:7">
@@ -5222,7 +5228,7 @@
         <v>142</v>
       </c>
       <c r="C138" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D138" t="s">
         <v>475</v>
@@ -5231,7 +5237,7 @@
         <v>626</v>
       </c>
       <c r="G138" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
     </row>
     <row r="139" spans="1:7">
@@ -5242,7 +5248,7 @@
         <v>143</v>
       </c>
       <c r="C139" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D139" t="s">
         <v>476</v>
@@ -5251,7 +5257,7 @@
         <v>609</v>
       </c>
       <c r="G139" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
     </row>
     <row r="140" spans="1:7">
@@ -5262,7 +5268,7 @@
         <v>144</v>
       </c>
       <c r="C140" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D140" t="s">
         <v>477</v>
@@ -5271,7 +5277,7 @@
         <v>631</v>
       </c>
       <c r="G140" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
     </row>
     <row r="141" spans="1:7">
@@ -5282,7 +5288,7 @@
         <v>145</v>
       </c>
       <c r="C141" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D141" t="s">
         <v>478</v>
@@ -5291,7 +5297,7 @@
         <v>624</v>
       </c>
       <c r="G141" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
     </row>
     <row r="142" spans="1:7">
@@ -5302,7 +5308,7 @@
         <v>146</v>
       </c>
       <c r="C142" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D142" t="s">
         <v>479</v>
@@ -5311,7 +5317,7 @@
         <v>598</v>
       </c>
       <c r="G142" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
     </row>
     <row r="143" spans="1:7">
@@ -5322,7 +5328,7 @@
         <v>147</v>
       </c>
       <c r="C143" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D143" t="s">
         <v>480</v>
@@ -5331,7 +5337,7 @@
         <v>629</v>
       </c>
       <c r="G143" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
     </row>
     <row r="144" spans="1:7">
@@ -5342,7 +5348,7 @@
         <v>148</v>
       </c>
       <c r="C144" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D144" t="s">
         <v>481</v>
@@ -5351,7 +5357,7 @@
         <v>629</v>
       </c>
       <c r="G144" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
     </row>
     <row r="145" spans="1:7">
@@ -5362,7 +5368,7 @@
         <v>149</v>
       </c>
       <c r="C145" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D145" t="s">
         <v>482</v>
@@ -5371,7 +5377,7 @@
         <v>610</v>
       </c>
       <c r="G145" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
     </row>
     <row r="146" spans="1:7">
@@ -5382,7 +5388,7 @@
         <v>150</v>
       </c>
       <c r="C146" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D146" t="s">
         <v>483</v>
@@ -5391,7 +5397,7 @@
         <v>598</v>
       </c>
       <c r="G146" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
     </row>
     <row r="147" spans="1:7">
@@ -5402,7 +5408,7 @@
         <v>151</v>
       </c>
       <c r="C147" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D147" t="s">
         <v>484</v>
@@ -5411,7 +5417,7 @@
         <v>595</v>
       </c>
       <c r="G147" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
     </row>
     <row r="148" spans="1:7">
@@ -5422,7 +5428,7 @@
         <v>152</v>
       </c>
       <c r="C148" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D148" t="s">
         <v>485</v>
@@ -5431,7 +5437,7 @@
         <v>595</v>
       </c>
       <c r="G148" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
     </row>
     <row r="149" spans="1:7">
@@ -5442,7 +5448,7 @@
         <v>153</v>
       </c>
       <c r="C149" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D149" t="s">
         <v>485</v>
@@ -5451,7 +5457,7 @@
         <v>595</v>
       </c>
       <c r="G149" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
     </row>
     <row r="150" spans="1:7">
@@ -5462,7 +5468,7 @@
         <v>154</v>
       </c>
       <c r="C150" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D150" t="s">
         <v>485</v>
@@ -5471,7 +5477,7 @@
         <v>595</v>
       </c>
       <c r="G150" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
     </row>
     <row r="151" spans="1:7">
@@ -5482,7 +5488,7 @@
         <v>155</v>
       </c>
       <c r="C151" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D151" t="s">
         <v>486</v>
@@ -5491,7 +5497,7 @@
         <v>595</v>
       </c>
       <c r="G151" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
     </row>
     <row r="152" spans="1:7">
@@ -5502,7 +5508,7 @@
         <v>156</v>
       </c>
       <c r="C152" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D152" t="s">
         <v>487</v>
@@ -5511,7 +5517,7 @@
         <v>598</v>
       </c>
       <c r="G152" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
     </row>
     <row r="153" spans="1:7">
@@ -5522,7 +5528,7 @@
         <v>157</v>
       </c>
       <c r="C153" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D153" t="s">
         <v>488</v>
@@ -5531,7 +5537,7 @@
         <v>624</v>
       </c>
       <c r="G153" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
     </row>
     <row r="154" spans="1:7">
@@ -5542,7 +5548,7 @@
         <v>158</v>
       </c>
       <c r="C154" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D154" t="s">
         <v>488</v>
@@ -5551,7 +5557,7 @@
         <v>614</v>
       </c>
       <c r="G154" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
     </row>
     <row r="155" spans="1:7">
@@ -5562,7 +5568,7 @@
         <v>159</v>
       </c>
       <c r="C155" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D155" t="s">
         <v>488</v>
@@ -5571,7 +5577,7 @@
         <v>614</v>
       </c>
       <c r="G155" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
     </row>
     <row r="156" spans="1:7">
@@ -5582,7 +5588,7 @@
         <v>160</v>
       </c>
       <c r="C156" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D156" t="s">
         <v>488</v>
@@ -5591,7 +5597,7 @@
         <v>614</v>
       </c>
       <c r="G156" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
     </row>
     <row r="157" spans="1:7">
@@ -5602,7 +5608,7 @@
         <v>161</v>
       </c>
       <c r="C157" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D157" t="s">
         <v>488</v>
@@ -5611,7 +5617,7 @@
         <v>624</v>
       </c>
       <c r="G157" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
     </row>
     <row r="158" spans="1:7">
@@ -5622,7 +5628,7 @@
         <v>162</v>
       </c>
       <c r="C158" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D158" t="s">
         <v>488</v>
@@ -5631,7 +5637,7 @@
         <v>624</v>
       </c>
       <c r="G158" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
     </row>
     <row r="159" spans="1:7">
@@ -5642,7 +5648,7 @@
         <v>163</v>
       </c>
       <c r="C159" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D159" t="s">
         <v>488</v>
@@ -5651,7 +5657,7 @@
         <v>609</v>
       </c>
       <c r="G159" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
     </row>
     <row r="160" spans="1:7">
@@ -5662,7 +5668,7 @@
         <v>164</v>
       </c>
       <c r="C160" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D160" t="s">
         <v>488</v>
@@ -5671,7 +5677,7 @@
         <v>609</v>
       </c>
       <c r="G160" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
     </row>
     <row r="161" spans="1:7">
@@ -5682,7 +5688,7 @@
         <v>165</v>
       </c>
       <c r="C161" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D161" t="s">
         <v>488</v>
@@ -5691,7 +5697,7 @@
         <v>609</v>
       </c>
       <c r="G161" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
     </row>
     <row r="162" spans="1:7">
@@ -5702,7 +5708,7 @@
         <v>166</v>
       </c>
       <c r="C162" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D162" t="s">
         <v>488</v>
@@ -5711,7 +5717,7 @@
         <v>609</v>
       </c>
       <c r="G162" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
     </row>
     <row r="163" spans="1:7">
@@ -5722,7 +5728,7 @@
         <v>167</v>
       </c>
       <c r="C163" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D163" t="s">
         <v>488</v>
@@ -5731,7 +5737,7 @@
         <v>609</v>
       </c>
       <c r="G163" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
     </row>
     <row r="164" spans="1:7">
@@ -5742,7 +5748,7 @@
         <v>168</v>
       </c>
       <c r="C164" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D164" t="s">
         <v>488</v>
@@ -5751,7 +5757,7 @@
         <v>609</v>
       </c>
       <c r="G164" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
     </row>
     <row r="165" spans="1:7">
@@ -5762,7 +5768,7 @@
         <v>169</v>
       </c>
       <c r="C165" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D165" t="s">
         <v>488</v>
@@ -5771,7 +5777,7 @@
         <v>609</v>
       </c>
       <c r="G165" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
     </row>
     <row r="166" spans="1:7">
@@ -5782,7 +5788,7 @@
         <v>170</v>
       </c>
       <c r="C166" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D166" t="s">
         <v>488</v>
@@ -5791,7 +5797,7 @@
         <v>609</v>
       </c>
       <c r="G166" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
     </row>
     <row r="167" spans="1:7">
@@ -5802,7 +5808,7 @@
         <v>171</v>
       </c>
       <c r="C167" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D167" t="s">
         <v>488</v>
@@ -5811,7 +5817,7 @@
         <v>609</v>
       </c>
       <c r="G167" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
     </row>
     <row r="168" spans="1:7">
@@ -5822,16 +5828,16 @@
         <v>172</v>
       </c>
       <c r="C168" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D168" t="s">
         <v>489</v>
       </c>
       <c r="E168" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="G168" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
     </row>
     <row r="169" spans="1:7">
@@ -5842,7 +5848,7 @@
         <v>173</v>
       </c>
       <c r="C169" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D169" t="s">
         <v>490</v>
@@ -5851,7 +5857,7 @@
         <v>597</v>
       </c>
       <c r="G169" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
     </row>
     <row r="170" spans="1:7">
@@ -5862,16 +5868,16 @@
         <v>174</v>
       </c>
       <c r="C170" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D170" t="s">
         <v>491</v>
       </c>
       <c r="E170" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="G170" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
     </row>
     <row r="171" spans="1:7">
@@ -5882,7 +5888,7 @@
         <v>175</v>
       </c>
       <c r="C171" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D171" t="s">
         <v>492</v>
@@ -5891,7 +5897,7 @@
         <v>597</v>
       </c>
       <c r="G171" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
     </row>
     <row r="172" spans="1:7">
@@ -5902,7 +5908,7 @@
         <v>176</v>
       </c>
       <c r="C172" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D172" t="s">
         <v>493</v>
@@ -5911,7 +5917,7 @@
         <v>631</v>
       </c>
       <c r="G172" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
     </row>
     <row r="173" spans="1:7">
@@ -5922,7 +5928,7 @@
         <v>177</v>
       </c>
       <c r="C173" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D173" t="s">
         <v>494</v>
@@ -5931,7 +5937,7 @@
         <v>595</v>
       </c>
       <c r="G173" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
     </row>
     <row r="174" spans="1:7">
@@ -5942,7 +5948,7 @@
         <v>178</v>
       </c>
       <c r="C174" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D174" t="s">
         <v>495</v>
@@ -5951,7 +5957,7 @@
         <v>609</v>
       </c>
       <c r="G174" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
     </row>
     <row r="175" spans="1:7">
@@ -5962,7 +5968,7 @@
         <v>179</v>
       </c>
       <c r="C175" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D175" t="s">
         <v>496</v>
@@ -5971,7 +5977,7 @@
         <v>609</v>
       </c>
       <c r="G175" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
     </row>
     <row r="176" spans="1:7">
@@ -5982,7 +5988,7 @@
         <v>180</v>
       </c>
       <c r="C176" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D176" t="s">
         <v>496</v>
@@ -5991,7 +5997,7 @@
         <v>614</v>
       </c>
       <c r="G176" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
     </row>
     <row r="177" spans="1:7">
@@ -6002,7 +6008,7 @@
         <v>181</v>
       </c>
       <c r="C177" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D177" t="s">
         <v>496</v>
@@ -6011,7 +6017,7 @@
         <v>624</v>
       </c>
       <c r="G177" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
     </row>
     <row r="178" spans="1:7">
@@ -6022,7 +6028,7 @@
         <v>182</v>
       </c>
       <c r="C178" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D178" t="s">
         <v>496</v>
@@ -6031,7 +6037,7 @@
         <v>614</v>
       </c>
       <c r="G178" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
     </row>
     <row r="179" spans="1:7">
@@ -6042,7 +6048,7 @@
         <v>183</v>
       </c>
       <c r="C179" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D179" t="s">
         <v>496</v>
@@ -6051,7 +6057,7 @@
         <v>631</v>
       </c>
       <c r="G179" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
     </row>
     <row r="180" spans="1:7">
@@ -6062,7 +6068,7 @@
         <v>184</v>
       </c>
       <c r="C180" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D180" t="s">
         <v>496</v>
@@ -6071,7 +6077,7 @@
         <v>631</v>
       </c>
       <c r="G180" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
     </row>
     <row r="181" spans="1:7">
@@ -6082,7 +6088,7 @@
         <v>185</v>
       </c>
       <c r="C181" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D181" t="s">
         <v>497</v>
@@ -6091,7 +6097,7 @@
         <v>606</v>
       </c>
       <c r="G181" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
     </row>
     <row r="182" spans="1:7">
@@ -6102,7 +6108,7 @@
         <v>186</v>
       </c>
       <c r="C182" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D182" t="s">
         <v>498</v>
@@ -6111,7 +6117,7 @@
         <v>597</v>
       </c>
       <c r="G182" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
     </row>
     <row r="183" spans="1:7">
@@ -6122,7 +6128,7 @@
         <v>187</v>
       </c>
       <c r="C183" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D183" t="s">
         <v>499</v>
@@ -6131,7 +6137,7 @@
         <v>606</v>
       </c>
       <c r="G183" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
     </row>
     <row r="184" spans="1:7">
@@ -6142,7 +6148,7 @@
         <v>188</v>
       </c>
       <c r="C184" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D184" t="s">
         <v>500</v>
@@ -6151,7 +6157,7 @@
         <v>609</v>
       </c>
       <c r="G184" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
     </row>
     <row r="185" spans="1:7">
@@ -6162,7 +6168,7 @@
         <v>189</v>
       </c>
       <c r="C185" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D185" t="s">
         <v>500</v>
@@ -6171,7 +6177,7 @@
         <v>609</v>
       </c>
       <c r="G185" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
     </row>
     <row r="186" spans="1:7">
@@ -6182,7 +6188,7 @@
         <v>190</v>
       </c>
       <c r="C186" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D186" t="s">
         <v>500</v>
@@ -6191,7 +6197,7 @@
         <v>609</v>
       </c>
       <c r="G186" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
     </row>
     <row r="187" spans="1:7">
@@ -6202,7 +6208,7 @@
         <v>191</v>
       </c>
       <c r="C187" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D187" t="s">
         <v>500</v>
@@ -6211,7 +6217,7 @@
         <v>609</v>
       </c>
       <c r="G187" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
     </row>
     <row r="188" spans="1:7">
@@ -6222,7 +6228,7 @@
         <v>192</v>
       </c>
       <c r="C188" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D188" t="s">
         <v>500</v>
@@ -6231,7 +6237,7 @@
         <v>609</v>
       </c>
       <c r="G188" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
     </row>
     <row r="189" spans="1:7">
@@ -6242,7 +6248,7 @@
         <v>193</v>
       </c>
       <c r="C189" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D189" t="s">
         <v>500</v>
@@ -6251,7 +6257,7 @@
         <v>609</v>
       </c>
       <c r="G189" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
     </row>
     <row r="190" spans="1:7">
@@ -6262,7 +6268,7 @@
         <v>194</v>
       </c>
       <c r="C190" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D190" t="s">
         <v>501</v>
@@ -6271,7 +6277,7 @@
         <v>606</v>
       </c>
       <c r="G190" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
     </row>
     <row r="191" spans="1:7">
@@ -6282,7 +6288,7 @@
         <v>195</v>
       </c>
       <c r="C191" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D191" t="s">
         <v>502</v>
@@ -6291,7 +6297,7 @@
         <v>597</v>
       </c>
       <c r="G191" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
     </row>
     <row r="192" spans="1:7">
@@ -6302,7 +6308,7 @@
         <v>196</v>
       </c>
       <c r="C192" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D192" t="s">
         <v>503</v>
@@ -6311,7 +6317,7 @@
         <v>597</v>
       </c>
       <c r="G192" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
     </row>
     <row r="193" spans="1:7">
@@ -6322,7 +6328,7 @@
         <v>197</v>
       </c>
       <c r="C193" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D193" t="s">
         <v>504</v>
@@ -6331,7 +6337,7 @@
         <v>606</v>
       </c>
       <c r="G193" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
     </row>
     <row r="194" spans="1:7">
@@ -6342,7 +6348,7 @@
         <v>198</v>
       </c>
       <c r="C194" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D194" t="s">
         <v>505</v>
@@ -6351,7 +6357,7 @@
         <v>597</v>
       </c>
       <c r="G194" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
     </row>
     <row r="195" spans="1:7">
@@ -6362,7 +6368,7 @@
         <v>199</v>
       </c>
       <c r="C195" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D195" t="s">
         <v>506</v>
@@ -6371,7 +6377,7 @@
         <v>597</v>
       </c>
       <c r="G195" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
     </row>
     <row r="196" spans="1:7">
@@ -6382,7 +6388,7 @@
         <v>200</v>
       </c>
       <c r="C196" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D196" t="s">
         <v>506</v>
@@ -6391,7 +6397,7 @@
         <v>597</v>
       </c>
       <c r="G196" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
     </row>
     <row r="197" spans="1:7">
@@ -6402,7 +6408,7 @@
         <v>201</v>
       </c>
       <c r="C197" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D197" t="s">
         <v>507</v>
@@ -6411,7 +6417,7 @@
         <v>609</v>
       </c>
       <c r="G197" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
     </row>
     <row r="198" spans="1:7">
@@ -6422,16 +6428,16 @@
         <v>202</v>
       </c>
       <c r="C198" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D198" t="s">
         <v>508</v>
       </c>
       <c r="E198" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="G198" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
     </row>
     <row r="199" spans="1:7">
@@ -6442,16 +6448,16 @@
         <v>203</v>
       </c>
       <c r="C199" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D199" t="s">
         <v>508</v>
       </c>
       <c r="E199" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="G199" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
     </row>
     <row r="200" spans="1:7">
@@ -6462,7 +6468,7 @@
         <v>204</v>
       </c>
       <c r="C200" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D200" t="s">
         <v>509</v>
@@ -6471,7 +6477,7 @@
         <v>597</v>
       </c>
       <c r="G200" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
     </row>
     <row r="201" spans="1:7">
@@ -6482,7 +6488,7 @@
         <v>205</v>
       </c>
       <c r="C201" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D201" t="s">
         <v>510</v>
@@ -6491,7 +6497,7 @@
         <v>595</v>
       </c>
       <c r="G201" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
     </row>
     <row r="202" spans="1:7">
@@ -6502,7 +6508,7 @@
         <v>206</v>
       </c>
       <c r="C202" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D202" t="s">
         <v>511</v>
@@ -6511,7 +6517,7 @@
         <v>595</v>
       </c>
       <c r="G202" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
     </row>
     <row r="203" spans="1:7">
@@ -6522,7 +6528,7 @@
         <v>207</v>
       </c>
       <c r="C203" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D203" t="s">
         <v>512</v>
@@ -6531,7 +6537,7 @@
         <v>626</v>
       </c>
       <c r="G203" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
     </row>
     <row r="204" spans="1:7">
@@ -6542,7 +6548,7 @@
         <v>208</v>
       </c>
       <c r="C204" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D204" t="s">
         <v>513</v>
@@ -6551,7 +6557,7 @@
         <v>595</v>
       </c>
       <c r="G204" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
     </row>
     <row r="205" spans="1:7">
@@ -6562,7 +6568,7 @@
         <v>209</v>
       </c>
       <c r="C205" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D205" t="s">
         <v>514</v>
@@ -6571,7 +6577,7 @@
         <v>595</v>
       </c>
       <c r="G205" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
     </row>
     <row r="206" spans="1:7">
@@ -6582,7 +6588,7 @@
         <v>210</v>
       </c>
       <c r="C206" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D206" t="s">
         <v>515</v>
@@ -6591,7 +6597,7 @@
         <v>595</v>
       </c>
       <c r="G206" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
     </row>
     <row r="207" spans="1:7">
@@ -6602,7 +6608,7 @@
         <v>211</v>
       </c>
       <c r="C207" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D207" t="s">
         <v>516</v>
@@ -6611,7 +6617,7 @@
         <v>609</v>
       </c>
       <c r="G207" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
     </row>
     <row r="208" spans="1:7">
@@ -6622,16 +6628,16 @@
         <v>212</v>
       </c>
       <c r="C208" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D208" t="s">
         <v>517</v>
       </c>
       <c r="E208" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="G208" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
     </row>
     <row r="209" spans="1:7">
@@ -6642,7 +6648,7 @@
         <v>213</v>
       </c>
       <c r="C209" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D209" t="s">
         <v>516</v>
@@ -6651,7 +6657,7 @@
         <v>609</v>
       </c>
       <c r="G209" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
     </row>
     <row r="210" spans="1:7">
@@ -6662,7 +6668,7 @@
         <v>214</v>
       </c>
       <c r="C210" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D210" t="s">
         <v>518</v>
@@ -6671,7 +6677,7 @@
         <v>609</v>
       </c>
       <c r="G210" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
     </row>
     <row r="211" spans="1:7">
@@ -6682,7 +6688,7 @@
         <v>215</v>
       </c>
       <c r="C211" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D211" t="s">
         <v>519</v>
@@ -6691,7 +6697,7 @@
         <v>597</v>
       </c>
       <c r="G211" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
     </row>
     <row r="212" spans="1:7">
@@ -6702,7 +6708,7 @@
         <v>216</v>
       </c>
       <c r="C212" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D212" t="s">
         <v>520</v>
@@ -6711,7 +6717,7 @@
         <v>597</v>
       </c>
       <c r="G212" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
     </row>
     <row r="213" spans="1:7">
@@ -6722,7 +6728,7 @@
         <v>217</v>
       </c>
       <c r="C213" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D213" t="s">
         <v>521</v>
@@ -6731,7 +6737,7 @@
         <v>609</v>
       </c>
       <c r="G213" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
     </row>
     <row r="214" spans="1:7">
@@ -6742,7 +6748,7 @@
         <v>218</v>
       </c>
       <c r="C214" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D214" t="s">
         <v>521</v>
@@ -6751,7 +6757,7 @@
         <v>609</v>
       </c>
       <c r="G214" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
     </row>
     <row r="215" spans="1:7">
@@ -6762,7 +6768,7 @@
         <v>219</v>
       </c>
       <c r="C215" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D215" t="s">
         <v>522</v>
@@ -6771,7 +6777,7 @@
         <v>597</v>
       </c>
       <c r="G215" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
     </row>
     <row r="216" spans="1:7">
@@ -6782,7 +6788,7 @@
         <v>220</v>
       </c>
       <c r="C216" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D216" t="s">
         <v>523</v>
@@ -6791,7 +6797,7 @@
         <v>626</v>
       </c>
       <c r="G216" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
     </row>
     <row r="217" spans="1:7">
@@ -6802,7 +6808,7 @@
         <v>221</v>
       </c>
       <c r="C217" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D217" t="s">
         <v>523</v>
@@ -6811,7 +6817,7 @@
         <v>596</v>
       </c>
       <c r="G217" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
     </row>
     <row r="218" spans="1:7">
@@ -6822,7 +6828,7 @@
         <v>222</v>
       </c>
       <c r="C218" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D218" t="s">
         <v>523</v>
@@ -6831,7 +6837,7 @@
         <v>597</v>
       </c>
       <c r="G218" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
     </row>
     <row r="219" spans="1:7">
@@ -6842,7 +6848,7 @@
         <v>223</v>
       </c>
       <c r="C219" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D219" t="s">
         <v>523</v>
@@ -6851,7 +6857,7 @@
         <v>597</v>
       </c>
       <c r="G219" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
     </row>
     <row r="220" spans="1:7">
@@ -6862,7 +6868,7 @@
         <v>224</v>
       </c>
       <c r="C220" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D220" t="s">
         <v>524</v>
@@ -6871,7 +6877,7 @@
         <v>614</v>
       </c>
       <c r="G220" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
     </row>
     <row r="221" spans="1:7">
@@ -6882,7 +6888,7 @@
         <v>225</v>
       </c>
       <c r="C221" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D221" t="s">
         <v>525</v>
@@ -6891,7 +6897,7 @@
         <v>609</v>
       </c>
       <c r="G221" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
     </row>
     <row r="222" spans="1:7">
@@ -6902,7 +6908,7 @@
         <v>226</v>
       </c>
       <c r="C222" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D222" t="s">
         <v>526</v>
@@ -6911,7 +6917,7 @@
         <v>595</v>
       </c>
       <c r="G222" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
     </row>
     <row r="223" spans="1:7">
@@ -6922,7 +6928,7 @@
         <v>227</v>
       </c>
       <c r="C223" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D223" t="s">
         <v>526</v>
@@ -6931,7 +6937,7 @@
         <v>595</v>
       </c>
       <c r="G223" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
     </row>
     <row r="224" spans="1:7">
@@ -6942,7 +6948,7 @@
         <v>228</v>
       </c>
       <c r="C224" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D224" t="s">
         <v>526</v>
@@ -6951,7 +6957,7 @@
         <v>595</v>
       </c>
       <c r="G224" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
     </row>
     <row r="225" spans="1:7">
@@ -6962,7 +6968,7 @@
         <v>229</v>
       </c>
       <c r="C225" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D225" t="s">
         <v>526</v>
@@ -6971,7 +6977,7 @@
         <v>595</v>
       </c>
       <c r="G225" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
     </row>
     <row r="226" spans="1:7">
@@ -6982,7 +6988,7 @@
         <v>230</v>
       </c>
       <c r="C226" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D226" t="s">
         <v>526</v>
@@ -6991,7 +6997,7 @@
         <v>595</v>
       </c>
       <c r="G226" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
     </row>
     <row r="227" spans="1:7">
@@ -7002,7 +7008,7 @@
         <v>231</v>
       </c>
       <c r="C227" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D227" t="s">
         <v>526</v>
@@ -7011,7 +7017,7 @@
         <v>631</v>
       </c>
       <c r="G227" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
     </row>
     <row r="228" spans="1:7">
@@ -7022,7 +7028,7 @@
         <v>232</v>
       </c>
       <c r="C228" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D228" t="s">
         <v>527</v>
@@ -7031,7 +7037,7 @@
         <v>609</v>
       </c>
       <c r="G228" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
     </row>
     <row r="229" spans="1:7">
@@ -7042,7 +7048,7 @@
         <v>233</v>
       </c>
       <c r="C229" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D229" t="s">
         <v>527</v>
@@ -7051,7 +7057,7 @@
         <v>609</v>
       </c>
       <c r="G229" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
     </row>
     <row r="230" spans="1:7">
@@ -7062,13 +7068,13 @@
         <v>234</v>
       </c>
       <c r="C230" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D230" t="s">
         <v>528</v>
       </c>
       <c r="G230" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
     </row>
     <row r="231" spans="1:7">
@@ -7079,7 +7085,7 @@
         <v>235</v>
       </c>
       <c r="C231" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D231" t="s">
         <v>529</v>
@@ -7088,7 +7094,7 @@
         <v>609</v>
       </c>
       <c r="G231" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
     </row>
     <row r="232" spans="1:7">
@@ -7099,7 +7105,7 @@
         <v>236</v>
       </c>
       <c r="C232" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D232" t="s">
         <v>488</v>
@@ -7108,7 +7114,7 @@
         <v>609</v>
       </c>
       <c r="G232" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
     </row>
     <row r="233" spans="1:7">
@@ -7119,7 +7125,7 @@
         <v>237</v>
       </c>
       <c r="C233" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D233" t="s">
         <v>530</v>
@@ -7128,7 +7134,7 @@
         <v>609</v>
       </c>
       <c r="G233" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
     </row>
     <row r="234" spans="1:7">
@@ -7139,7 +7145,7 @@
         <v>238</v>
       </c>
       <c r="C234" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D234" t="s">
         <v>527</v>
@@ -7148,7 +7154,7 @@
         <v>609</v>
       </c>
       <c r="G234" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
     </row>
     <row r="235" spans="1:7">
@@ -7159,7 +7165,7 @@
         <v>239</v>
       </c>
       <c r="C235" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D235" t="s">
         <v>531</v>
@@ -7168,7 +7174,7 @@
         <v>609</v>
       </c>
       <c r="G235" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
     </row>
     <row r="236" spans="1:7">
@@ -7179,7 +7185,7 @@
         <v>240</v>
       </c>
       <c r="C236" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D236" t="s">
         <v>532</v>
@@ -7188,7 +7194,7 @@
         <v>608</v>
       </c>
       <c r="G236" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
     </row>
     <row r="237" spans="1:7">
@@ -7199,7 +7205,7 @@
         <v>241</v>
       </c>
       <c r="C237" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D237" t="s">
         <v>488</v>
@@ -7208,7 +7214,7 @@
         <v>609</v>
       </c>
       <c r="G237" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
     </row>
     <row r="238" spans="1:7">
@@ -7219,7 +7225,7 @@
         <v>242</v>
       </c>
       <c r="C238" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D238" t="s">
         <v>533</v>
@@ -7228,7 +7234,7 @@
         <v>596</v>
       </c>
       <c r="G238" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
     </row>
     <row r="239" spans="1:7">
@@ -7239,7 +7245,7 @@
         <v>243</v>
       </c>
       <c r="C239" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D239" t="s">
         <v>534</v>
@@ -7248,7 +7254,7 @@
         <v>626</v>
       </c>
       <c r="G239" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
     </row>
     <row r="240" spans="1:7">
@@ -7259,7 +7265,7 @@
         <v>244</v>
       </c>
       <c r="C240" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D240" t="s">
         <v>534</v>
@@ -7268,7 +7274,7 @@
         <v>626</v>
       </c>
       <c r="G240" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
     </row>
     <row r="241" spans="1:7">
@@ -7279,16 +7285,16 @@
         <v>245</v>
       </c>
       <c r="C241" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D241" t="s">
         <v>534</v>
       </c>
       <c r="E241" t="s">
-        <v>626</v>
+        <v>597</v>
       </c>
       <c r="G241" t="s">
-        <v>657</v>
+        <v>664</v>
       </c>
     </row>
     <row r="242" spans="1:7">
@@ -7299,16 +7305,16 @@
         <v>246</v>
       </c>
       <c r="C242" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D242" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="E242" t="s">
-        <v>597</v>
+        <v>629</v>
       </c>
       <c r="G242" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="243" spans="1:7">
@@ -7319,16 +7325,16 @@
         <v>247</v>
       </c>
       <c r="C243" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D243" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="E243" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="G243" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
     </row>
     <row r="244" spans="1:7">
@@ -7339,7 +7345,7 @@
         <v>248</v>
       </c>
       <c r="C244" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D244" t="s">
         <v>536</v>
@@ -7348,7 +7354,7 @@
         <v>626</v>
       </c>
       <c r="G244" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
     </row>
     <row r="245" spans="1:7">
@@ -7359,16 +7365,16 @@
         <v>249</v>
       </c>
       <c r="C245" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D245" t="s">
         <v>536</v>
       </c>
       <c r="E245" t="s">
-        <v>626</v>
+        <v>619</v>
       </c>
       <c r="G245" t="s">
-        <v>657</v>
+        <v>662</v>
       </c>
     </row>
     <row r="246" spans="1:7">
@@ -7379,16 +7385,16 @@
         <v>250</v>
       </c>
       <c r="C246" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D246" t="s">
         <v>536</v>
       </c>
       <c r="E246" t="s">
-        <v>619</v>
+        <v>626</v>
       </c>
       <c r="G246" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
     </row>
     <row r="247" spans="1:7">
@@ -7399,16 +7405,16 @@
         <v>251</v>
       </c>
       <c r="C247" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D247" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="E247" t="s">
-        <v>626</v>
+        <v>595</v>
       </c>
       <c r="G247" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
     </row>
     <row r="248" spans="1:7">
@@ -7419,7 +7425,7 @@
         <v>252</v>
       </c>
       <c r="C248" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D248" t="s">
         <v>537</v>
@@ -7428,7 +7434,7 @@
         <v>595</v>
       </c>
       <c r="G248" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
     </row>
     <row r="249" spans="1:7">
@@ -7439,7 +7445,7 @@
         <v>253</v>
       </c>
       <c r="C249" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D249" t="s">
         <v>537</v>
@@ -7448,7 +7454,7 @@
         <v>595</v>
       </c>
       <c r="G249" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
     </row>
     <row r="250" spans="1:7">
@@ -7459,7 +7465,7 @@
         <v>254</v>
       </c>
       <c r="C250" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D250" t="s">
         <v>537</v>
@@ -7468,7 +7474,7 @@
         <v>595</v>
       </c>
       <c r="G250" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
     </row>
     <row r="251" spans="1:7">
@@ -7479,7 +7485,7 @@
         <v>255</v>
       </c>
       <c r="C251" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D251" t="s">
         <v>537</v>
@@ -7488,7 +7494,7 @@
         <v>595</v>
       </c>
       <c r="G251" t="s">
-        <v>657</v>
+        <v>668</v>
       </c>
     </row>
     <row r="252" spans="1:7">
@@ -7499,16 +7505,16 @@
         <v>256</v>
       </c>
       <c r="C252" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D252" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="E252" t="s">
         <v>595</v>
       </c>
       <c r="G252" t="s">
-        <v>667</v>
+        <v>658</v>
       </c>
     </row>
     <row r="253" spans="1:7">
@@ -7519,16 +7525,16 @@
         <v>257</v>
       </c>
       <c r="C253" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D253" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="E253" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="G253" t="s">
-        <v>657</v>
+        <v>660</v>
       </c>
     </row>
     <row r="254" spans="1:7">
@@ -7539,7 +7545,7 @@
         <v>258</v>
       </c>
       <c r="C254" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D254" t="s">
         <v>539</v>
@@ -7548,7 +7554,7 @@
         <v>597</v>
       </c>
       <c r="G254" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
     </row>
     <row r="255" spans="1:7">
@@ -7559,13 +7565,13 @@
         <v>259</v>
       </c>
       <c r="C255" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D255" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="E255" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="G255" t="s">
         <v>659</v>
@@ -7579,16 +7585,16 @@
         <v>260</v>
       </c>
       <c r="C256" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D256" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="E256" t="s">
-        <v>596</v>
+        <v>608</v>
       </c>
       <c r="G256" t="s">
-        <v>658</v>
+        <v>661</v>
       </c>
     </row>
     <row r="257" spans="1:7">
@@ -7599,16 +7605,16 @@
         <v>261</v>
       </c>
       <c r="C257" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D257" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="E257" t="s">
-        <v>608</v>
+        <v>619</v>
       </c>
       <c r="G257" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
     </row>
     <row r="258" spans="1:7">
@@ -7619,7 +7625,7 @@
         <v>262</v>
       </c>
       <c r="C258" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D258" t="s">
         <v>542</v>
@@ -7628,7 +7634,7 @@
         <v>619</v>
       </c>
       <c r="G258" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
     </row>
     <row r="259" spans="1:7">
@@ -7639,16 +7645,16 @@
         <v>263</v>
       </c>
       <c r="C259" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D259" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="E259" t="s">
-        <v>619</v>
+        <v>609</v>
       </c>
       <c r="G259" t="s">
-        <v>661</v>
+        <v>666</v>
       </c>
     </row>
     <row r="260" spans="1:7">
@@ -7659,16 +7665,16 @@
         <v>264</v>
       </c>
       <c r="C260" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D260" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="E260" t="s">
-        <v>609</v>
+        <v>595</v>
       </c>
       <c r="G260" t="s">
-        <v>665</v>
+        <v>658</v>
       </c>
     </row>
     <row r="261" spans="1:7">
@@ -7679,7 +7685,7 @@
         <v>265</v>
       </c>
       <c r="C261" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D261" t="s">
         <v>544</v>
@@ -7688,7 +7694,7 @@
         <v>595</v>
       </c>
       <c r="G261" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
     </row>
     <row r="262" spans="1:7">
@@ -7699,7 +7705,7 @@
         <v>266</v>
       </c>
       <c r="C262" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D262" t="s">
         <v>544</v>
@@ -7708,7 +7714,7 @@
         <v>595</v>
       </c>
       <c r="G262" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
     </row>
     <row r="263" spans="1:7">
@@ -7719,7 +7725,7 @@
         <v>267</v>
       </c>
       <c r="C263" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D263" t="s">
         <v>544</v>
@@ -7728,7 +7734,7 @@
         <v>595</v>
       </c>
       <c r="G263" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
     </row>
     <row r="264" spans="1:7">
@@ -7739,7 +7745,7 @@
         <v>268</v>
       </c>
       <c r="C264" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D264" t="s">
         <v>544</v>
@@ -7748,7 +7754,7 @@
         <v>595</v>
       </c>
       <c r="G264" t="s">
-        <v>657</v>
+        <v>669</v>
       </c>
     </row>
     <row r="265" spans="1:7">
@@ -7759,7 +7765,7 @@
         <v>269</v>
       </c>
       <c r="C265" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D265" t="s">
         <v>544</v>
@@ -7768,7 +7774,7 @@
         <v>595</v>
       </c>
       <c r="G265" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
     </row>
     <row r="266" spans="1:7">
@@ -7779,7 +7785,7 @@
         <v>270</v>
       </c>
       <c r="C266" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D266" t="s">
         <v>544</v>
@@ -7799,7 +7805,7 @@
         <v>271</v>
       </c>
       <c r="C267" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D267" t="s">
         <v>544</v>
@@ -7808,7 +7814,7 @@
         <v>595</v>
       </c>
       <c r="G267" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
     </row>
     <row r="268" spans="1:7">
@@ -7819,7 +7825,7 @@
         <v>272</v>
       </c>
       <c r="C268" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D268" t="s">
         <v>544</v>
@@ -7828,7 +7834,7 @@
         <v>595</v>
       </c>
       <c r="G268" t="s">
-        <v>667</v>
+        <v>670</v>
       </c>
     </row>
     <row r="269" spans="1:7">
@@ -7839,7 +7845,7 @@
         <v>273</v>
       </c>
       <c r="C269" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D269" t="s">
         <v>544</v>
@@ -7848,7 +7854,7 @@
         <v>595</v>
       </c>
       <c r="G269" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
     </row>
     <row r="270" spans="1:7">
@@ -7859,7 +7865,7 @@
         <v>274</v>
       </c>
       <c r="C270" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D270" t="s">
         <v>544</v>
@@ -7868,7 +7874,7 @@
         <v>595</v>
       </c>
       <c r="G270" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
     </row>
     <row r="271" spans="1:7">
@@ -7879,7 +7885,7 @@
         <v>275</v>
       </c>
       <c r="C271" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D271" t="s">
         <v>544</v>
@@ -7888,7 +7894,7 @@
         <v>595</v>
       </c>
       <c r="G271" t="s">
-        <v>669</v>
+        <v>658</v>
       </c>
     </row>
     <row r="272" spans="1:7">
@@ -7899,7 +7905,7 @@
         <v>276</v>
       </c>
       <c r="C272" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D272" t="s">
         <v>544</v>
@@ -7908,7 +7914,7 @@
         <v>595</v>
       </c>
       <c r="G272" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
     </row>
     <row r="273" spans="1:7">
@@ -7919,7 +7925,7 @@
         <v>277</v>
       </c>
       <c r="C273" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D273" t="s">
         <v>544</v>
@@ -7928,7 +7934,7 @@
         <v>595</v>
       </c>
       <c r="G273" t="s">
-        <v>657</v>
+        <v>669</v>
       </c>
     </row>
     <row r="274" spans="1:7">
@@ -7939,16 +7945,16 @@
         <v>278</v>
       </c>
       <c r="C274" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D274" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="E274" t="s">
         <v>595</v>
       </c>
       <c r="G274" t="s">
-        <v>668</v>
+        <v>658</v>
       </c>
     </row>
     <row r="275" spans="1:7">
@@ -7959,7 +7965,7 @@
         <v>279</v>
       </c>
       <c r="C275" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D275" t="s">
         <v>545</v>
@@ -7968,7 +7974,7 @@
         <v>595</v>
       </c>
       <c r="G275" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
     </row>
     <row r="276" spans="1:7">
@@ -7979,16 +7985,16 @@
         <v>280</v>
       </c>
       <c r="C276" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D276" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="E276" t="s">
-        <v>595</v>
+        <v>606</v>
       </c>
       <c r="G276" t="s">
-        <v>657</v>
+        <v>660</v>
       </c>
     </row>
     <row r="277" spans="1:7">
@@ -7999,16 +8005,16 @@
         <v>281</v>
       </c>
       <c r="C277" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D277" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="E277" t="s">
         <v>606</v>
       </c>
       <c r="G277" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
     </row>
     <row r="278" spans="1:7">
@@ -8019,16 +8025,16 @@
         <v>282</v>
       </c>
       <c r="C278" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D278" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="E278" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
       <c r="G278" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
     </row>
     <row r="279" spans="1:7">
@@ -8039,16 +8045,16 @@
         <v>283</v>
       </c>
       <c r="C279" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D279" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="E279" t="s">
-        <v>609</v>
+        <v>626</v>
       </c>
       <c r="G279" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="280" spans="1:7">
@@ -8059,16 +8065,16 @@
         <v>284</v>
       </c>
       <c r="C280" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D280" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="E280" t="s">
-        <v>626</v>
+        <v>597</v>
       </c>
       <c r="G280" t="s">
-        <v>657</v>
+        <v>660</v>
       </c>
     </row>
     <row r="281" spans="1:7">
@@ -8079,16 +8085,16 @@
         <v>285</v>
       </c>
       <c r="C281" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D281" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="E281" t="s">
-        <v>597</v>
+        <v>609</v>
       </c>
       <c r="G281" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
     </row>
     <row r="282" spans="1:7">
@@ -8099,16 +8105,16 @@
         <v>286</v>
       </c>
       <c r="C282" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D282" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="E282" t="s">
-        <v>609</v>
+        <v>626</v>
       </c>
       <c r="G282" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="283" spans="1:7">
@@ -8116,19 +8122,19 @@
         <v>281</v>
       </c>
       <c r="B283" t="s">
-        <v>245</v>
+        <v>287</v>
       </c>
       <c r="C283" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D283" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="E283" t="s">
-        <v>626</v>
+        <v>619</v>
       </c>
       <c r="G283" t="s">
-        <v>657</v>
+        <v>662</v>
       </c>
     </row>
     <row r="284" spans="1:7">
@@ -8136,19 +8142,19 @@
         <v>282</v>
       </c>
       <c r="B284" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C284" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D284" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="E284" t="s">
-        <v>626</v>
+        <v>596</v>
       </c>
       <c r="G284" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
     </row>
     <row r="285" spans="1:7">
@@ -8156,19 +8162,19 @@
         <v>283</v>
       </c>
       <c r="B285" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C285" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D285" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="E285" t="s">
         <v>619</v>
       </c>
       <c r="G285" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
     </row>
     <row r="286" spans="1:7">
@@ -8176,19 +8182,19 @@
         <v>284</v>
       </c>
       <c r="B286" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C286" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D286" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="E286" t="s">
-        <v>596</v>
+        <v>608</v>
       </c>
       <c r="G286" t="s">
-        <v>658</v>
+        <v>661</v>
       </c>
     </row>
     <row r="287" spans="1:7">
@@ -8196,19 +8202,19 @@
         <v>285</v>
       </c>
       <c r="B287" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C287" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D287" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="E287" t="s">
-        <v>619</v>
+        <v>626</v>
       </c>
       <c r="G287" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
     </row>
     <row r="288" spans="1:7">
@@ -8216,19 +8222,19 @@
         <v>286</v>
       </c>
       <c r="B288" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C288" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D288" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="E288" t="s">
-        <v>608</v>
+        <v>626</v>
       </c>
       <c r="G288" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
     </row>
     <row r="289" spans="1:7">
@@ -8236,19 +8242,19 @@
         <v>287</v>
       </c>
       <c r="B289" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C289" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D289" t="s">
         <v>557</v>
       </c>
       <c r="E289" t="s">
-        <v>626</v>
+        <v>619</v>
       </c>
       <c r="G289" t="s">
-        <v>657</v>
+        <v>662</v>
       </c>
     </row>
     <row r="290" spans="1:7">
@@ -8256,10 +8262,10 @@
         <v>288</v>
       </c>
       <c r="B290" t="s">
-        <v>245</v>
+        <v>294</v>
       </c>
       <c r="C290" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D290" t="s">
         <v>557</v>
@@ -8268,7 +8274,7 @@
         <v>626</v>
       </c>
       <c r="G290" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
     </row>
     <row r="291" spans="1:7">
@@ -8276,10 +8282,10 @@
         <v>289</v>
       </c>
       <c r="B291" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="C291" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D291" t="s">
         <v>557</v>
@@ -8288,7 +8294,7 @@
         <v>626</v>
       </c>
       <c r="G291" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
     </row>
     <row r="292" spans="1:7">
@@ -8296,19 +8302,19 @@
         <v>290</v>
       </c>
       <c r="B292" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="C292" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D292" t="s">
         <v>557</v>
       </c>
       <c r="E292" t="s">
-        <v>619</v>
+        <v>626</v>
       </c>
       <c r="G292" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
     </row>
     <row r="293" spans="1:7">
@@ -8316,19 +8322,19 @@
         <v>291</v>
       </c>
       <c r="B293" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="C293" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D293" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="E293" t="s">
         <v>626</v>
       </c>
       <c r="G293" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
     </row>
     <row r="294" spans="1:7">
@@ -8336,19 +8342,19 @@
         <v>292</v>
       </c>
       <c r="B294" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C294" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D294" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="E294" t="s">
         <v>626</v>
       </c>
       <c r="G294" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
     </row>
     <row r="295" spans="1:7">
@@ -8356,19 +8362,19 @@
         <v>293</v>
       </c>
       <c r="B295" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="C295" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D295" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="E295" t="s">
         <v>626</v>
       </c>
       <c r="G295" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
     </row>
     <row r="296" spans="1:7">
@@ -8376,19 +8382,19 @@
         <v>294</v>
       </c>
       <c r="B296" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="C296" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D296" t="s">
-        <v>558</v>
+        <v>388</v>
       </c>
       <c r="E296" t="s">
         <v>626</v>
       </c>
       <c r="G296" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
     </row>
     <row r="297" spans="1:7">
@@ -8396,19 +8402,19 @@
         <v>295</v>
       </c>
       <c r="B297" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="C297" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D297" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="E297" t="s">
-        <v>626</v>
+        <v>596</v>
       </c>
       <c r="G297" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
     </row>
     <row r="298" spans="1:7">
@@ -8416,19 +8422,19 @@
         <v>296</v>
       </c>
       <c r="B298" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="C298" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D298" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="E298" t="s">
-        <v>626</v>
+        <v>596</v>
       </c>
       <c r="G298" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
     </row>
     <row r="299" spans="1:7">
@@ -8436,19 +8442,19 @@
         <v>297</v>
       </c>
       <c r="B299" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="C299" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D299" t="s">
-        <v>389</v>
+        <v>561</v>
       </c>
       <c r="E299" t="s">
-        <v>626</v>
+        <v>608</v>
       </c>
       <c r="G299" t="s">
-        <v>657</v>
+        <v>661</v>
       </c>
     </row>
     <row r="300" spans="1:7">
@@ -8456,19 +8462,19 @@
         <v>298</v>
       </c>
       <c r="B300" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="C300" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D300" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
       <c r="E300" t="s">
-        <v>596</v>
+        <v>619</v>
       </c>
       <c r="G300" t="s">
-        <v>658</v>
+        <v>662</v>
       </c>
     </row>
     <row r="301" spans="1:7">
@@ -8476,19 +8482,19 @@
         <v>299</v>
       </c>
       <c r="B301" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="C301" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D301" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
       <c r="E301" t="s">
-        <v>596</v>
+        <v>606</v>
       </c>
       <c r="G301" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
     </row>
     <row r="302" spans="1:7">
@@ -8496,16 +8502,16 @@
         <v>300</v>
       </c>
       <c r="B302" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="C302" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D302" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
       <c r="E302" t="s">
-        <v>608</v>
+        <v>641</v>
       </c>
       <c r="G302" t="s">
         <v>660</v>
@@ -8516,19 +8522,19 @@
         <v>301</v>
       </c>
       <c r="B303" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="C303" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D303" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="E303" t="s">
-        <v>619</v>
+        <v>641</v>
       </c>
       <c r="G303" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="304" spans="1:7">
@@ -8536,19 +8542,19 @@
         <v>302</v>
       </c>
       <c r="B304" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="C304" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D304" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="E304" t="s">
         <v>606</v>
       </c>
       <c r="G304" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
     </row>
     <row r="305" spans="1:7">
@@ -8556,19 +8562,19 @@
         <v>303</v>
       </c>
       <c r="B305" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="C305" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D305" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="E305" t="s">
-        <v>640</v>
+        <v>609</v>
       </c>
       <c r="G305" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
     </row>
     <row r="306" spans="1:7">
@@ -8576,19 +8582,19 @@
         <v>304</v>
       </c>
       <c r="B306" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="C306" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D306" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="E306" t="s">
-        <v>640</v>
+        <v>609</v>
       </c>
       <c r="G306" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
     </row>
     <row r="307" spans="1:7">
@@ -8596,19 +8602,19 @@
         <v>305</v>
       </c>
       <c r="B307" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="C307" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D307" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
       <c r="E307" t="s">
-        <v>606</v>
+        <v>597</v>
       </c>
       <c r="G307" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
     </row>
     <row r="308" spans="1:7">
@@ -8616,19 +8622,19 @@
         <v>306</v>
       </c>
       <c r="B308" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="C308" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D308" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
       <c r="E308" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="G308" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
     </row>
     <row r="309" spans="1:7">
@@ -8636,19 +8642,19 @@
         <v>307</v>
       </c>
       <c r="B309" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="C309" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D309" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
       <c r="E309" t="s">
-        <v>609</v>
+        <v>597</v>
       </c>
       <c r="G309" t="s">
-        <v>659</v>
+        <v>664</v>
       </c>
     </row>
     <row r="310" spans="1:7">
@@ -8656,19 +8662,19 @@
         <v>308</v>
       </c>
       <c r="B310" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="C310" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D310" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
       <c r="E310" t="s">
-        <v>597</v>
+        <v>606</v>
       </c>
       <c r="G310" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
     </row>
     <row r="311" spans="1:7">
@@ -8676,19 +8682,19 @@
         <v>309</v>
       </c>
       <c r="B311" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="C311" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D311" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="E311" t="s">
-        <v>606</v>
+        <v>597</v>
       </c>
       <c r="G311" t="s">
-        <v>659</v>
+        <v>664</v>
       </c>
     </row>
     <row r="312" spans="1:7">
@@ -8696,19 +8702,19 @@
         <v>310</v>
       </c>
       <c r="B312" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="C312" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D312" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
       <c r="E312" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="G312" t="s">
-        <v>663</v>
+        <v>668</v>
       </c>
     </row>
     <row r="313" spans="1:7">
@@ -8716,19 +8722,19 @@
         <v>311</v>
       </c>
       <c r="B313" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="C313" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D313" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="E313" t="s">
-        <v>606</v>
+        <v>595</v>
       </c>
       <c r="G313" t="s">
-        <v>659</v>
+        <v>669</v>
       </c>
     </row>
     <row r="314" spans="1:7">
@@ -8736,19 +8742,19 @@
         <v>312</v>
       </c>
       <c r="B314" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="C314" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D314" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="E314" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="G314" t="s">
-        <v>663</v>
+        <v>670</v>
       </c>
     </row>
     <row r="315" spans="1:7">
@@ -8756,19 +8762,19 @@
         <v>313</v>
       </c>
       <c r="B315" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="C315" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D315" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="E315" t="s">
         <v>595</v>
       </c>
       <c r="G315" t="s">
-        <v>667</v>
+        <v>658</v>
       </c>
     </row>
     <row r="316" spans="1:7">
@@ -8776,19 +8782,16 @@
         <v>314</v>
       </c>
       <c r="B316" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="C316" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D316" t="s">
-        <v>573</v>
-      </c>
-      <c r="E316" t="s">
-        <v>595</v>
+        <v>575</v>
       </c>
       <c r="G316" t="s">
-        <v>668</v>
+        <v>660</v>
       </c>
     </row>
     <row r="317" spans="1:7">
@@ -8796,19 +8799,19 @@
         <v>315</v>
       </c>
       <c r="B317" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="C317" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D317" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
       <c r="E317" t="s">
-        <v>595</v>
+        <v>626</v>
       </c>
       <c r="G317" t="s">
-        <v>669</v>
+        <v>658</v>
       </c>
     </row>
     <row r="318" spans="1:7">
@@ -8816,19 +8819,19 @@
         <v>316</v>
       </c>
       <c r="B318" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="C318" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D318" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
       <c r="E318" t="s">
-        <v>595</v>
+        <v>626</v>
       </c>
       <c r="G318" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
     </row>
     <row r="319" spans="1:7">
@@ -8836,16 +8839,19 @@
         <v>317</v>
       </c>
       <c r="B319" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="C319" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D319" t="s">
-        <v>575</v>
+        <v>578</v>
+      </c>
+      <c r="E319" t="s">
+        <v>608</v>
       </c>
       <c r="G319" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
     </row>
     <row r="320" spans="1:7">
@@ -8853,19 +8859,19 @@
         <v>318</v>
       </c>
       <c r="B320" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="C320" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D320" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="E320" t="s">
-        <v>626</v>
+        <v>596</v>
       </c>
       <c r="G320" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
     </row>
     <row r="321" spans="1:7">
@@ -8873,19 +8879,19 @@
         <v>319</v>
       </c>
       <c r="B321" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="C321" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D321" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="E321" t="s">
-        <v>626</v>
+        <v>619</v>
       </c>
       <c r="G321" t="s">
-        <v>657</v>
+        <v>662</v>
       </c>
     </row>
     <row r="322" spans="1:7">
@@ -8893,19 +8899,19 @@
         <v>320</v>
       </c>
       <c r="B322" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="C322" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D322" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="E322" t="s">
-        <v>608</v>
+        <v>596</v>
       </c>
       <c r="G322" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="323" spans="1:7">
@@ -8913,19 +8919,19 @@
         <v>321</v>
       </c>
       <c r="B323" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="C323" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D323" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
       <c r="E323" t="s">
-        <v>596</v>
+        <v>631</v>
       </c>
       <c r="G323" t="s">
-        <v>658</v>
+        <v>662</v>
       </c>
     </row>
     <row r="324" spans="1:7">
@@ -8933,19 +8939,19 @@
         <v>322</v>
       </c>
       <c r="B324" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="C324" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D324" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
       <c r="E324" t="s">
-        <v>619</v>
+        <v>595</v>
       </c>
       <c r="G324" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
     </row>
     <row r="325" spans="1:7">
@@ -8953,16 +8959,16 @@
         <v>323</v>
       </c>
       <c r="B325" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="C325" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D325" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="E325" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="G325" t="s">
         <v>658</v>
@@ -8973,19 +8979,19 @@
         <v>324</v>
       </c>
       <c r="B326" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="C326" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D326" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="E326" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="G326" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
     </row>
     <row r="327" spans="1:7">
@@ -8993,19 +8999,19 @@
         <v>325</v>
       </c>
       <c r="B327" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="C327" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D327" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="E327" t="s">
-        <v>595</v>
+        <v>598</v>
       </c>
       <c r="G327" t="s">
-        <v>657</v>
+        <v>661</v>
       </c>
     </row>
     <row r="328" spans="1:7">
@@ -9013,19 +9019,19 @@
         <v>326</v>
       </c>
       <c r="B328" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="C328" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D328" t="s">
-        <v>582</v>
+        <v>585</v>
       </c>
       <c r="E328" t="s">
-        <v>595</v>
+        <v>614</v>
       </c>
       <c r="G328" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
     </row>
     <row r="329" spans="1:7">
@@ -9033,19 +9039,19 @@
         <v>327</v>
       </c>
       <c r="B329" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="C329" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D329" t="s">
-        <v>583</v>
+        <v>586</v>
       </c>
       <c r="E329" t="s">
-        <v>629</v>
+        <v>595</v>
       </c>
       <c r="G329" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
     </row>
     <row r="330" spans="1:7">
@@ -9053,19 +9059,19 @@
         <v>328</v>
       </c>
       <c r="B330" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="C330" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D330" t="s">
-        <v>584</v>
+        <v>587</v>
       </c>
       <c r="E330" t="s">
-        <v>598</v>
+        <v>624</v>
       </c>
       <c r="G330" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
     </row>
     <row r="331" spans="1:7">
@@ -9073,19 +9079,19 @@
         <v>329</v>
       </c>
       <c r="B331" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="C331" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D331" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="E331" t="s">
         <v>614</v>
       </c>
       <c r="G331" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
     </row>
     <row r="332" spans="1:7">
@@ -9093,19 +9099,19 @@
         <v>330</v>
       </c>
       <c r="B332" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="C332" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D332" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="E332" t="s">
-        <v>595</v>
+        <v>614</v>
       </c>
       <c r="G332" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
     </row>
     <row r="333" spans="1:7">
@@ -9113,19 +9119,19 @@
         <v>331</v>
       </c>
       <c r="B333" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="C333" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D333" t="s">
         <v>587</v>
       </c>
       <c r="E333" t="s">
-        <v>624</v>
+        <v>614</v>
       </c>
       <c r="G333" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="334" spans="1:7">
@@ -9133,10 +9139,10 @@
         <v>332</v>
       </c>
       <c r="B334" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="C334" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D334" t="s">
         <v>587</v>
@@ -9145,7 +9151,7 @@
         <v>614</v>
       </c>
       <c r="G334" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
     </row>
     <row r="335" spans="1:7">
@@ -9153,19 +9159,19 @@
         <v>333</v>
       </c>
       <c r="B335" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="C335" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D335" t="s">
         <v>587</v>
       </c>
       <c r="E335" t="s">
-        <v>614</v>
+        <v>624</v>
       </c>
       <c r="G335" t="s">
-        <v>658</v>
+        <v>661</v>
       </c>
     </row>
     <row r="336" spans="1:7">
@@ -9173,19 +9179,19 @@
         <v>334</v>
       </c>
       <c r="B336" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="C336" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D336" t="s">
         <v>587</v>
       </c>
       <c r="E336" t="s">
-        <v>614</v>
+        <v>631</v>
       </c>
       <c r="G336" t="s">
-        <v>658</v>
+        <v>662</v>
       </c>
     </row>
     <row r="337" spans="1:7">
@@ -9193,19 +9199,19 @@
         <v>335</v>
       </c>
       <c r="B337" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="C337" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D337" t="s">
         <v>587</v>
       </c>
       <c r="E337" t="s">
-        <v>614</v>
+        <v>624</v>
       </c>
       <c r="G337" t="s">
-        <v>658</v>
+        <v>661</v>
       </c>
     </row>
     <row r="338" spans="1:7">
@@ -9213,19 +9219,19 @@
         <v>336</v>
       </c>
       <c r="B338" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="C338" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D338" t="s">
         <v>587</v>
       </c>
       <c r="E338" t="s">
-        <v>624</v>
+        <v>631</v>
       </c>
       <c r="G338" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
     </row>
     <row r="339" spans="1:7">
@@ -9233,19 +9239,19 @@
         <v>337</v>
       </c>
       <c r="B339" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="C339" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D339" t="s">
         <v>587</v>
       </c>
       <c r="E339" t="s">
-        <v>631</v>
+        <v>609</v>
       </c>
       <c r="G339" t="s">
-        <v>661</v>
+        <v>666</v>
       </c>
     </row>
     <row r="340" spans="1:7">
@@ -9253,19 +9259,19 @@
         <v>338</v>
       </c>
       <c r="B340" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="C340" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D340" t="s">
         <v>587</v>
       </c>
       <c r="E340" t="s">
-        <v>624</v>
+        <v>609</v>
       </c>
       <c r="G340" t="s">
-        <v>660</v>
+        <v>666</v>
       </c>
     </row>
     <row r="341" spans="1:7">
@@ -9273,19 +9279,19 @@
         <v>339</v>
       </c>
       <c r="B341" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="C341" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D341" t="s">
         <v>587</v>
       </c>
       <c r="E341" t="s">
-        <v>631</v>
+        <v>609</v>
       </c>
       <c r="G341" t="s">
-        <v>661</v>
+        <v>666</v>
       </c>
     </row>
     <row r="342" spans="1:7">
@@ -9293,10 +9299,10 @@
         <v>340</v>
       </c>
       <c r="B342" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="C342" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D342" t="s">
         <v>587</v>
@@ -9305,7 +9311,7 @@
         <v>609</v>
       </c>
       <c r="G342" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
     </row>
     <row r="343" spans="1:7">
@@ -9313,10 +9319,10 @@
         <v>341</v>
       </c>
       <c r="B343" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="C343" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D343" t="s">
         <v>587</v>
@@ -9325,7 +9331,7 @@
         <v>609</v>
       </c>
       <c r="G343" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="344" spans="1:7">
@@ -9333,10 +9339,10 @@
         <v>342</v>
       </c>
       <c r="B344" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="C344" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D344" t="s">
         <v>587</v>
@@ -9345,7 +9351,7 @@
         <v>609</v>
       </c>
       <c r="G344" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
     </row>
     <row r="345" spans="1:7">
@@ -9353,10 +9359,10 @@
         <v>343</v>
       </c>
       <c r="B345" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="C345" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D345" t="s">
         <v>587</v>
@@ -9365,7 +9371,7 @@
         <v>609</v>
       </c>
       <c r="G345" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
     </row>
     <row r="346" spans="1:7">
@@ -9373,10 +9379,10 @@
         <v>344</v>
       </c>
       <c r="B346" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="C346" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D346" t="s">
         <v>587</v>
@@ -9385,7 +9391,7 @@
         <v>609</v>
       </c>
       <c r="G346" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
     </row>
     <row r="347" spans="1:7">
@@ -9393,16 +9399,16 @@
         <v>345</v>
       </c>
       <c r="B347" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="C347" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D347" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="E347" t="s">
-        <v>609</v>
+        <v>596</v>
       </c>
       <c r="G347" t="s">
         <v>659</v>
@@ -9413,19 +9419,19 @@
         <v>346</v>
       </c>
       <c r="B348" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="C348" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D348" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="E348" t="s">
-        <v>609</v>
+        <v>626</v>
       </c>
       <c r="G348" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="349" spans="1:7">
@@ -9433,19 +9439,19 @@
         <v>347</v>
       </c>
       <c r="B349" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="C349" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D349" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="E349" t="s">
-        <v>609</v>
+        <v>619</v>
       </c>
       <c r="G349" t="s">
-        <v>659</v>
+        <v>662</v>
       </c>
     </row>
     <row r="350" spans="1:7">
@@ -9453,19 +9459,19 @@
         <v>348</v>
       </c>
       <c r="B350" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="C350" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D350" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="E350" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="G350" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
     </row>
     <row r="351" spans="1:7">
@@ -9473,19 +9479,19 @@
         <v>349</v>
       </c>
       <c r="B351" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="C351" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D351" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="E351" t="s">
-        <v>626</v>
+        <v>596</v>
       </c>
       <c r="G351" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
     </row>
     <row r="352" spans="1:7">
@@ -9493,300 +9499,294 @@
         <v>350</v>
       </c>
       <c r="B352" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="C352" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D352" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="E352" t="s">
-        <v>619</v>
+        <v>626</v>
       </c>
       <c r="G352" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="353" spans="1:7">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="353" spans="1:6">
       <c r="A353" s="1">
         <v>351</v>
       </c>
       <c r="B353" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="C353" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D353" t="s">
-        <v>589</v>
-      </c>
-      <c r="E353" t="s">
-        <v>597</v>
-      </c>
-      <c r="G353" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="354" spans="1:7">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="354" spans="1:6">
       <c r="A354" s="1">
         <v>352</v>
       </c>
       <c r="B354" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="C354" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D354" t="s">
-        <v>590</v>
+        <v>386</v>
       </c>
       <c r="E354" t="s">
-        <v>596</v>
-      </c>
-      <c r="G354" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="355" spans="1:7">
+        <v>642</v>
+      </c>
+      <c r="F354" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="355" spans="1:6">
       <c r="A355" s="1">
         <v>353</v>
       </c>
       <c r="B355" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="C355" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D355" t="s">
-        <v>591</v>
-      </c>
-      <c r="E355" t="s">
-        <v>626</v>
-      </c>
-      <c r="G355" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="356" spans="1:7">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="356" spans="1:6">
       <c r="A356" s="1">
         <v>354</v>
       </c>
       <c r="B356" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="C356" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D356" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="357" spans="1:7">
+    <row r="357" spans="1:6">
       <c r="A357" s="1">
         <v>355</v>
       </c>
       <c r="B357" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C357" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D357" t="s">
-        <v>387</v>
-      </c>
-      <c r="E357" t="s">
-        <v>641</v>
+        <v>386</v>
       </c>
       <c r="F357" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="358" spans="1:7">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="358" spans="1:6">
       <c r="A358" s="1">
         <v>356</v>
       </c>
       <c r="B358" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="C358" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D358" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="359" spans="1:7">
+        <v>386</v>
+      </c>
+      <c r="F358" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="359" spans="1:6">
       <c r="A359" s="1">
         <v>357</v>
       </c>
       <c r="B359" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="C359" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D359" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="360" spans="1:7">
+        <v>386</v>
+      </c>
+      <c r="F359" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="360" spans="1:6">
       <c r="A360" s="1">
         <v>358</v>
       </c>
       <c r="B360" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="C360" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D360" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F360" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="361" spans="1:7">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="361" spans="1:6">
       <c r="A361" s="1">
         <v>359</v>
       </c>
       <c r="B361" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="C361" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D361" t="s">
-        <v>387</v>
+        <v>386</v>
+      </c>
+      <c r="E361" t="s">
+        <v>643</v>
       </c>
       <c r="F361" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="362" spans="1:7">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="362" spans="1:6">
       <c r="A362" s="1">
         <v>360</v>
       </c>
       <c r="B362" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="C362" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D362" t="s">
-        <v>387</v>
+        <v>386</v>
+      </c>
+      <c r="E362" t="s">
+        <v>644</v>
       </c>
       <c r="F362" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="363" spans="1:7">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="363" spans="1:6">
       <c r="A363" s="1">
         <v>361</v>
       </c>
       <c r="B363" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="C363" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D363" t="s">
-        <v>387</v>
-      </c>
-      <c r="F363" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="364" spans="1:7">
+        <v>592</v>
+      </c>
+      <c r="E363" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="364" spans="1:6">
       <c r="A364" s="1">
         <v>362</v>
       </c>
       <c r="B364" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="C364" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D364" t="s">
-        <v>387</v>
+        <v>592</v>
       </c>
       <c r="E364" t="s">
-        <v>642</v>
-      </c>
-      <c r="F364" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="365" spans="1:7">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="365" spans="1:6">
       <c r="A365" s="1">
         <v>363</v>
       </c>
       <c r="B365" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="C365" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D365" t="s">
-        <v>387</v>
+        <v>592</v>
       </c>
       <c r="E365" t="s">
-        <v>643</v>
-      </c>
-      <c r="F365" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="366" spans="1:7">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="366" spans="1:6">
       <c r="A366" s="1">
         <v>364</v>
       </c>
       <c r="B366" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="C366" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D366" t="s">
         <v>592</v>
       </c>
       <c r="E366" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="367" spans="1:7">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="367" spans="1:6">
       <c r="A367" s="1">
         <v>365</v>
       </c>
       <c r="B367" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="C367" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D367" t="s">
         <v>592</v>
       </c>
       <c r="E367" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="368" spans="1:7">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="368" spans="1:6">
       <c r="A368" s="1">
         <v>366</v>
       </c>
       <c r="B368" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="C368" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D368" t="s">
-        <v>592</v>
+        <v>386</v>
       </c>
       <c r="E368" t="s">
-        <v>644</v>
+        <v>646</v>
+      </c>
+      <c r="F368" t="s">
+        <v>646</v>
       </c>
     </row>
     <row r="369" spans="1:6">
@@ -9794,16 +9794,19 @@
         <v>367</v>
       </c>
       <c r="B369" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="C369" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D369" t="s">
-        <v>592</v>
+        <v>386</v>
       </c>
       <c r="E369" t="s">
-        <v>644</v>
+        <v>647</v>
+      </c>
+      <c r="F369" t="s">
+        <v>647</v>
       </c>
     </row>
     <row r="370" spans="1:6">
@@ -9811,16 +9814,16 @@
         <v>368</v>
       </c>
       <c r="B370" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="C370" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D370" t="s">
-        <v>592</v>
-      </c>
-      <c r="E370" t="s">
-        <v>644</v>
+        <v>386</v>
+      </c>
+      <c r="F370" t="s">
+        <v>657</v>
       </c>
     </row>
     <row r="371" spans="1:6">
@@ -9828,19 +9831,13 @@
         <v>369</v>
       </c>
       <c r="B371" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="C371" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D371" t="s">
-        <v>387</v>
-      </c>
-      <c r="E371" t="s">
-        <v>645</v>
-      </c>
-      <c r="F371" t="s">
-        <v>645</v>
+        <v>593</v>
       </c>
     </row>
     <row r="372" spans="1:6">
@@ -9848,63 +9845,12 @@
         <v>370</v>
       </c>
       <c r="B372" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="C372" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D372" t="s">
-        <v>387</v>
-      </c>
-      <c r="E372" t="s">
-        <v>646</v>
-      </c>
-      <c r="F372" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="373" spans="1:6">
-      <c r="A373" s="1">
-        <v>371</v>
-      </c>
-      <c r="B373" t="s">
-        <v>375</v>
-      </c>
-      <c r="C373" t="s">
-        <v>378</v>
-      </c>
-      <c r="D373" t="s">
-        <v>387</v>
-      </c>
-      <c r="F373" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="374" spans="1:6">
-      <c r="A374" s="1">
-        <v>372</v>
-      </c>
-      <c r="B374" t="s">
-        <v>376</v>
-      </c>
-      <c r="C374" t="s">
-        <v>378</v>
-      </c>
-      <c r="D374" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="375" spans="1:6">
-      <c r="A375" s="1">
-        <v>373</v>
-      </c>
-      <c r="B375" t="s">
-        <v>377</v>
-      </c>
-      <c r="C375" t="s">
-        <v>378</v>
-      </c>
-      <c r="D375" t="s">
         <v>594</v>
       </c>
     </row>

--- a/helper/Employee.xlsx
+++ b/helper/Employee.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1869" uniqueCount="671">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1875" uniqueCount="671">
   <si>
     <t>Employee</t>
   </si>
@@ -1147,7 +1147,10 @@
     <t>martin_rieder</t>
   </si>
   <si>
-    <t>LINK</t>
+    <t>christian_rebo</t>
+  </si>
+  <si>
+    <t>Click Me</t>
   </si>
   <si>
     <t>Head_of_User_Team_Norway_Company,Everybody_in_EU,L3_Leaders</t>
@@ -1378,6 +1381,9 @@
     <t>Lead_Program_Manager,Everybody_in_EU</t>
   </si>
   <si>
+    <t>Lead_Program_Manager,Everybody_in_EU,caesar_one_person_one_role</t>
+  </si>
+  <si>
     <t>Network_Development Project  Manager,Everybody_in_EU</t>
   </si>
   <si>
@@ -1795,7 +1801,7 @@
     <t>Everybody_in_EU</t>
   </si>
   <si>
-    <t>NIO_Life Specialist,Everybody_in_EU</t>
+    <t>NIO_Life_Specialist,Everybody_in_EU</t>
   </si>
   <si>
     <t>L2_Leaders</t>
@@ -1828,7 +1834,7 @@
     <t xml:space="preserve">Regional_Operations_Support_Team </t>
   </si>
   <si>
-    <t>European_Business,Event,Communication_&amp;_PR</t>
+    <t>European_Business,Event,Communication_and_PR</t>
   </si>
   <si>
     <t>Market_Expansion_Planning</t>
@@ -1837,7 +1843,7 @@
     <t>UserDevelopment_Team_Germany_Company</t>
   </si>
   <si>
-    <t xml:space="preserve">Digital_PMO_Team </t>
+    <t>Digital_PMO_Team</t>
   </si>
   <si>
     <t>Service_Operations_Team_Denmark_Company</t>
@@ -1900,7 +1906,7 @@
     <t>Training_Team</t>
   </si>
   <si>
-    <t>Europe_Project_Management_&amp;_Enabling_Department</t>
+    <t>Europe_Project_Management_and_Enabling_Department</t>
   </si>
   <si>
     <t>UserDevelopment_Team_Netherlands_Company</t>
@@ -1915,13 +1921,16 @@
     <t>Service_PMO</t>
   </si>
   <si>
+    <t>Europe_Business_HRBP_Department</t>
+  </si>
+  <si>
     <t>Europe_Business_Operation</t>
   </si>
   <si>
     <t>NIO_House_Operation</t>
   </si>
   <si>
-    <t>Service_PMO,Parts_&amp;_Logistics</t>
+    <t>Service_PMO,Parts_and_Logistics</t>
   </si>
   <si>
     <t>PMO_Infrastructure</t>
@@ -1945,49 +1954,40 @@
     <t>Partner_Strategy</t>
   </si>
   <si>
+    <t>Product_Marketing_Department</t>
+  </si>
+  <si>
+    <t>Europe_Product_Experience_Department</t>
+  </si>
+  <si>
     <t>Power_Operation</t>
   </si>
   <si>
-    <t>Power Market_Launch &amp; Enabling Team</t>
+    <t>Power_market_launch_and_enabling_team</t>
   </si>
   <si>
     <t>Controlling_and_Planning_Department</t>
   </si>
   <si>
-    <t>NIO_Life</t>
+    <t>NIO_Life_Supply_Chain_Department</t>
   </si>
   <si>
     <t>Legal_EU_Department</t>
   </si>
   <si>
-    <t>Planning_Department,Controlling_and_Planning_Department</t>
+    <t>Digital_Development_PMO_Team</t>
+  </si>
+  <si>
+    <t>Purchasing_Governance_and_BP_Team</t>
   </si>
   <si>
     <t>Regional_Operations_Support_Team ,Retail_Sales</t>
   </si>
   <si>
-    <t>Europe_Business_HRBP_Department</t>
-  </si>
-  <si>
-    <t>Retail_Sales,Fleet_&amp;_Business_Sales,Sales_Planning,Europe_Business_Operation</t>
-  </si>
-  <si>
-    <t>Parts_&amp;_Logistics</t>
-  </si>
-  <si>
-    <t>Product Marketing Department (PMK)</t>
-  </si>
-  <si>
-    <t>Europe_Product_Experience_Department</t>
-  </si>
-  <si>
-    <t>Operational_Procurement</t>
-  </si>
-  <si>
-    <t>(Digital) Sales Product Group</t>
-  </si>
-  <si>
-    <t>Digital_Development_PMO_Team</t>
+    <t>Fleet_and_Business_Sales,Sales_Planning,Europe_Business_Operation</t>
+  </si>
+  <si>
+    <t>Parts_and_Logistics</t>
   </si>
   <si>
     <t>Oslo</t>
@@ -2384,7 +2384,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G372"/>
+  <dimension ref="A1:G373"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2418,16 +2418,16 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D2" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="E2" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="F2" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="G2" t="s">
         <v>658</v>
@@ -2441,16 +2441,16 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D3" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="E3" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="F3" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="G3" t="s">
         <v>659</v>
@@ -2464,16 +2464,16 @@
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D4" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="E4" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="F4" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="G4" t="s">
         <v>660</v>
@@ -2487,16 +2487,16 @@
         <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D5" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="E5" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="F5" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="G5" t="s">
         <v>661</v>
@@ -2510,16 +2510,16 @@
         <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D6" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="E6" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="F6" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="G6" t="s">
         <v>662</v>
@@ -2533,16 +2533,16 @@
         <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D7" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="E7" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="F7" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="G7" t="s">
         <v>662</v>
@@ -2556,16 +2556,16 @@
         <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D8" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="E8" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="F8" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="G8" t="s">
         <v>660</v>
@@ -2579,16 +2579,16 @@
         <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D9" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="E9" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="F9" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="G9" t="s">
         <v>663</v>
@@ -2602,13 +2602,13 @@
         <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D10" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="F10" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -2619,16 +2619,16 @@
         <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D11" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="E11" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="F11" t="s">
-        <v>649</v>
+        <v>655</v>
       </c>
       <c r="G11" t="s">
         <v>663</v>
@@ -2642,16 +2642,16 @@
         <v>16</v>
       </c>
       <c r="C12" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D12" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="E12" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="F12" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="G12" t="s">
         <v>663</v>
@@ -2665,16 +2665,16 @@
         <v>17</v>
       </c>
       <c r="C13" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D13" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="E13" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="F13" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="G13" t="s">
         <v>663</v>
@@ -2688,16 +2688,16 @@
         <v>18</v>
       </c>
       <c r="C14" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D14" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="E14" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="F14" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="G14" t="s">
         <v>660</v>
@@ -2711,16 +2711,16 @@
         <v>19</v>
       </c>
       <c r="C15" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D15" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="E15" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="F15" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="G15" t="s">
         <v>663</v>
@@ -2734,16 +2734,16 @@
         <v>20</v>
       </c>
       <c r="C16" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D16" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="E16" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="F16" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="G16" t="s">
         <v>661</v>
@@ -2757,16 +2757,16 @@
         <v>21</v>
       </c>
       <c r="C17" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D17" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="E17" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="F17" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="G17" t="s">
         <v>660</v>
@@ -2780,16 +2780,16 @@
         <v>22</v>
       </c>
       <c r="C18" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D18" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="E18" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="F18" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="G18" t="s">
         <v>659</v>
@@ -2803,16 +2803,16 @@
         <v>23</v>
       </c>
       <c r="C19" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D19" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="E19" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="F19" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="G19" t="s">
         <v>660</v>
@@ -2826,16 +2826,16 @@
         <v>24</v>
       </c>
       <c r="C20" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D20" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E20" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="F20" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="G20" t="s">
         <v>663</v>
@@ -2849,16 +2849,16 @@
         <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D21" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="E21" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="F21" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="G21" t="s">
         <v>662</v>
@@ -2872,13 +2872,13 @@
         <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D22" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="E22" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="G22" t="s">
         <v>659</v>
@@ -2892,16 +2892,16 @@
         <v>27</v>
       </c>
       <c r="C23" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D23" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="E23" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="F23" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="G23" t="s">
         <v>660</v>
@@ -2915,16 +2915,16 @@
         <v>28</v>
       </c>
       <c r="C24" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D24" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="E24" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="F24" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="G24" t="s">
         <v>662</v>
@@ -2938,16 +2938,16 @@
         <v>29</v>
       </c>
       <c r="C25" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D25" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="E25" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="F25" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="G25" t="s">
         <v>658</v>
@@ -2961,16 +2961,16 @@
         <v>30</v>
       </c>
       <c r="C26" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D26" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="E26" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="F26" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="G26" t="s">
         <v>659</v>
@@ -2984,16 +2984,16 @@
         <v>31</v>
       </c>
       <c r="C27" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D27" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="E27" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="F27" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="G27" t="s">
         <v>659</v>
@@ -3007,16 +3007,16 @@
         <v>32</v>
       </c>
       <c r="C28" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D28" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="E28" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="F28" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="G28" t="s">
         <v>662</v>
@@ -3030,16 +3030,16 @@
         <v>33</v>
       </c>
       <c r="C29" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D29" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="E29" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="F29" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="G29" t="s">
         <v>661</v>
@@ -3053,16 +3053,16 @@
         <v>34</v>
       </c>
       <c r="C30" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D30" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="E30" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="F30" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="G30" t="s">
         <v>660</v>
@@ -3076,16 +3076,16 @@
         <v>35</v>
       </c>
       <c r="C31" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D31" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="E31" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="F31" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="G31" t="s">
         <v>660</v>
@@ -3099,16 +3099,16 @@
         <v>36</v>
       </c>
       <c r="C32" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D32" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="E32" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="F32" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="G32" t="s">
         <v>663</v>
@@ -3122,16 +3122,16 @@
         <v>37</v>
       </c>
       <c r="C33" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D33" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="E33" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="F33" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="G33" t="s">
         <v>661</v>
@@ -3145,16 +3145,16 @@
         <v>38</v>
       </c>
       <c r="C34" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D34" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="E34" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="F34" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="G34" t="s">
         <v>662</v>
@@ -3168,16 +3168,16 @@
         <v>39</v>
       </c>
       <c r="C35" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D35" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="E35" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="F35" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="G35" t="s">
         <v>662</v>
@@ -3191,16 +3191,16 @@
         <v>40</v>
       </c>
       <c r="C36" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D36" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="E36" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="F36" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="G36" t="s">
         <v>658</v>
@@ -3214,16 +3214,16 @@
         <v>41</v>
       </c>
       <c r="C37" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D37" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="E37" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="F37" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="G37" t="s">
         <v>664</v>
@@ -3237,16 +3237,16 @@
         <v>42</v>
       </c>
       <c r="C38" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D38" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="E38" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="F38" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="G38" t="s">
         <v>663</v>
@@ -3260,16 +3260,16 @@
         <v>43</v>
       </c>
       <c r="C39" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D39" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="E39" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="F39" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="G39" t="s">
         <v>662</v>
@@ -3283,13 +3283,13 @@
         <v>44</v>
       </c>
       <c r="C40" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D40" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="E40" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="G40" t="s">
         <v>663</v>
@@ -3303,16 +3303,16 @@
         <v>45</v>
       </c>
       <c r="C41" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D41" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="E41" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="F41" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="G41" t="s">
         <v>662</v>
@@ -3326,16 +3326,16 @@
         <v>46</v>
       </c>
       <c r="C42" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D42" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="E42" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="F42" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="G42" t="s">
         <v>662</v>
@@ -3349,16 +3349,16 @@
         <v>47</v>
       </c>
       <c r="C43" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D43" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="E43" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="F43" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="G43" t="s">
         <v>663</v>
@@ -3372,13 +3372,16 @@
         <v>48</v>
       </c>
       <c r="C44" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D44" t="s">
-        <v>386</v>
+        <v>387</v>
+      </c>
+      <c r="E44" t="s">
+        <v>635</v>
       </c>
       <c r="F44" t="s">
-        <v>650</v>
+        <v>635</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -3389,13 +3392,13 @@
         <v>49</v>
       </c>
       <c r="C45" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D45" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="E45" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="G45" t="s">
         <v>660</v>
@@ -3409,13 +3412,13 @@
         <v>50</v>
       </c>
       <c r="C46" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D46" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="E46" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="G46" t="s">
         <v>663</v>
@@ -3429,13 +3432,13 @@
         <v>51</v>
       </c>
       <c r="C47" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D47" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="E47" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="G47" t="s">
         <v>663</v>
@@ -3449,13 +3452,13 @@
         <v>52</v>
       </c>
       <c r="C48" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D48" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="E48" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="G48" t="s">
         <v>663</v>
@@ -3469,10 +3472,10 @@
         <v>53</v>
       </c>
       <c r="C49" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D49" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="G49" t="s">
         <v>663</v>
@@ -3486,13 +3489,13 @@
         <v>54</v>
       </c>
       <c r="C50" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D50" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="E50" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="G50" t="s">
         <v>664</v>
@@ -3506,13 +3509,13 @@
         <v>55</v>
       </c>
       <c r="C51" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D51" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="E51" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="G51" t="s">
         <v>660</v>
@@ -3526,10 +3529,10 @@
         <v>56</v>
       </c>
       <c r="C52" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D52" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="G52" t="s">
         <v>662</v>
@@ -3543,16 +3546,16 @@
         <v>57</v>
       </c>
       <c r="C53" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D53" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="E53" t="s">
-        <v>633</v>
+        <v>636</v>
       </c>
       <c r="F53" t="s">
-        <v>651</v>
+        <v>656</v>
       </c>
       <c r="G53" t="s">
         <v>665</v>
@@ -3566,13 +3569,13 @@
         <v>58</v>
       </c>
       <c r="C54" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D54" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="E54" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="G54" t="s">
         <v>660</v>
@@ -3586,16 +3589,16 @@
         <v>59</v>
       </c>
       <c r="C55" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D55" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="E55" t="s">
-        <v>634</v>
+        <v>637</v>
       </c>
       <c r="F55" t="s">
-        <v>634</v>
+        <v>637</v>
       </c>
       <c r="G55" t="s">
         <v>662</v>
@@ -3609,16 +3612,16 @@
         <v>60</v>
       </c>
       <c r="C56" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D56" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="E56" t="s">
-        <v>635</v>
+        <v>638</v>
       </c>
       <c r="F56" t="s">
-        <v>652</v>
+        <v>657</v>
       </c>
       <c r="G56" t="s">
         <v>662</v>
@@ -3632,13 +3635,13 @@
         <v>61</v>
       </c>
       <c r="C57" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D57" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="E57" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="G57" t="s">
         <v>660</v>
@@ -3652,10 +3655,10 @@
         <v>62</v>
       </c>
       <c r="C58" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D58" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="G58" t="s">
         <v>663</v>
@@ -3669,13 +3672,13 @@
         <v>63</v>
       </c>
       <c r="C59" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D59" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="E59" t="s">
-        <v>636</v>
+        <v>639</v>
       </c>
       <c r="G59" t="s">
         <v>663</v>
@@ -3689,13 +3692,13 @@
         <v>64</v>
       </c>
       <c r="C60" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D60" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="E60" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="G60" t="s">
         <v>661</v>
@@ -3709,16 +3712,16 @@
         <v>65</v>
       </c>
       <c r="C61" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D61" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="E61" t="s">
-        <v>637</v>
+        <v>640</v>
       </c>
       <c r="F61" t="s">
-        <v>637</v>
+        <v>640</v>
       </c>
       <c r="G61" t="s">
         <v>662</v>
@@ -3732,10 +3735,10 @@
         <v>66</v>
       </c>
       <c r="C62" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D62" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="G62" t="s">
         <v>661</v>
@@ -3749,16 +3752,16 @@
         <v>67</v>
       </c>
       <c r="C63" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D63" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="E63" t="s">
-        <v>638</v>
+        <v>641</v>
       </c>
       <c r="F63" t="s">
-        <v>638</v>
+        <v>641</v>
       </c>
       <c r="G63" t="s">
         <v>662</v>
@@ -3772,13 +3775,13 @@
         <v>68</v>
       </c>
       <c r="C64" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D64" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="E64" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="G64" t="s">
         <v>662</v>
@@ -3792,13 +3795,13 @@
         <v>69</v>
       </c>
       <c r="C65" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D65" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="E65" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="G65" t="s">
         <v>660</v>
@@ -3812,10 +3815,10 @@
         <v>70</v>
       </c>
       <c r="C66" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D66" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="G66" t="s">
         <v>664</v>
@@ -3829,13 +3832,13 @@
         <v>71</v>
       </c>
       <c r="C67" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D67" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="E67" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="G67" t="s">
         <v>663</v>
@@ -3849,13 +3852,13 @@
         <v>72</v>
       </c>
       <c r="C68" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D68" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="E68" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="G68" t="s">
         <v>663</v>
@@ -3869,13 +3872,13 @@
         <v>73</v>
       </c>
       <c r="C69" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D69" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="E69" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="G69" t="s">
         <v>663</v>
@@ -3889,13 +3892,13 @@
         <v>74</v>
       </c>
       <c r="C70" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D70" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="E70" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="G70" t="s">
         <v>663</v>
@@ -3909,10 +3912,10 @@
         <v>75</v>
       </c>
       <c r="C71" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D71" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="G71" t="s">
         <v>663</v>
@@ -3926,13 +3929,13 @@
         <v>76</v>
       </c>
       <c r="C72" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D72" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="E72" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="G72" t="s">
         <v>663</v>
@@ -3946,13 +3949,13 @@
         <v>77</v>
       </c>
       <c r="C73" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D73" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="E73" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="G73" t="s">
         <v>663</v>
@@ -3966,13 +3969,13 @@
         <v>78</v>
       </c>
       <c r="C74" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D74" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="E74" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="G74" t="s">
         <v>663</v>
@@ -3986,13 +3989,13 @@
         <v>79</v>
       </c>
       <c r="C75" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D75" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="E75" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="G75" t="s">
         <v>663</v>
@@ -4006,13 +4009,13 @@
         <v>80</v>
       </c>
       <c r="C76" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D76" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="E76" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="G76" t="s">
         <v>660</v>
@@ -4026,13 +4029,13 @@
         <v>81</v>
       </c>
       <c r="C77" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D77" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="E77" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="G77" t="s">
         <v>660</v>
@@ -4046,10 +4049,10 @@
         <v>82</v>
       </c>
       <c r="C78" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D78" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="G78" t="s">
         <v>662</v>
@@ -4063,13 +4066,13 @@
         <v>83</v>
       </c>
       <c r="C79" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D79" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="E79" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="G79" t="s">
         <v>660</v>
@@ -4083,13 +4086,13 @@
         <v>84</v>
       </c>
       <c r="C80" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D80" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="E80" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="G80" t="s">
         <v>662</v>
@@ -4103,13 +4106,13 @@
         <v>85</v>
       </c>
       <c r="C81" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D81" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="E81" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="G81" t="s">
         <v>661</v>
@@ -4123,10 +4126,10 @@
         <v>86</v>
       </c>
       <c r="C82" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D82" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="G82" t="s">
         <v>662</v>
@@ -4140,13 +4143,13 @@
         <v>87</v>
       </c>
       <c r="C83" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D83" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="E83" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="G83" t="s">
         <v>660</v>
@@ -4160,13 +4163,13 @@
         <v>88</v>
       </c>
       <c r="C84" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D84" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="E84" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="G84" t="s">
         <v>660</v>
@@ -4180,13 +4183,13 @@
         <v>89</v>
       </c>
       <c r="C85" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D85" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="E85" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="G85" t="s">
         <v>663</v>
@@ -4200,10 +4203,10 @@
         <v>90</v>
       </c>
       <c r="C86" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D86" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="G86" t="s">
         <v>663</v>
@@ -4217,13 +4220,13 @@
         <v>91</v>
       </c>
       <c r="C87" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D87" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="E87" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="G87" t="s">
         <v>663</v>
@@ -4237,13 +4240,13 @@
         <v>92</v>
       </c>
       <c r="C88" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D88" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="E88" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="G88" t="s">
         <v>663</v>
@@ -4257,13 +4260,13 @@
         <v>93</v>
       </c>
       <c r="C89" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D89" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="E89" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="G89" t="s">
         <v>663</v>
@@ -4277,13 +4280,13 @@
         <v>94</v>
       </c>
       <c r="C90" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D90" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="E90" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="G90" t="s">
         <v>660</v>
@@ -4297,13 +4300,13 @@
         <v>95</v>
       </c>
       <c r="C91" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D91" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="E91" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="G91" t="s">
         <v>663</v>
@@ -4317,13 +4320,13 @@
         <v>96</v>
       </c>
       <c r="C92" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D92" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="E92" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="G92" t="s">
         <v>660</v>
@@ -4337,13 +4340,13 @@
         <v>97</v>
       </c>
       <c r="C93" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D93" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="E93" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="G93" t="s">
         <v>663</v>
@@ -4357,13 +4360,13 @@
         <v>98</v>
       </c>
       <c r="C94" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D94" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="E94" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="G94" t="s">
         <v>663</v>
@@ -4377,13 +4380,13 @@
         <v>99</v>
       </c>
       <c r="C95" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D95" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="E95" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="G95" t="s">
         <v>663</v>
@@ -4397,13 +4400,13 @@
         <v>100</v>
       </c>
       <c r="C96" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D96" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="E96" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="G96" t="s">
         <v>663</v>
@@ -4417,13 +4420,13 @@
         <v>101</v>
       </c>
       <c r="C97" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D97" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="E97" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="G97" t="s">
         <v>663</v>
@@ -4437,13 +4440,13 @@
         <v>102</v>
       </c>
       <c r="C98" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D98" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="E98" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="G98" t="s">
         <v>663</v>
@@ -4457,13 +4460,13 @@
         <v>103</v>
       </c>
       <c r="C99" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D99" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="E99" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="G99" t="s">
         <v>663</v>
@@ -4477,13 +4480,13 @@
         <v>104</v>
       </c>
       <c r="C100" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D100" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="E100" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="G100" t="s">
         <v>662</v>
@@ -4497,13 +4500,13 @@
         <v>105</v>
       </c>
       <c r="C101" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D101" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="E101" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="G101" t="s">
         <v>662</v>
@@ -4517,13 +4520,13 @@
         <v>106</v>
       </c>
       <c r="C102" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D102" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="E102" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="G102" t="s">
         <v>660</v>
@@ -4537,13 +4540,13 @@
         <v>107</v>
       </c>
       <c r="C103" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D103" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="E103" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="G103" t="s">
         <v>663</v>
@@ -4557,13 +4560,13 @@
         <v>108</v>
       </c>
       <c r="C104" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D104" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="E104" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="G104" t="s">
         <v>663</v>
@@ -4577,13 +4580,13 @@
         <v>109</v>
       </c>
       <c r="C105" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D105" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="E105" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="G105" t="s">
         <v>663</v>
@@ -4597,13 +4600,13 @@
         <v>110</v>
       </c>
       <c r="C106" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D106" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="E106" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="G106" t="s">
         <v>663</v>
@@ -4617,13 +4620,13 @@
         <v>111</v>
       </c>
       <c r="C107" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D107" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="E107" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="G107" t="s">
         <v>663</v>
@@ -4637,13 +4640,13 @@
         <v>112</v>
       </c>
       <c r="C108" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D108" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="E108" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="G108" t="s">
         <v>660</v>
@@ -4657,13 +4660,13 @@
         <v>113</v>
       </c>
       <c r="C109" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D109" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="E109" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="G109" t="s">
         <v>662</v>
@@ -4677,13 +4680,13 @@
         <v>114</v>
       </c>
       <c r="C110" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D110" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="E110" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="G110" t="s">
         <v>660</v>
@@ -4697,10 +4700,10 @@
         <v>115</v>
       </c>
       <c r="C111" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D111" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="G111" t="s">
         <v>666</v>
@@ -4714,13 +4717,13 @@
         <v>116</v>
       </c>
       <c r="C112" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D112" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="E112" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="G112" t="s">
         <v>667</v>
@@ -4734,13 +4737,13 @@
         <v>117</v>
       </c>
       <c r="C113" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D113" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="E113" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="G113" t="s">
         <v>667</v>
@@ -4754,13 +4757,13 @@
         <v>118</v>
       </c>
       <c r="C114" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D114" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="E114" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="G114" t="s">
         <v>667</v>
@@ -4774,13 +4777,13 @@
         <v>119</v>
       </c>
       <c r="C115" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D115" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="E115" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="G115" t="s">
         <v>667</v>
@@ -4794,13 +4797,13 @@
         <v>120</v>
       </c>
       <c r="C116" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D116" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="E116" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="G116" t="s">
         <v>667</v>
@@ -4814,13 +4817,13 @@
         <v>121</v>
       </c>
       <c r="C117" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D117" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="E117" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="G117" t="s">
         <v>667</v>
@@ -4834,10 +4837,10 @@
         <v>122</v>
       </c>
       <c r="C118" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D118" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="G118" t="s">
         <v>662</v>
@@ -4851,13 +4854,13 @@
         <v>123</v>
       </c>
       <c r="C119" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D119" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="E119" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="G119" t="s">
         <v>663</v>
@@ -4871,10 +4874,10 @@
         <v>124</v>
       </c>
       <c r="C120" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D120" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="G120" t="s">
         <v>662</v>
@@ -4888,13 +4891,13 @@
         <v>125</v>
       </c>
       <c r="C121" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D121" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="E121" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="G121" t="s">
         <v>663</v>
@@ -4908,13 +4911,13 @@
         <v>126</v>
       </c>
       <c r="C122" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D122" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="E122" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="G122" t="s">
         <v>663</v>
@@ -4928,13 +4931,13 @@
         <v>127</v>
       </c>
       <c r="C123" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D123" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="E123" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="G123" t="s">
         <v>663</v>
@@ -4948,13 +4951,13 @@
         <v>128</v>
       </c>
       <c r="C124" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D124" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="E124" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="G124" t="s">
         <v>663</v>
@@ -4968,13 +4971,13 @@
         <v>129</v>
       </c>
       <c r="C125" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D125" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="E125" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="G125" t="s">
         <v>663</v>
@@ -4988,13 +4991,13 @@
         <v>130</v>
       </c>
       <c r="C126" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D126" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="E126" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="G126" t="s">
         <v>667</v>
@@ -5008,13 +5011,13 @@
         <v>131</v>
       </c>
       <c r="C127" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D127" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="E127" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="G127" t="s">
         <v>667</v>
@@ -5028,13 +5031,13 @@
         <v>132</v>
       </c>
       <c r="C128" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D128" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="E128" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="G128" t="s">
         <v>667</v>
@@ -5048,13 +5051,13 @@
         <v>133</v>
       </c>
       <c r="C129" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D129" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="E129" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="G129" t="s">
         <v>667</v>
@@ -5068,13 +5071,13 @@
         <v>134</v>
       </c>
       <c r="C130" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D130" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="E130" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="G130" t="s">
         <v>667</v>
@@ -5088,13 +5091,13 @@
         <v>135</v>
       </c>
       <c r="C131" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D131" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="E131" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="G131" t="s">
         <v>667</v>
@@ -5108,13 +5111,13 @@
         <v>136</v>
       </c>
       <c r="C132" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D132" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="E132" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="G132" t="s">
         <v>660</v>
@@ -5128,13 +5131,13 @@
         <v>137</v>
       </c>
       <c r="C133" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D133" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="E133" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="G133" t="s">
         <v>662</v>
@@ -5148,13 +5151,13 @@
         <v>138</v>
       </c>
       <c r="C134" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D134" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="E134" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="G134" t="s">
         <v>666</v>
@@ -5168,13 +5171,13 @@
         <v>139</v>
       </c>
       <c r="C135" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D135" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="E135" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="G135" t="s">
         <v>666</v>
@@ -5188,13 +5191,13 @@
         <v>140</v>
       </c>
       <c r="C136" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D136" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="E136" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="G136" t="s">
         <v>666</v>
@@ -5208,13 +5211,13 @@
         <v>141</v>
       </c>
       <c r="C137" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D137" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="E137" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="G137" t="s">
         <v>658</v>
@@ -5228,13 +5231,13 @@
         <v>142</v>
       </c>
       <c r="C138" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D138" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="E138" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="G138" t="s">
         <v>658</v>
@@ -5248,13 +5251,13 @@
         <v>143</v>
       </c>
       <c r="C139" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D139" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="E139" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="G139" t="s">
         <v>666</v>
@@ -5268,13 +5271,13 @@
         <v>144</v>
       </c>
       <c r="C140" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D140" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="E140" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="G140" t="s">
         <v>662</v>
@@ -5288,13 +5291,13 @@
         <v>145</v>
       </c>
       <c r="C141" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D141" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="E141" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="G141" t="s">
         <v>661</v>
@@ -5308,13 +5311,13 @@
         <v>146</v>
       </c>
       <c r="C142" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D142" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="E142" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="G142" t="s">
         <v>661</v>
@@ -5328,13 +5331,13 @@
         <v>147</v>
       </c>
       <c r="C143" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D143" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="E143" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="G143" t="s">
         <v>662</v>
@@ -5348,13 +5351,13 @@
         <v>148</v>
       </c>
       <c r="C144" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D144" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="E144" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="G144" t="s">
         <v>662</v>
@@ -5368,13 +5371,13 @@
         <v>149</v>
       </c>
       <c r="C145" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D145" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="E145" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="G145" t="s">
         <v>659</v>
@@ -5388,13 +5391,13 @@
         <v>150</v>
       </c>
       <c r="C146" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D146" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="E146" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="G146" t="s">
         <v>661</v>
@@ -5408,13 +5411,13 @@
         <v>151</v>
       </c>
       <c r="C147" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D147" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="E147" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="G147" t="s">
         <v>658</v>
@@ -5428,13 +5431,13 @@
         <v>152</v>
       </c>
       <c r="C148" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D148" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="E148" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="G148" t="s">
         <v>658</v>
@@ -5448,13 +5451,13 @@
         <v>153</v>
       </c>
       <c r="C149" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D149" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="E149" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="G149" t="s">
         <v>658</v>
@@ -5468,13 +5471,13 @@
         <v>154</v>
       </c>
       <c r="C150" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D150" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="E150" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="G150" t="s">
         <v>658</v>
@@ -5488,13 +5491,13 @@
         <v>155</v>
       </c>
       <c r="C151" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D151" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="E151" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="G151" t="s">
         <v>658</v>
@@ -5508,13 +5511,13 @@
         <v>156</v>
       </c>
       <c r="C152" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D152" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="E152" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="G152" t="s">
         <v>661</v>
@@ -5528,13 +5531,13 @@
         <v>157</v>
       </c>
       <c r="C153" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D153" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="E153" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="G153" t="s">
         <v>661</v>
@@ -5548,13 +5551,13 @@
         <v>158</v>
       </c>
       <c r="C154" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D154" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="E154" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="G154" t="s">
         <v>659</v>
@@ -5568,13 +5571,13 @@
         <v>159</v>
       </c>
       <c r="C155" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D155" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="E155" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="G155" t="s">
         <v>659</v>
@@ -5588,13 +5591,13 @@
         <v>160</v>
       </c>
       <c r="C156" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D156" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="E156" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="G156" t="s">
         <v>659</v>
@@ -5608,13 +5611,13 @@
         <v>161</v>
       </c>
       <c r="C157" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D157" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="E157" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="G157" t="s">
         <v>661</v>
@@ -5628,13 +5631,13 @@
         <v>162</v>
       </c>
       <c r="C158" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D158" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="E158" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="G158" t="s">
         <v>661</v>
@@ -5648,13 +5651,13 @@
         <v>163</v>
       </c>
       <c r="C159" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D159" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="E159" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="G159" t="s">
         <v>666</v>
@@ -5668,13 +5671,13 @@
         <v>164</v>
       </c>
       <c r="C160" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D160" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="E160" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="G160" t="s">
         <v>660</v>
@@ -5688,13 +5691,13 @@
         <v>165</v>
       </c>
       <c r="C161" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D161" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="E161" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="G161" t="s">
         <v>660</v>
@@ -5708,13 +5711,13 @@
         <v>166</v>
       </c>
       <c r="C162" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D162" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="E162" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="G162" t="s">
         <v>664</v>
@@ -5728,13 +5731,13 @@
         <v>167</v>
       </c>
       <c r="C163" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D163" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="E163" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="G163" t="s">
         <v>664</v>
@@ -5748,13 +5751,13 @@
         <v>168</v>
       </c>
       <c r="C164" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D164" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="E164" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="G164" t="s">
         <v>660</v>
@@ -5768,13 +5771,13 @@
         <v>169</v>
       </c>
       <c r="C165" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D165" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="E165" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="G165" t="s">
         <v>664</v>
@@ -5788,13 +5791,13 @@
         <v>170</v>
       </c>
       <c r="C166" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D166" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="E166" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="G166" t="s">
         <v>664</v>
@@ -5808,13 +5811,13 @@
         <v>171</v>
       </c>
       <c r="C167" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D167" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="E167" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="G167" t="s">
         <v>660</v>
@@ -5828,13 +5831,13 @@
         <v>172</v>
       </c>
       <c r="C168" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D168" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="E168" t="s">
-        <v>639</v>
+        <v>642</v>
       </c>
       <c r="G168" t="s">
         <v>659</v>
@@ -5848,13 +5851,13 @@
         <v>173</v>
       </c>
       <c r="C169" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D169" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="E169" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="G169" t="s">
         <v>660</v>
@@ -5868,13 +5871,13 @@
         <v>174</v>
       </c>
       <c r="C170" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D170" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="E170" t="s">
-        <v>640</v>
+        <v>643</v>
       </c>
       <c r="G170" t="s">
         <v>661</v>
@@ -5888,13 +5891,13 @@
         <v>175</v>
       </c>
       <c r="C171" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D171" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="E171" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="G171" t="s">
         <v>664</v>
@@ -5908,13 +5911,13 @@
         <v>176</v>
       </c>
       <c r="C172" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D172" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="E172" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="G172" t="s">
         <v>662</v>
@@ -5928,13 +5931,13 @@
         <v>177</v>
       </c>
       <c r="C173" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D173" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="E173" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="G173" t="s">
         <v>658</v>
@@ -5948,13 +5951,13 @@
         <v>178</v>
       </c>
       <c r="C174" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D174" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="E174" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="G174" t="s">
         <v>660</v>
@@ -5968,13 +5971,13 @@
         <v>179</v>
       </c>
       <c r="C175" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D175" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="E175" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="G175" t="s">
         <v>660</v>
@@ -5988,13 +5991,13 @@
         <v>180</v>
       </c>
       <c r="C176" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D176" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="E176" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="G176" t="s">
         <v>659</v>
@@ -6008,13 +6011,13 @@
         <v>181</v>
       </c>
       <c r="C177" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D177" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="E177" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="G177" t="s">
         <v>661</v>
@@ -6028,13 +6031,13 @@
         <v>182</v>
       </c>
       <c r="C178" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D178" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="E178" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="G178" t="s">
         <v>659</v>
@@ -6048,13 +6051,13 @@
         <v>183</v>
       </c>
       <c r="C179" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D179" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="E179" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="G179" t="s">
         <v>662</v>
@@ -6068,13 +6071,13 @@
         <v>184</v>
       </c>
       <c r="C180" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D180" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="E180" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="G180" t="s">
         <v>662</v>
@@ -6088,13 +6091,13 @@
         <v>185</v>
       </c>
       <c r="C181" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D181" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="E181" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="G181" t="s">
         <v>660</v>
@@ -6108,13 +6111,13 @@
         <v>186</v>
       </c>
       <c r="C182" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D182" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="E182" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="G182" t="s">
         <v>660</v>
@@ -6128,13 +6131,13 @@
         <v>187</v>
       </c>
       <c r="C183" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D183" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="E183" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="G183" t="s">
         <v>660</v>
@@ -6148,13 +6151,13 @@
         <v>188</v>
       </c>
       <c r="C184" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D184" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="E184" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="G184" t="s">
         <v>660</v>
@@ -6168,13 +6171,13 @@
         <v>189</v>
       </c>
       <c r="C185" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D185" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="E185" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="G185" t="s">
         <v>660</v>
@@ -6188,13 +6191,13 @@
         <v>190</v>
       </c>
       <c r="C186" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D186" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="E186" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="G186" t="s">
         <v>664</v>
@@ -6208,13 +6211,13 @@
         <v>191</v>
       </c>
       <c r="C187" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D187" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="E187" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="G187" t="s">
         <v>664</v>
@@ -6228,13 +6231,13 @@
         <v>192</v>
       </c>
       <c r="C188" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D188" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="E188" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="G188" t="s">
         <v>664</v>
@@ -6248,13 +6251,13 @@
         <v>193</v>
       </c>
       <c r="C189" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D189" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="E189" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="G189" t="s">
         <v>666</v>
@@ -6268,13 +6271,13 @@
         <v>194</v>
       </c>
       <c r="C190" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D190" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="E190" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="G190" t="s">
         <v>660</v>
@@ -6288,13 +6291,13 @@
         <v>195</v>
       </c>
       <c r="C191" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D191" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="E191" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="G191" t="s">
         <v>664</v>
@@ -6308,13 +6311,13 @@
         <v>196</v>
       </c>
       <c r="C192" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D192" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="E192" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="G192" t="s">
         <v>664</v>
@@ -6328,13 +6331,13 @@
         <v>197</v>
       </c>
       <c r="C193" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D193" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="E193" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="G193" t="s">
         <v>664</v>
@@ -6348,13 +6351,13 @@
         <v>198</v>
       </c>
       <c r="C194" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D194" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="E194" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="G194" t="s">
         <v>660</v>
@@ -6368,13 +6371,13 @@
         <v>199</v>
       </c>
       <c r="C195" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D195" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="E195" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="G195" t="s">
         <v>664</v>
@@ -6388,13 +6391,13 @@
         <v>200</v>
       </c>
       <c r="C196" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D196" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="E196" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="G196" t="s">
         <v>664</v>
@@ -6408,13 +6411,13 @@
         <v>201</v>
       </c>
       <c r="C197" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D197" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="E197" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="G197" t="s">
         <v>664</v>
@@ -6428,13 +6431,13 @@
         <v>202</v>
       </c>
       <c r="C198" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D198" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="E198" t="s">
-        <v>641</v>
+        <v>644</v>
       </c>
       <c r="G198" t="s">
         <v>660</v>
@@ -6448,13 +6451,13 @@
         <v>203</v>
       </c>
       <c r="C199" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D199" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="E199" t="s">
-        <v>641</v>
+        <v>644</v>
       </c>
       <c r="G199" t="s">
         <v>660</v>
@@ -6468,13 +6471,13 @@
         <v>204</v>
       </c>
       <c r="C200" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D200" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="E200" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="G200" t="s">
         <v>660</v>
@@ -6488,13 +6491,13 @@
         <v>205</v>
       </c>
       <c r="C201" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D201" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="E201" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="G201" t="s">
         <v>658</v>
@@ -6508,13 +6511,13 @@
         <v>206</v>
       </c>
       <c r="C202" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D202" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="E202" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="G202" t="s">
         <v>658</v>
@@ -6528,13 +6531,13 @@
         <v>207</v>
       </c>
       <c r="C203" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D203" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="E203" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="G203" t="s">
         <v>658</v>
@@ -6548,13 +6551,13 @@
         <v>208</v>
       </c>
       <c r="C204" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D204" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="E204" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="G204" t="s">
         <v>658</v>
@@ -6568,13 +6571,13 @@
         <v>209</v>
       </c>
       <c r="C205" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D205" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="E205" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="G205" t="s">
         <v>658</v>
@@ -6588,13 +6591,13 @@
         <v>210</v>
       </c>
       <c r="C206" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D206" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="E206" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="G206" t="s">
         <v>658</v>
@@ -6608,13 +6611,13 @@
         <v>211</v>
       </c>
       <c r="C207" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D207" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="E207" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="G207" t="s">
         <v>666</v>
@@ -6628,13 +6631,13 @@
         <v>212</v>
       </c>
       <c r="C208" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D208" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="E208" t="s">
-        <v>641</v>
+        <v>644</v>
       </c>
       <c r="G208" t="s">
         <v>660</v>
@@ -6648,13 +6651,13 @@
         <v>213</v>
       </c>
       <c r="C209" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D209" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="E209" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="G209" t="s">
         <v>664</v>
@@ -6668,13 +6671,13 @@
         <v>214</v>
       </c>
       <c r="C210" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D210" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="E210" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="G210" t="s">
         <v>660</v>
@@ -6688,13 +6691,13 @@
         <v>215</v>
       </c>
       <c r="C211" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D211" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="E211" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="G211" t="s">
         <v>660</v>
@@ -6708,13 +6711,13 @@
         <v>216</v>
       </c>
       <c r="C212" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D212" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="E212" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="G212" t="s">
         <v>660</v>
@@ -6728,13 +6731,13 @@
         <v>217</v>
       </c>
       <c r="C213" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D213" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="E213" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="G213" t="s">
         <v>666</v>
@@ -6748,13 +6751,13 @@
         <v>218</v>
       </c>
       <c r="C214" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D214" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="E214" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="G214" t="s">
         <v>664</v>
@@ -6768,13 +6771,13 @@
         <v>219</v>
       </c>
       <c r="C215" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D215" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="E215" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="G215" t="s">
         <v>666</v>
@@ -6788,13 +6791,13 @@
         <v>220</v>
       </c>
       <c r="C216" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D216" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="E216" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="G216" t="s">
         <v>658</v>
@@ -6808,13 +6811,13 @@
         <v>221</v>
       </c>
       <c r="C217" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D217" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="E217" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="G217" t="s">
         <v>659</v>
@@ -6828,13 +6831,13 @@
         <v>222</v>
       </c>
       <c r="C218" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D218" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="E218" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="G218" t="s">
         <v>660</v>
@@ -6848,13 +6851,13 @@
         <v>223</v>
       </c>
       <c r="C219" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D219" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="E219" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="G219" t="s">
         <v>660</v>
@@ -6868,13 +6871,13 @@
         <v>224</v>
       </c>
       <c r="C220" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D220" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="E220" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="G220" t="s">
         <v>659</v>
@@ -6888,13 +6891,13 @@
         <v>225</v>
       </c>
       <c r="C221" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D221" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="E221" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="G221" t="s">
         <v>660</v>
@@ -6908,13 +6911,13 @@
         <v>226</v>
       </c>
       <c r="C222" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D222" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="E222" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="G222" t="s">
         <v>658</v>
@@ -6928,13 +6931,13 @@
         <v>227</v>
       </c>
       <c r="C223" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D223" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="E223" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="G223" t="s">
         <v>658</v>
@@ -6948,13 +6951,13 @@
         <v>228</v>
       </c>
       <c r="C224" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D224" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="E224" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="G224" t="s">
         <v>658</v>
@@ -6968,13 +6971,13 @@
         <v>229</v>
       </c>
       <c r="C225" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D225" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="E225" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="G225" t="s">
         <v>658</v>
@@ -6988,13 +6991,13 @@
         <v>230</v>
       </c>
       <c r="C226" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D226" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="E226" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="G226" t="s">
         <v>658</v>
@@ -7008,13 +7011,13 @@
         <v>231</v>
       </c>
       <c r="C227" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D227" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="E227" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="G227" t="s">
         <v>662</v>
@@ -7028,13 +7031,13 @@
         <v>232</v>
       </c>
       <c r="C228" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D228" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="E228" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="G228" t="s">
         <v>666</v>
@@ -7048,13 +7051,13 @@
         <v>233</v>
       </c>
       <c r="C229" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D229" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="E229" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="G229" t="s">
         <v>660</v>
@@ -7068,10 +7071,10 @@
         <v>234</v>
       </c>
       <c r="C230" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D230" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="G230" t="s">
         <v>659</v>
@@ -7085,13 +7088,13 @@
         <v>235</v>
       </c>
       <c r="C231" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D231" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="E231" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="G231" t="s">
         <v>660</v>
@@ -7105,13 +7108,13 @@
         <v>236</v>
       </c>
       <c r="C232" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D232" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="E232" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="G232" t="s">
         <v>660</v>
@@ -7125,13 +7128,13 @@
         <v>237</v>
       </c>
       <c r="C233" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D233" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="E233" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="G233" t="s">
         <v>666</v>
@@ -7145,13 +7148,13 @@
         <v>238</v>
       </c>
       <c r="C234" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D234" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="E234" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="G234" t="s">
         <v>666</v>
@@ -7165,13 +7168,13 @@
         <v>239</v>
       </c>
       <c r="C235" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D235" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="E235" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="G235" t="s">
         <v>660</v>
@@ -7185,13 +7188,13 @@
         <v>240</v>
       </c>
       <c r="C236" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D236" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="E236" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="G236" t="s">
         <v>661</v>
@@ -7205,13 +7208,13 @@
         <v>241</v>
       </c>
       <c r="C237" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D237" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="E237" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="G237" t="s">
         <v>661</v>
@@ -7225,13 +7228,13 @@
         <v>242</v>
       </c>
       <c r="C238" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D238" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="E238" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="G238" t="s">
         <v>659</v>
@@ -7245,13 +7248,13 @@
         <v>243</v>
       </c>
       <c r="C239" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D239" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="E239" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="G239" t="s">
         <v>658</v>
@@ -7265,13 +7268,13 @@
         <v>244</v>
       </c>
       <c r="C240" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D240" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="E240" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="G240" t="s">
         <v>658</v>
@@ -7285,13 +7288,13 @@
         <v>245</v>
       </c>
       <c r="C241" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D241" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="E241" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="G241" t="s">
         <v>664</v>
@@ -7305,13 +7308,13 @@
         <v>246</v>
       </c>
       <c r="C242" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D242" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="E242" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="G242" t="s">
         <v>662</v>
@@ -7325,13 +7328,13 @@
         <v>247</v>
       </c>
       <c r="C243" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D243" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="E243" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="G243" t="s">
         <v>658</v>
@@ -7345,13 +7348,13 @@
         <v>248</v>
       </c>
       <c r="C244" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D244" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="E244" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="G244" t="s">
         <v>658</v>
@@ -7365,13 +7368,13 @@
         <v>249</v>
       </c>
       <c r="C245" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D245" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="E245" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="G245" t="s">
         <v>662</v>
@@ -7385,13 +7388,13 @@
         <v>250</v>
       </c>
       <c r="C246" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D246" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="E246" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="G246" t="s">
         <v>658</v>
@@ -7405,13 +7408,13 @@
         <v>251</v>
       </c>
       <c r="C247" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D247" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="E247" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="G247" t="s">
         <v>658</v>
@@ -7425,13 +7428,13 @@
         <v>252</v>
       </c>
       <c r="C248" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D248" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="E248" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="G248" t="s">
         <v>658</v>
@@ -7445,13 +7448,13 @@
         <v>253</v>
       </c>
       <c r="C249" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D249" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="E249" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="G249" t="s">
         <v>658</v>
@@ -7465,13 +7468,13 @@
         <v>254</v>
       </c>
       <c r="C250" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D250" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="E250" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="G250" t="s">
         <v>658</v>
@@ -7485,13 +7488,13 @@
         <v>255</v>
       </c>
       <c r="C251" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D251" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="E251" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="G251" t="s">
         <v>668</v>
@@ -7505,13 +7508,13 @@
         <v>256</v>
       </c>
       <c r="C252" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D252" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="E252" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="G252" t="s">
         <v>658</v>
@@ -7525,13 +7528,13 @@
         <v>257</v>
       </c>
       <c r="C253" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D253" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="E253" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="G253" t="s">
         <v>660</v>
@@ -7545,13 +7548,13 @@
         <v>258</v>
       </c>
       <c r="C254" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D254" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="E254" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="G254" t="s">
         <v>660</v>
@@ -7565,13 +7568,13 @@
         <v>259</v>
       </c>
       <c r="C255" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D255" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="E255" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="G255" t="s">
         <v>659</v>
@@ -7585,13 +7588,13 @@
         <v>260</v>
       </c>
       <c r="C256" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D256" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="E256" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="G256" t="s">
         <v>661</v>
@@ -7605,13 +7608,13 @@
         <v>261</v>
       </c>
       <c r="C257" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D257" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="E257" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="G257" t="s">
         <v>662</v>
@@ -7625,13 +7628,13 @@
         <v>262</v>
       </c>
       <c r="C258" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D258" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="E258" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="G258" t="s">
         <v>662</v>
@@ -7645,13 +7648,13 @@
         <v>263</v>
       </c>
       <c r="C259" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D259" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="E259" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="G259" t="s">
         <v>666</v>
@@ -7665,13 +7668,13 @@
         <v>264</v>
       </c>
       <c r="C260" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D260" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="E260" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="G260" t="s">
         <v>658</v>
@@ -7685,13 +7688,13 @@
         <v>265</v>
       </c>
       <c r="C261" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D261" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="E261" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="G261" t="s">
         <v>658</v>
@@ -7705,13 +7708,13 @@
         <v>266</v>
       </c>
       <c r="C262" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D262" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="E262" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="G262" t="s">
         <v>658</v>
@@ -7725,13 +7728,13 @@
         <v>267</v>
       </c>
       <c r="C263" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D263" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="E263" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="G263" t="s">
         <v>658</v>
@@ -7745,13 +7748,13 @@
         <v>268</v>
       </c>
       <c r="C264" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D264" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="E264" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="G264" t="s">
         <v>669</v>
@@ -7765,13 +7768,13 @@
         <v>269</v>
       </c>
       <c r="C265" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D265" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="E265" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="G265" t="s">
         <v>669</v>
@@ -7785,13 +7788,13 @@
         <v>270</v>
       </c>
       <c r="C266" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D266" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="E266" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="G266" t="s">
         <v>668</v>
@@ -7805,13 +7808,13 @@
         <v>271</v>
       </c>
       <c r="C267" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D267" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="E267" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="G267" t="s">
         <v>668</v>
@@ -7825,13 +7828,13 @@
         <v>272</v>
       </c>
       <c r="C268" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D268" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="E268" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="G268" t="s">
         <v>670</v>
@@ -7845,13 +7848,13 @@
         <v>273</v>
       </c>
       <c r="C269" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D269" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="E269" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="G269" t="s">
         <v>670</v>
@@ -7865,13 +7868,13 @@
         <v>274</v>
       </c>
       <c r="C270" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D270" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="E270" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="G270" t="s">
         <v>670</v>
@@ -7885,13 +7888,13 @@
         <v>275</v>
       </c>
       <c r="C271" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D271" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="E271" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="G271" t="s">
         <v>658</v>
@@ -7905,13 +7908,13 @@
         <v>276</v>
       </c>
       <c r="C272" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D272" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="E272" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="G272" t="s">
         <v>658</v>
@@ -7925,13 +7928,13 @@
         <v>277</v>
       </c>
       <c r="C273" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D273" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="E273" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="G273" t="s">
         <v>669</v>
@@ -7945,13 +7948,13 @@
         <v>278</v>
       </c>
       <c r="C274" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D274" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="E274" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="G274" t="s">
         <v>658</v>
@@ -7965,13 +7968,13 @@
         <v>279</v>
       </c>
       <c r="C275" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D275" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="E275" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="G275" t="s">
         <v>658</v>
@@ -7985,13 +7988,13 @@
         <v>280</v>
       </c>
       <c r="C276" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D276" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="E276" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="G276" t="s">
         <v>660</v>
@@ -8005,13 +8008,13 @@
         <v>281</v>
       </c>
       <c r="C277" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D277" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="E277" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="G277" t="s">
         <v>660</v>
@@ -8025,13 +8028,13 @@
         <v>282</v>
       </c>
       <c r="C278" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D278" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="E278" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="G278" t="s">
         <v>660</v>
@@ -8045,13 +8048,13 @@
         <v>283</v>
       </c>
       <c r="C279" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D279" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="E279" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="G279" t="s">
         <v>658</v>
@@ -8065,13 +8068,13 @@
         <v>284</v>
       </c>
       <c r="C280" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D280" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="E280" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="G280" t="s">
         <v>660</v>
@@ -8085,13 +8088,13 @@
         <v>285</v>
       </c>
       <c r="C281" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D281" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="E281" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="G281" t="s">
         <v>660</v>
@@ -8105,13 +8108,13 @@
         <v>286</v>
       </c>
       <c r="C282" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D282" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="E282" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="G282" t="s">
         <v>658</v>
@@ -8125,13 +8128,13 @@
         <v>287</v>
       </c>
       <c r="C283" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D283" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="E283" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="G283" t="s">
         <v>662</v>
@@ -8145,13 +8148,13 @@
         <v>288</v>
       </c>
       <c r="C284" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D284" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="E284" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="G284" t="s">
         <v>659</v>
@@ -8165,13 +8168,13 @@
         <v>289</v>
       </c>
       <c r="C285" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D285" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="E285" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="G285" t="s">
         <v>662</v>
@@ -8185,13 +8188,13 @@
         <v>290</v>
       </c>
       <c r="C286" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D286" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="E286" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="G286" t="s">
         <v>661</v>
@@ -8205,13 +8208,13 @@
         <v>291</v>
       </c>
       <c r="C287" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D287" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="E287" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="G287" t="s">
         <v>658</v>
@@ -8225,13 +8228,13 @@
         <v>292</v>
       </c>
       <c r="C288" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D288" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="E288" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="G288" t="s">
         <v>658</v>
@@ -8245,13 +8248,13 @@
         <v>293</v>
       </c>
       <c r="C289" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D289" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="E289" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="G289" t="s">
         <v>662</v>
@@ -8265,13 +8268,13 @@
         <v>294</v>
       </c>
       <c r="C290" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D290" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="E290" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="G290" t="s">
         <v>658</v>
@@ -8285,13 +8288,13 @@
         <v>295</v>
       </c>
       <c r="C291" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D291" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="E291" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="G291" t="s">
         <v>658</v>
@@ -8305,13 +8308,13 @@
         <v>296</v>
       </c>
       <c r="C292" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D292" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="E292" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="G292" t="s">
         <v>658</v>
@@ -8325,13 +8328,13 @@
         <v>297</v>
       </c>
       <c r="C293" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D293" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="E293" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="G293" t="s">
         <v>658</v>
@@ -8345,13 +8348,13 @@
         <v>298</v>
       </c>
       <c r="C294" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D294" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="E294" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="G294" t="s">
         <v>658</v>
@@ -8365,13 +8368,13 @@
         <v>299</v>
       </c>
       <c r="C295" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D295" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="E295" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="G295" t="s">
         <v>658</v>
@@ -8385,13 +8388,13 @@
         <v>300</v>
       </c>
       <c r="C296" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D296" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="E296" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="G296" t="s">
         <v>658</v>
@@ -8405,13 +8408,13 @@
         <v>301</v>
       </c>
       <c r="C297" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D297" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="E297" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="G297" t="s">
         <v>659</v>
@@ -8425,13 +8428,13 @@
         <v>302</v>
       </c>
       <c r="C298" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D298" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="E298" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="G298" t="s">
         <v>659</v>
@@ -8445,13 +8448,13 @@
         <v>303</v>
       </c>
       <c r="C299" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D299" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="E299" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="G299" t="s">
         <v>661</v>
@@ -8465,13 +8468,13 @@
         <v>304</v>
       </c>
       <c r="C300" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D300" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="E300" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="G300" t="s">
         <v>662</v>
@@ -8485,13 +8488,13 @@
         <v>305</v>
       </c>
       <c r="C301" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D301" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="E301" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="G301" t="s">
         <v>660</v>
@@ -8505,13 +8508,13 @@
         <v>306</v>
       </c>
       <c r="C302" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D302" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="E302" t="s">
-        <v>641</v>
+        <v>644</v>
       </c>
       <c r="G302" t="s">
         <v>660</v>
@@ -8525,13 +8528,13 @@
         <v>307</v>
       </c>
       <c r="C303" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D303" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="E303" t="s">
-        <v>641</v>
+        <v>644</v>
       </c>
       <c r="G303" t="s">
         <v>660</v>
@@ -8545,13 +8548,13 @@
         <v>308</v>
       </c>
       <c r="C304" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D304" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="E304" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="G304" t="s">
         <v>660</v>
@@ -8565,13 +8568,13 @@
         <v>309</v>
       </c>
       <c r="C305" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D305" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="E305" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="G305" t="s">
         <v>660</v>
@@ -8585,13 +8588,13 @@
         <v>310</v>
       </c>
       <c r="C306" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D306" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="E306" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="G306" t="s">
         <v>660</v>
@@ -8605,13 +8608,13 @@
         <v>311</v>
       </c>
       <c r="C307" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D307" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="E307" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="G307" t="s">
         <v>660</v>
@@ -8625,13 +8628,13 @@
         <v>312</v>
       </c>
       <c r="C308" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D308" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="E308" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="G308" t="s">
         <v>660</v>
@@ -8645,13 +8648,13 @@
         <v>313</v>
       </c>
       <c r="C309" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D309" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="E309" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="G309" t="s">
         <v>664</v>
@@ -8665,13 +8668,13 @@
         <v>314</v>
       </c>
       <c r="C310" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D310" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="E310" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="G310" t="s">
         <v>660</v>
@@ -8685,13 +8688,13 @@
         <v>315</v>
       </c>
       <c r="C311" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D311" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="E311" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="G311" t="s">
         <v>664</v>
@@ -8705,13 +8708,13 @@
         <v>316</v>
       </c>
       <c r="C312" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D312" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="E312" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="G312" t="s">
         <v>668</v>
@@ -8725,13 +8728,13 @@
         <v>317</v>
       </c>
       <c r="C313" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D313" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="E313" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="G313" t="s">
         <v>669</v>
@@ -8745,13 +8748,13 @@
         <v>318</v>
       </c>
       <c r="C314" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D314" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="E314" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="G314" t="s">
         <v>670</v>
@@ -8765,13 +8768,13 @@
         <v>319</v>
       </c>
       <c r="C315" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D315" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="E315" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="G315" t="s">
         <v>658</v>
@@ -8785,10 +8788,10 @@
         <v>320</v>
       </c>
       <c r="C316" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D316" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="G316" t="s">
         <v>660</v>
@@ -8802,13 +8805,13 @@
         <v>321</v>
       </c>
       <c r="C317" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D317" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="E317" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="G317" t="s">
         <v>658</v>
@@ -8822,13 +8825,13 @@
         <v>322</v>
       </c>
       <c r="C318" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D318" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="E318" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="G318" t="s">
         <v>658</v>
@@ -8842,13 +8845,13 @@
         <v>323</v>
       </c>
       <c r="C319" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D319" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="E319" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="G319" t="s">
         <v>661</v>
@@ -8862,13 +8865,13 @@
         <v>324</v>
       </c>
       <c r="C320" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D320" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="E320" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="G320" t="s">
         <v>659</v>
@@ -8882,13 +8885,13 @@
         <v>325</v>
       </c>
       <c r="C321" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D321" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="E321" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="G321" t="s">
         <v>662</v>
@@ -8902,13 +8905,13 @@
         <v>326</v>
       </c>
       <c r="C322" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D322" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="E322" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="G322" t="s">
         <v>659</v>
@@ -8922,13 +8925,13 @@
         <v>327</v>
       </c>
       <c r="C323" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D323" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="E323" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="G323" t="s">
         <v>662</v>
@@ -8942,13 +8945,13 @@
         <v>328</v>
       </c>
       <c r="C324" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D324" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="E324" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="G324" t="s">
         <v>658</v>
@@ -8962,13 +8965,13 @@
         <v>329</v>
       </c>
       <c r="C325" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D325" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="E325" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="G325" t="s">
         <v>658</v>
@@ -8982,13 +8985,13 @@
         <v>330</v>
       </c>
       <c r="C326" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D326" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="E326" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="G326" t="s">
         <v>662</v>
@@ -9002,13 +9005,13 @@
         <v>331</v>
       </c>
       <c r="C327" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D327" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="E327" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="G327" t="s">
         <v>661</v>
@@ -9022,13 +9025,13 @@
         <v>332</v>
       </c>
       <c r="C328" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D328" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="E328" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="G328" t="s">
         <v>659</v>
@@ -9042,13 +9045,13 @@
         <v>333</v>
       </c>
       <c r="C329" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D329" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="E329" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="G329" t="s">
         <v>658</v>
@@ -9062,13 +9065,13 @@
         <v>334</v>
       </c>
       <c r="C330" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D330" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="E330" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="G330" t="s">
         <v>661</v>
@@ -9082,13 +9085,13 @@
         <v>335</v>
       </c>
       <c r="C331" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D331" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="E331" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="G331" t="s">
         <v>659</v>
@@ -9102,13 +9105,13 @@
         <v>336</v>
       </c>
       <c r="C332" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D332" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="E332" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="G332" t="s">
         <v>659</v>
@@ -9122,13 +9125,13 @@
         <v>337</v>
       </c>
       <c r="C333" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D333" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="E333" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="G333" t="s">
         <v>659</v>
@@ -9142,13 +9145,13 @@
         <v>338</v>
       </c>
       <c r="C334" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D334" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="E334" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="G334" t="s">
         <v>659</v>
@@ -9162,13 +9165,13 @@
         <v>339</v>
       </c>
       <c r="C335" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D335" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="E335" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="G335" t="s">
         <v>661</v>
@@ -9182,13 +9185,13 @@
         <v>340</v>
       </c>
       <c r="C336" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D336" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="E336" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="G336" t="s">
         <v>662</v>
@@ -9202,13 +9205,13 @@
         <v>341</v>
       </c>
       <c r="C337" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D337" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="E337" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="G337" t="s">
         <v>661</v>
@@ -9222,13 +9225,13 @@
         <v>342</v>
       </c>
       <c r="C338" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D338" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="E338" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="G338" t="s">
         <v>662</v>
@@ -9242,13 +9245,13 @@
         <v>343</v>
       </c>
       <c r="C339" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D339" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="E339" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="G339" t="s">
         <v>666</v>
@@ -9262,13 +9265,13 @@
         <v>344</v>
       </c>
       <c r="C340" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D340" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="E340" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="G340" t="s">
         <v>666</v>
@@ -9282,13 +9285,13 @@
         <v>345</v>
       </c>
       <c r="C341" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D341" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="E341" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="G341" t="s">
         <v>666</v>
@@ -9302,13 +9305,13 @@
         <v>346</v>
       </c>
       <c r="C342" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D342" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="E342" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="G342" t="s">
         <v>666</v>
@@ -9322,13 +9325,13 @@
         <v>347</v>
       </c>
       <c r="C343" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D343" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="E343" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="G343" t="s">
         <v>664</v>
@@ -9342,13 +9345,13 @@
         <v>348</v>
       </c>
       <c r="C344" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D344" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="E344" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="G344" t="s">
         <v>660</v>
@@ -9362,13 +9365,13 @@
         <v>349</v>
       </c>
       <c r="C345" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D345" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="E345" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="G345" t="s">
         <v>660</v>
@@ -9382,13 +9385,13 @@
         <v>350</v>
       </c>
       <c r="C346" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D346" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="E346" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="G346" t="s">
         <v>660</v>
@@ -9402,13 +9405,13 @@
         <v>351</v>
       </c>
       <c r="C347" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D347" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="E347" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="G347" t="s">
         <v>659</v>
@@ -9422,13 +9425,13 @@
         <v>352</v>
       </c>
       <c r="C348" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D348" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="E348" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="G348" t="s">
         <v>658</v>
@@ -9442,13 +9445,13 @@
         <v>353</v>
       </c>
       <c r="C349" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D349" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="E349" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="G349" t="s">
         <v>662</v>
@@ -9462,13 +9465,13 @@
         <v>354</v>
       </c>
       <c r="C350" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D350" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="E350" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="G350" t="s">
         <v>660</v>
@@ -9482,13 +9485,13 @@
         <v>355</v>
       </c>
       <c r="C351" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D351" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="E351" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="G351" t="s">
         <v>659</v>
@@ -9502,13 +9505,13 @@
         <v>356</v>
       </c>
       <c r="C352" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D352" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="E352" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="G352" t="s">
         <v>658</v>
@@ -9522,10 +9525,10 @@
         <v>357</v>
       </c>
       <c r="C353" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D353" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
     </row>
     <row r="354" spans="1:6">
@@ -9536,16 +9539,16 @@
         <v>358</v>
       </c>
       <c r="C354" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D354" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="E354" t="s">
-        <v>642</v>
+        <v>645</v>
       </c>
       <c r="F354" t="s">
-        <v>642</v>
+        <v>645</v>
       </c>
     </row>
     <row r="355" spans="1:6">
@@ -9556,10 +9559,10 @@
         <v>359</v>
       </c>
       <c r="C355" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D355" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
     </row>
     <row r="356" spans="1:6">
@@ -9570,10 +9573,10 @@
         <v>360</v>
       </c>
       <c r="C356" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D356" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
     </row>
     <row r="357" spans="1:6">
@@ -9584,13 +9587,16 @@
         <v>361</v>
       </c>
       <c r="C357" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D357" t="s">
-        <v>386</v>
+        <v>387</v>
+      </c>
+      <c r="E357" t="s">
+        <v>646</v>
       </c>
       <c r="F357" t="s">
-        <v>653</v>
+        <v>646</v>
       </c>
     </row>
     <row r="358" spans="1:6">
@@ -9601,13 +9607,16 @@
         <v>362</v>
       </c>
       <c r="C358" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D358" t="s">
-        <v>386</v>
+        <v>387</v>
+      </c>
+      <c r="E358" t="s">
+        <v>647</v>
       </c>
       <c r="F358" t="s">
-        <v>654</v>
+        <v>647</v>
       </c>
     </row>
     <row r="359" spans="1:6">
@@ -9618,13 +9627,10 @@
         <v>363</v>
       </c>
       <c r="C359" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D359" t="s">
-        <v>386</v>
-      </c>
-      <c r="F359" t="s">
-        <v>655</v>
+        <v>387</v>
       </c>
     </row>
     <row r="360" spans="1:6">
@@ -9635,13 +9641,10 @@
         <v>364</v>
       </c>
       <c r="C360" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D360" t="s">
-        <v>386</v>
-      </c>
-      <c r="F360" t="s">
-        <v>656</v>
+        <v>387</v>
       </c>
     </row>
     <row r="361" spans="1:6">
@@ -9652,16 +9655,16 @@
         <v>365</v>
       </c>
       <c r="C361" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D361" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="E361" t="s">
-        <v>643</v>
+        <v>648</v>
       </c>
       <c r="F361" t="s">
-        <v>643</v>
+        <v>648</v>
       </c>
     </row>
     <row r="362" spans="1:6">
@@ -9672,16 +9675,16 @@
         <v>366</v>
       </c>
       <c r="C362" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D362" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="E362" t="s">
-        <v>644</v>
+        <v>649</v>
       </c>
       <c r="F362" t="s">
-        <v>644</v>
+        <v>649</v>
       </c>
     </row>
     <row r="363" spans="1:6">
@@ -9692,13 +9695,13 @@
         <v>367</v>
       </c>
       <c r="C363" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D363" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="E363" t="s">
-        <v>645</v>
+        <v>650</v>
       </c>
     </row>
     <row r="364" spans="1:6">
@@ -9709,13 +9712,13 @@
         <v>368</v>
       </c>
       <c r="C364" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D364" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="E364" t="s">
-        <v>645</v>
+        <v>650</v>
       </c>
     </row>
     <row r="365" spans="1:6">
@@ -9726,13 +9729,13 @@
         <v>369</v>
       </c>
       <c r="C365" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D365" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="E365" t="s">
-        <v>645</v>
+        <v>650</v>
       </c>
     </row>
     <row r="366" spans="1:6">
@@ -9743,13 +9746,13 @@
         <v>370</v>
       </c>
       <c r="C366" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D366" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="E366" t="s">
-        <v>645</v>
+        <v>650</v>
       </c>
     </row>
     <row r="367" spans="1:6">
@@ -9760,13 +9763,13 @@
         <v>371</v>
       </c>
       <c r="C367" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D367" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="E367" t="s">
-        <v>645</v>
+        <v>650</v>
       </c>
     </row>
     <row r="368" spans="1:6">
@@ -9777,16 +9780,16 @@
         <v>372</v>
       </c>
       <c r="C368" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D368" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="E368" t="s">
-        <v>646</v>
+        <v>651</v>
       </c>
       <c r="F368" t="s">
-        <v>646</v>
+        <v>651</v>
       </c>
     </row>
     <row r="369" spans="1:6">
@@ -9797,16 +9800,16 @@
         <v>373</v>
       </c>
       <c r="C369" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D369" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="E369" t="s">
-        <v>647</v>
+        <v>652</v>
       </c>
       <c r="F369" t="s">
-        <v>647</v>
+        <v>652</v>
       </c>
     </row>
     <row r="370" spans="1:6">
@@ -9817,13 +9820,16 @@
         <v>374</v>
       </c>
       <c r="C370" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D370" t="s">
-        <v>386</v>
+        <v>387</v>
+      </c>
+      <c r="E370" t="s">
+        <v>653</v>
       </c>
       <c r="F370" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
     </row>
     <row r="371" spans="1:6">
@@ -9834,10 +9840,10 @@
         <v>375</v>
       </c>
       <c r="C371" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D371" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
     </row>
     <row r="372" spans="1:6">
@@ -9848,10 +9854,27 @@
         <v>376</v>
       </c>
       <c r="C372" t="s">
+        <v>378</v>
+      </c>
+      <c r="D372" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="373" spans="1:6">
+      <c r="A373" s="1">
+        <v>371</v>
+      </c>
+      <c r="B373" t="s">
         <v>377</v>
       </c>
-      <c r="D372" t="s">
-        <v>594</v>
+      <c r="C373" t="s">
+        <v>378</v>
+      </c>
+      <c r="E373" t="s">
+        <v>654</v>
+      </c>
+      <c r="F373" t="s">
+        <v>654</v>
       </c>
     </row>
   </sheetData>

--- a/helper/Employee.xlsx
+++ b/helper/Employee.xlsx
@@ -2047,6 +2047,9 @@
     <t>Service_Technician,Everybody_in_EU</t>
   </si>
   <si>
+    <t>Everybody_in_EU</t>
+  </si>
+  <si>
     <t>Spare_Part_&amp;_Accessory_Manager_Sweden,Everybody_in_EU</t>
   </si>
   <si>
@@ -2144,9 +2147,6 @@
   </si>
   <si>
     <t>Workshop_Supervisor,Everybody_in_EU</t>
-  </si>
-  <si>
-    <t>Everybody_in_EU</t>
   </si>
   <si>
     <t>Everybody_in_EU,L3_Leaders,Head_of_Business_&amp;_Partner_Development_Europe</t>
@@ -9799,7 +9799,7 @@
         <v>472</v>
       </c>
       <c r="D322" t="s">
-        <v>501</v>
+        <v>677</v>
       </c>
       <c r="E322" t="s">
         <v>774</v>
@@ -9819,7 +9819,7 @@
         <v>472</v>
       </c>
       <c r="D323" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="E323" t="s">
         <v>751</v>
@@ -9839,7 +9839,7 @@
         <v>472</v>
       </c>
       <c r="D324" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="E324" t="s">
         <v>751</v>
@@ -9859,7 +9859,7 @@
         <v>472</v>
       </c>
       <c r="D325" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="E325" t="s">
         <v>758</v>
@@ -9879,7 +9879,7 @@
         <v>472</v>
       </c>
       <c r="D326" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="E326" t="s">
         <v>768</v>
@@ -9899,7 +9899,7 @@
         <v>472</v>
       </c>
       <c r="D327" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="E327" t="s">
         <v>757</v>
@@ -9919,7 +9919,7 @@
         <v>472</v>
       </c>
       <c r="D328" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="E328" t="s">
         <v>796</v>
@@ -9939,7 +9939,7 @@
         <v>472</v>
       </c>
       <c r="D329" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="E329" t="s">
         <v>746</v>
@@ -9962,7 +9962,7 @@
         <v>472</v>
       </c>
       <c r="D330" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="E330" t="s">
         <v>757</v>
@@ -9982,7 +9982,7 @@
         <v>472</v>
       </c>
       <c r="D331" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="E331" t="s">
         <v>759</v>
@@ -10002,7 +10002,7 @@
         <v>472</v>
       </c>
       <c r="D332" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="E332" t="s">
         <v>759</v>
@@ -10022,7 +10022,7 @@
         <v>472</v>
       </c>
       <c r="D333" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="E333" t="s">
         <v>752</v>
@@ -10042,7 +10042,7 @@
         <v>472</v>
       </c>
       <c r="D334" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="E334" t="s">
         <v>757</v>
@@ -10062,7 +10062,7 @@
         <v>472</v>
       </c>
       <c r="D335" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="E335" t="s">
         <v>752</v>
@@ -10082,7 +10082,7 @@
         <v>472</v>
       </c>
       <c r="D336" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="E336" t="s">
         <v>757</v>
@@ -10102,7 +10102,7 @@
         <v>472</v>
       </c>
       <c r="D337" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="E337" t="s">
         <v>752</v>
@@ -10122,7 +10122,7 @@
         <v>472</v>
       </c>
       <c r="D338" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="E338" t="s">
         <v>750</v>
@@ -10142,7 +10142,7 @@
         <v>472</v>
       </c>
       <c r="D339" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="E339" t="s">
         <v>750</v>
@@ -10162,7 +10162,7 @@
         <v>472</v>
       </c>
       <c r="D340" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="E340" t="s">
         <v>750</v>
@@ -10182,7 +10182,7 @@
         <v>472</v>
       </c>
       <c r="D341" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="E341" t="s">
         <v>750</v>
@@ -10202,7 +10202,7 @@
         <v>472</v>
       </c>
       <c r="D342" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="G342" t="s">
         <v>828</v>
@@ -10219,7 +10219,7 @@
         <v>472</v>
       </c>
       <c r="D343" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="E343" t="s">
         <v>774</v>
@@ -10239,7 +10239,7 @@
         <v>472</v>
       </c>
       <c r="D344" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="E344" t="s">
         <v>774</v>
@@ -10259,7 +10259,7 @@
         <v>472</v>
       </c>
       <c r="D345" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="E345" t="s">
         <v>758</v>
@@ -10279,7 +10279,7 @@
         <v>472</v>
       </c>
       <c r="D346" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="E346" t="s">
         <v>751</v>
@@ -10299,7 +10299,7 @@
         <v>472</v>
       </c>
       <c r="D347" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="E347" t="s">
         <v>768</v>
@@ -10319,7 +10319,7 @@
         <v>472</v>
       </c>
       <c r="D348" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="E348" t="s">
         <v>751</v>
@@ -10339,7 +10339,7 @@
         <v>472</v>
       </c>
       <c r="D349" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="E349" t="s">
         <v>778</v>
@@ -10359,7 +10359,7 @@
         <v>472</v>
       </c>
       <c r="D350" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="E350" t="s">
         <v>750</v>
@@ -10379,7 +10379,7 @@
         <v>472</v>
       </c>
       <c r="D351" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="E351" t="s">
         <v>750</v>
@@ -10399,7 +10399,7 @@
         <v>472</v>
       </c>
       <c r="D352" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="E352" t="s">
         <v>777</v>
@@ -10419,7 +10419,7 @@
         <v>472</v>
       </c>
       <c r="D353" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="E353" t="s">
         <v>753</v>
@@ -10439,7 +10439,7 @@
         <v>472</v>
       </c>
       <c r="D354" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="E354" t="s">
         <v>764</v>
@@ -10459,7 +10459,7 @@
         <v>472</v>
       </c>
       <c r="D355" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="E355" t="s">
         <v>750</v>
@@ -10479,7 +10479,7 @@
         <v>472</v>
       </c>
       <c r="D356" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="E356" t="s">
         <v>772</v>
@@ -10499,7 +10499,7 @@
         <v>472</v>
       </c>
       <c r="D357" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="E357" t="s">
         <v>764</v>
@@ -10519,7 +10519,7 @@
         <v>472</v>
       </c>
       <c r="D358" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="E358" t="s">
         <v>764</v>
@@ -10539,7 +10539,7 @@
         <v>472</v>
       </c>
       <c r="D359" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="E359" t="s">
         <v>764</v>
@@ -10559,7 +10559,7 @@
         <v>472</v>
       </c>
       <c r="D360" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="E360" t="s">
         <v>764</v>
@@ -10579,7 +10579,7 @@
         <v>472</v>
       </c>
       <c r="D361" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="E361" t="s">
         <v>772</v>
@@ -10599,7 +10599,7 @@
         <v>472</v>
       </c>
       <c r="D362" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="E362" t="s">
         <v>778</v>
@@ -10619,7 +10619,7 @@
         <v>472</v>
       </c>
       <c r="D363" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="E363" t="s">
         <v>772</v>
@@ -10639,7 +10639,7 @@
         <v>472</v>
       </c>
       <c r="D364" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="E364" t="s">
         <v>778</v>
@@ -10659,7 +10659,7 @@
         <v>472</v>
       </c>
       <c r="D365" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="E365" t="s">
         <v>759</v>
@@ -10679,7 +10679,7 @@
         <v>472</v>
       </c>
       <c r="D366" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="E366" t="s">
         <v>759</v>
@@ -10699,7 +10699,7 @@
         <v>472</v>
       </c>
       <c r="D367" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="E367" t="s">
         <v>759</v>
@@ -10719,7 +10719,7 @@
         <v>472</v>
       </c>
       <c r="D368" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="E368" t="s">
         <v>759</v>
@@ -10739,7 +10739,7 @@
         <v>472</v>
       </c>
       <c r="D369" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="E369" t="s">
         <v>759</v>
@@ -10759,7 +10759,7 @@
         <v>472</v>
       </c>
       <c r="D370" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="E370" t="s">
         <v>759</v>
@@ -10779,7 +10779,7 @@
         <v>472</v>
       </c>
       <c r="D371" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="E371" t="s">
         <v>759</v>
@@ -10799,7 +10799,7 @@
         <v>472</v>
       </c>
       <c r="D372" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="E372" t="s">
         <v>759</v>
@@ -10819,7 +10819,7 @@
         <v>472</v>
       </c>
       <c r="D373" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="E373" t="s">
         <v>751</v>
@@ -10839,7 +10839,7 @@
         <v>472</v>
       </c>
       <c r="D374" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="E374" t="s">
         <v>774</v>
@@ -10859,7 +10859,7 @@
         <v>472</v>
       </c>
       <c r="D375" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="E375" t="s">
         <v>768</v>
@@ -10879,7 +10879,7 @@
         <v>472</v>
       </c>
       <c r="D376" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="E376" t="s">
         <v>752</v>
@@ -10899,7 +10899,7 @@
         <v>472</v>
       </c>
       <c r="D377" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="E377" t="s">
         <v>751</v>
@@ -10919,7 +10919,7 @@
         <v>472</v>
       </c>
       <c r="D378" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="E378" t="s">
         <v>774</v>
@@ -10939,7 +10939,7 @@
         <v>472</v>
       </c>
       <c r="D379" t="s">
-        <v>710</v>
+        <v>677</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -11087,7 +11087,7 @@
         <v>472</v>
       </c>
       <c r="D387" t="s">
-        <v>710</v>
+        <v>677</v>
       </c>
       <c r="E387" t="s">
         <v>802</v>
@@ -11104,7 +11104,7 @@
         <v>472</v>
       </c>
       <c r="D388" t="s">
-        <v>710</v>
+        <v>677</v>
       </c>
       <c r="E388" t="s">
         <v>802</v>
@@ -11121,7 +11121,7 @@
         <v>472</v>
       </c>
       <c r="D389" t="s">
-        <v>710</v>
+        <v>677</v>
       </c>
       <c r="E389" t="s">
         <v>802</v>
@@ -11138,7 +11138,7 @@
         <v>472</v>
       </c>
       <c r="D390" t="s">
-        <v>710</v>
+        <v>677</v>
       </c>
       <c r="E390" t="s">
         <v>802</v>
@@ -11155,7 +11155,7 @@
         <v>472</v>
       </c>
       <c r="D391" t="s">
-        <v>710</v>
+        <v>677</v>
       </c>
       <c r="E391" t="s">
         <v>802</v>

--- a/helper/Employee.xlsx
+++ b/helper/Employee.xlsx
@@ -1549,7 +1549,7 @@
     <t>Head_of_Retail_Sales,Everybody_in_EU,L3_Leaders,sales_planning_role_team</t>
   </si>
   <si>
-    <t>AVP_Europe_Business_&amp;_Senior_Expert_Strategic_Planning,Everybody_in_EU</t>
+    <t>Head_of_EB,Everybody_in_EU</t>
   </si>
   <si>
     <t>Head_of_Market_Expansion_Planning_&amp;_Expert_Program_Management,Everybody_in_EU,L3_Leaders</t>

--- a/helper/Employee.xlsx
+++ b/helper/Employee.xlsx
@@ -2155,10 +2155,10 @@
     <t>EU_Power_Country_Team,EU_PUS_LTO_Teams</t>
   </si>
   <si>
-    <t>EU_offline_store_team</t>
-  </si>
-  <si>
-    <t>EU_offline_store_team,Return_NIO_Life_Products_Team,NIO_Life_request_response_team,Everybody_in_EU,NIO_Life_Specialist</t>
+    <t>NIO_Life_Team</t>
+  </si>
+  <si>
+    <t>NIO_Life_Team,Return_NIO_Life_Products_Team,NIO_Life_request_response_team,Everybody_in_EU,NIO_Life_Specialist</t>
   </si>
   <si>
     <t>Revenue_&amp;_Pricing_Manager_Europe</t>

--- a/helper/Employee.xlsx
+++ b/helper/Employee.xlsx
@@ -1519,7 +1519,7 @@
     <t>Intern</t>
   </si>
   <si>
-    <t>Country_Head_of_Service</t>
+    <t>Country_Head_of_Service_-_service_manager</t>
   </si>
   <si>
     <t>Digital_Marketing_Manager_Europe</t>
@@ -1570,7 +1570,7 @@
     <t>Head_of_User_Team_Norway_Company,Everybody_in_EU,L3_Leaders,Head_of_User_Operation</t>
   </si>
   <si>
-    <t>Everybody_in_EU,L3_Leaders,Country_Head_of_Service</t>
+    <t>Everybody_in_EU,L3_Leaders,Country_Head_of_Service_-_service_manager</t>
   </si>
   <si>
     <t>Country_User_Development_Managers,Everybody_in_EU,L3_Leaders</t>
@@ -1603,7 +1603,7 @@
     <t>Everybody_in_EU,L3_Leaders,Country_User_Development_Managers</t>
   </si>
   <si>
-    <t>Country_Head_of_Service,Everybody_in_EU,L3_Leaders</t>
+    <t>Country_Head_of_Service_-_service_manager,Everybody_in_EU,L3_Leaders</t>
   </si>
   <si>
     <t>Head_of_User_Operation,Everybody_in_EU,L3_Leaders</t>
@@ -1639,7 +1639,7 @@
     <t>Everybody_in_EU,L3_Leaders,Head_of_User_Operation</t>
   </si>
   <si>
-    <t>Everybody_in_EU,L3_Leaders,Country_Head_of_Service,HVDI_Emergency_Fault_Response_Team</t>
+    <t>Everybody_in_EU,L3_Leaders,Country_Head_of_Service_-_service_manager,HVDI_Emergency_Fault_Response_Team</t>
   </si>
   <si>
     <t>Head_of_Commercial_Offering,Everybody_in_EU,L3_Leaders,sales_planning_role_team</t>
@@ -1660,7 +1660,7 @@
     <t>Everybody_in_EU,L2_Leaders,Country_General_Manager</t>
   </si>
   <si>
-    <t>Everybody_in_EU,L3_Leaders,Country_Head_of_Service,Deleting_Charging_&amp;_Battery_SWAP_Order_Respose_Team,HVDI_Emergency_Fault_Response_Team</t>
+    <t>Everybody_in_EU,L3_Leaders,Country_Head_of_Service_-_service_manager,Deleting_Charging_&amp;_Battery_SWAP_Order_Respose_Team,HVDI_Emergency_Fault_Response_Team</t>
   </si>
   <si>
     <t>HQ_Trainer,Everybody_in_EU,L3_Leaders</t>
@@ -1777,7 +1777,7 @@
     <t>Lead_Business_Development,Everybody_in_EU</t>
   </si>
   <si>
-    <t>Service_Lead_of_Business_Operation,Everybody_in_EU,sales_planning_role_team,Vehicle_Manager</t>
+    <t>Service_Lead_of_Business_Operation,Everybody_in_EU,sales_planning_role_team,Vehicle_manager</t>
   </si>
   <si>
     <t>Service_Lead_of_Business_Operation,Everybody_in_EU</t>
@@ -1990,7 +1990,7 @@
     <t>NIO_House_Manager,Everybody_in_EU</t>
   </si>
   <si>
-    <t>Service_Operation,Everybody_in_EU,HVDI_Emergency_Fault_Response_Team,Service_Representative</t>
+    <t>Service_Operation,Everybody_in_EU,HVDI_Emergency_Fault_Response_Team,SCR_-_Service_Coordinator</t>
   </si>
   <si>
     <t>Manager_Spare_Parts_and_Accessories,Everybody_in_EU</t>
@@ -2080,19 +2080,16 @@
     <t>Service_Network_Planning_Specialist,Everybody_in_EU</t>
   </si>
   <si>
-    <t>Service_Partnership_Manager,Everybody_in_EU,HVDI_Emergency_Fault_Response_Team,Service_Operation,Service_Representative</t>
+    <t>Service_Partnership_Manager,Everybody_in_EU,HVDI_Emergency_Fault_Response_Team,Service_Operation,SCR_-_Service_Coordinator</t>
   </si>
   <si>
     <t>Service_Planning_and_Strategy_Manager,Everybody_in_EU,HVDI_Emergency_Fault_Response_Team,Service_Operation</t>
   </si>
   <si>
-    <t>Service_Planning_and_Strategy_Manager_Denmark,Everybody_in_EU,Service_Operation,Service_Representative</t>
-  </si>
-  <si>
-    <t>Service_Representative,Everybody_in_EU</t>
-  </si>
-  <si>
-    <t>Service_Representative,Everybody_in_EU,HVDI_Emergency_Fault_Response_Team</t>
+    <t>Service_Planning_and_Strategy_Manager_Denmark,Everybody_in_EU,Service_Operation,SCR_-_Service_Coordinator</t>
+  </si>
+  <si>
+    <t>Everybody_in_EU,HVDI_Emergency_Fault_Response_Team,SCR_-_Service_Coordinator</t>
   </si>
   <si>
     <t>Service_Technician,Everybody_in_EU</t>
@@ -2164,7 +2161,7 @@
     <t>User_Representative,Everybody_in_EU</t>
   </si>
   <si>
-    <t>Vehicle_Management_Manager,Vehicle_manager,Everybody_in_EU</t>
+    <t>Vehicle_manager,Everybody_in_EU</t>
   </si>
   <si>
     <t>Warranty_Specialist,Everybody_in_EU</t>
@@ -2177,6 +2174,9 @@
   </si>
   <si>
     <t>Everybody_in_EU,L3_Leaders,Head_of_Business_&amp;_Partner_Development_Europe</t>
+  </si>
+  <si>
+    <t>Everybody_in_EU,L3_Leaders,Head_of_EU_PMK</t>
   </si>
   <si>
     <t>Everybody_in_EU,L3_Leaders,Product_Experience_Operation_Manager</t>
@@ -10720,7 +10720,7 @@
         <v>499</v>
       </c>
       <c r="D310" t="s">
-        <v>691</v>
+        <v>603</v>
       </c>
       <c r="E310" t="s">
         <v>814</v>
@@ -10743,7 +10743,7 @@
         <v>499</v>
       </c>
       <c r="D311" t="s">
-        <v>691</v>
+        <v>603</v>
       </c>
       <c r="E311" t="s">
         <v>814</v>
@@ -10766,7 +10766,7 @@
         <v>499</v>
       </c>
       <c r="D312" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="E312" t="s">
         <v>808</v>
@@ -10789,7 +10789,7 @@
         <v>499</v>
       </c>
       <c r="D313" t="s">
-        <v>691</v>
+        <v>603</v>
       </c>
       <c r="E313" t="s">
         <v>814</v>
@@ -10812,7 +10812,7 @@
         <v>499</v>
       </c>
       <c r="D314" t="s">
-        <v>691</v>
+        <v>603</v>
       </c>
       <c r="E314" t="s">
         <v>814</v>
@@ -10835,7 +10835,7 @@
         <v>499</v>
       </c>
       <c r="D315" t="s">
-        <v>691</v>
+        <v>603</v>
       </c>
       <c r="E315" t="s">
         <v>814</v>
@@ -10858,7 +10858,7 @@
         <v>499</v>
       </c>
       <c r="D316" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="E316" t="s">
         <v>814</v>
@@ -10881,7 +10881,7 @@
         <v>499</v>
       </c>
       <c r="D317" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="E317" t="s">
         <v>814</v>
@@ -10904,7 +10904,7 @@
         <v>499</v>
       </c>
       <c r="D318" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="E318" t="s">
         <v>814</v>
@@ -10927,7 +10927,7 @@
         <v>499</v>
       </c>
       <c r="D319" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="E319" t="s">
         <v>814</v>
@@ -10950,7 +10950,7 @@
         <v>499</v>
       </c>
       <c r="D320" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="E320" t="s">
         <v>789</v>
@@ -10973,7 +10973,7 @@
         <v>499</v>
       </c>
       <c r="D321" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="E321" t="s">
         <v>789</v>
@@ -10996,7 +10996,7 @@
         <v>499</v>
       </c>
       <c r="D322" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="E322" t="s">
         <v>798</v>
@@ -11019,7 +11019,7 @@
         <v>499</v>
       </c>
       <c r="D323" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="E323" t="s">
         <v>808</v>
@@ -11065,7 +11065,7 @@
         <v>499</v>
       </c>
       <c r="D325" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="E325" t="s">
         <v>784</v>
@@ -11088,7 +11088,7 @@
         <v>499</v>
       </c>
       <c r="D326" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="E326" t="s">
         <v>784</v>
@@ -11114,7 +11114,7 @@
         <v>499</v>
       </c>
       <c r="D327" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="E327" t="s">
         <v>797</v>
@@ -11183,7 +11183,7 @@
         <v>499</v>
       </c>
       <c r="D330" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="E330" t="s">
         <v>790</v>
@@ -11206,7 +11206,7 @@
         <v>499</v>
       </c>
       <c r="D331" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E331" t="s">
         <v>797</v>
@@ -11229,7 +11229,7 @@
         <v>499</v>
       </c>
       <c r="D332" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="E332" t="s">
         <v>790</v>
@@ -11252,7 +11252,7 @@
         <v>499</v>
       </c>
       <c r="D333" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="E333" t="s">
         <v>797</v>
@@ -11275,7 +11275,7 @@
         <v>499</v>
       </c>
       <c r="D334" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="E334" t="s">
         <v>790</v>
@@ -11298,7 +11298,7 @@
         <v>499</v>
       </c>
       <c r="D335" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="E335" t="s">
         <v>788</v>
@@ -11321,7 +11321,7 @@
         <v>499</v>
       </c>
       <c r="D336" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="E336" t="s">
         <v>788</v>
@@ -11344,7 +11344,7 @@
         <v>499</v>
       </c>
       <c r="D337" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="E337" t="s">
         <v>788</v>
@@ -11390,7 +11390,7 @@
         <v>499</v>
       </c>
       <c r="D339" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="E339" t="s">
         <v>810</v>
@@ -11413,7 +11413,7 @@
         <v>499</v>
       </c>
       <c r="D340" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="E340" t="s">
         <v>814</v>
@@ -11436,7 +11436,7 @@
         <v>499</v>
       </c>
       <c r="D341" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="E341" t="s">
         <v>814</v>
@@ -11459,7 +11459,7 @@
         <v>499</v>
       </c>
       <c r="D342" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="E342" t="s">
         <v>798</v>
@@ -11482,7 +11482,7 @@
         <v>499</v>
       </c>
       <c r="D343" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="E343" t="s">
         <v>789</v>
@@ -11505,7 +11505,7 @@
         <v>499</v>
       </c>
       <c r="D344" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="E344" t="s">
         <v>808</v>
@@ -11528,7 +11528,7 @@
         <v>499</v>
       </c>
       <c r="D345" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="E345" t="s">
         <v>789</v>
@@ -11574,7 +11574,7 @@
         <v>499</v>
       </c>
       <c r="D347" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="E347" t="s">
         <v>788</v>
@@ -11597,7 +11597,7 @@
         <v>499</v>
       </c>
       <c r="D348" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="E348" t="s">
         <v>788</v>
@@ -11689,7 +11689,7 @@
         <v>499</v>
       </c>
       <c r="D352" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="E352" t="s">
         <v>788</v>
@@ -11712,7 +11712,7 @@
         <v>499</v>
       </c>
       <c r="D353" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="E353" t="s">
         <v>812</v>
@@ -11735,7 +11735,7 @@
         <v>499</v>
       </c>
       <c r="D354" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="E354" t="s">
         <v>804</v>
@@ -11758,7 +11758,7 @@
         <v>499</v>
       </c>
       <c r="D355" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="E355" t="s">
         <v>804</v>
@@ -11781,7 +11781,7 @@
         <v>499</v>
       </c>
       <c r="D356" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="E356" t="s">
         <v>804</v>
@@ -11804,7 +11804,7 @@
         <v>499</v>
       </c>
       <c r="D357" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="E357" t="s">
         <v>804</v>
@@ -11827,7 +11827,7 @@
         <v>499</v>
       </c>
       <c r="D358" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="E358" t="s">
         <v>812</v>
@@ -11850,7 +11850,7 @@
         <v>499</v>
       </c>
       <c r="D359" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="E359" t="s">
         <v>818</v>
@@ -11873,7 +11873,7 @@
         <v>499</v>
       </c>
       <c r="D360" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="E360" t="s">
         <v>812</v>
@@ -11896,7 +11896,7 @@
         <v>499</v>
       </c>
       <c r="D361" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="E361" t="s">
         <v>818</v>
@@ -11919,7 +11919,7 @@
         <v>499</v>
       </c>
       <c r="D362" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="E362" t="s">
         <v>799</v>
@@ -11942,7 +11942,7 @@
         <v>499</v>
       </c>
       <c r="D363" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="E363" t="s">
         <v>799</v>
@@ -11965,7 +11965,7 @@
         <v>499</v>
       </c>
       <c r="D364" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="E364" t="s">
         <v>799</v>
@@ -11988,7 +11988,7 @@
         <v>499</v>
       </c>
       <c r="D365" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="E365" t="s">
         <v>799</v>
@@ -12011,7 +12011,7 @@
         <v>499</v>
       </c>
       <c r="D366" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="E366" t="s">
         <v>799</v>
@@ -12034,7 +12034,7 @@
         <v>499</v>
       </c>
       <c r="D367" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="E367" t="s">
         <v>799</v>
@@ -12057,7 +12057,7 @@
         <v>499</v>
       </c>
       <c r="D368" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="E368" t="s">
         <v>799</v>
@@ -12080,7 +12080,7 @@
         <v>499</v>
       </c>
       <c r="D369" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="E369" t="s">
         <v>799</v>
@@ -12103,7 +12103,7 @@
         <v>499</v>
       </c>
       <c r="D370" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="E370" t="s">
         <v>789</v>
@@ -12126,7 +12126,7 @@
         <v>499</v>
       </c>
       <c r="D371" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="E371" t="s">
         <v>814</v>
@@ -12149,7 +12149,7 @@
         <v>499</v>
       </c>
       <c r="D372" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="E372" t="s">
         <v>808</v>
@@ -12172,7 +12172,7 @@
         <v>499</v>
       </c>
       <c r="D373" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="E373" t="s">
         <v>790</v>
@@ -12195,7 +12195,7 @@
         <v>499</v>
       </c>
       <c r="D374" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="E374" t="s">
         <v>789</v>
@@ -12218,7 +12218,7 @@
         <v>499</v>
       </c>
       <c r="D375" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="E375" t="s">
         <v>814</v>
@@ -12241,7 +12241,7 @@
         <v>499</v>
       </c>
       <c r="D376" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="E376" t="s">
         <v>839</v>
@@ -12270,7 +12270,7 @@
         <v>499</v>
       </c>
       <c r="D377" t="s">
-        <v>554</v>
+        <v>720</v>
       </c>
       <c r="E377" t="s">
         <v>840</v>

--- a/helper/Employee.xlsx
+++ b/helper/Employee.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3091" uniqueCount="917">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3089" uniqueCount="917">
   <si>
     <t>Employee</t>
   </si>
@@ -3122,7 +3122,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I494"/>
+  <dimension ref="A1:I493"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -14750,10 +14750,13 @@
         <v>484</v>
       </c>
       <c r="B486" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="C486" t="s">
         <v>499</v>
+      </c>
+      <c r="D486" t="s">
+        <v>770</v>
       </c>
     </row>
     <row r="487" spans="1:8">
@@ -14761,13 +14764,13 @@
         <v>485</v>
       </c>
       <c r="B487" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="C487" t="s">
         <v>499</v>
       </c>
       <c r="D487" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
     </row>
     <row r="488" spans="1:8">
@@ -14775,13 +14778,13 @@
         <v>486</v>
       </c>
       <c r="B488" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="C488" t="s">
         <v>499</v>
       </c>
       <c r="D488" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
     </row>
     <row r="489" spans="1:8">
@@ -14789,13 +14792,13 @@
         <v>487</v>
       </c>
       <c r="B489" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="C489" t="s">
         <v>499</v>
       </c>
       <c r="D489" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
     </row>
     <row r="490" spans="1:8">
@@ -14803,7 +14806,7 @@
         <v>488</v>
       </c>
       <c r="B490" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C490" t="s">
         <v>499</v>
@@ -14817,7 +14820,7 @@
         <v>489</v>
       </c>
       <c r="B491" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C491" t="s">
         <v>499</v>
@@ -14831,7 +14834,7 @@
         <v>490</v>
       </c>
       <c r="B492" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C492" t="s">
         <v>499</v>
@@ -14845,26 +14848,12 @@
         <v>491</v>
       </c>
       <c r="B493" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="C493" t="s">
         <v>499</v>
       </c>
       <c r="D493" t="s">
-        <v>773</v>
-      </c>
-    </row>
-    <row r="494" spans="1:8">
-      <c r="A494" s="1">
-        <v>492</v>
-      </c>
-      <c r="B494" t="s">
-        <v>498</v>
-      </c>
-      <c r="C494" t="s">
-        <v>499</v>
-      </c>
-      <c r="D494" t="s">
         <v>773</v>
       </c>
     </row>

--- a/helper/Employee.xlsx
+++ b/helper/Employee.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3082" uniqueCount="915">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3082" uniqueCount="916">
   <si>
     <t>Employee</t>
   </si>
@@ -2309,6 +2309,9 @@
   </si>
   <si>
     <t>HVDI_Emergency_Fault_Response_Team</t>
+  </si>
+  <si>
+    <t>Legal_Commercial_Team,Data_Protection_Manager</t>
   </si>
   <si>
     <t>Head_of_Power_-_HOP</t>
@@ -3162,16 +3165,16 @@
         <v>499</v>
       </c>
       <c r="E2" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="F2" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="H2" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="I2" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -3188,16 +3191,16 @@
         <v>500</v>
       </c>
       <c r="E3" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="F3" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="H3" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="I3" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -3214,16 +3217,16 @@
         <v>501</v>
       </c>
       <c r="E4" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="F4" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="H4" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="I4" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -3240,16 +3243,16 @@
         <v>502</v>
       </c>
       <c r="E5" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="F5" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="H5" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="I5" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -3266,16 +3269,16 @@
         <v>503</v>
       </c>
       <c r="E6" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="F6" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="H6" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="I6" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -3292,16 +3295,16 @@
         <v>504</v>
       </c>
       <c r="E7" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="F7" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="H7" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="I7" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -3318,16 +3321,16 @@
         <v>504</v>
       </c>
       <c r="E8" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="F8" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="H8" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="I8" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -3344,16 +3347,16 @@
         <v>505</v>
       </c>
       <c r="E9" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="F9" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="H9" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="I9" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -3370,16 +3373,16 @@
         <v>506</v>
       </c>
       <c r="E10" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="F10" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="H10" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="I10" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -3396,16 +3399,16 @@
         <v>507</v>
       </c>
       <c r="E11" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="F11" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="H11" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="I11" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -3422,16 +3425,16 @@
         <v>508</v>
       </c>
       <c r="E12" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="F12" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="H12" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="I12" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -3448,16 +3451,16 @@
         <v>504</v>
       </c>
       <c r="E13" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="F13" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="H13" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="I13" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -3474,16 +3477,16 @@
         <v>509</v>
       </c>
       <c r="E14" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="F14" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="H14" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="I14" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -3500,16 +3503,16 @@
         <v>510</v>
       </c>
       <c r="E15" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="F15" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="H15" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="I15" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -3526,16 +3529,16 @@
         <v>499</v>
       </c>
       <c r="E16" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="F16" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="H16" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="I16" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -3552,16 +3555,16 @@
         <v>511</v>
       </c>
       <c r="E17" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="F17" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="H17" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="I17" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -3578,16 +3581,16 @@
         <v>512</v>
       </c>
       <c r="E18" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="F18" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="H18" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="I18" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -3604,16 +3607,16 @@
         <v>513</v>
       </c>
       <c r="E19" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="F19" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="H19" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="I19" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -3630,16 +3633,16 @@
         <v>504</v>
       </c>
       <c r="E20" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="F20" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="H20" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="I20" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -3656,16 +3659,16 @@
         <v>514</v>
       </c>
       <c r="E21" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="F21" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="H21" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="I21" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -3682,16 +3685,16 @@
         <v>515</v>
       </c>
       <c r="E22" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="F22" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="H22" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="I22" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -3708,16 +3711,16 @@
         <v>499</v>
       </c>
       <c r="E23" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="F23" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="H23" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="I23" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -3734,16 +3737,16 @@
         <v>499</v>
       </c>
       <c r="E24" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="F24" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="H24" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="I24" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -3760,16 +3763,16 @@
         <v>499</v>
       </c>
       <c r="E25" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="F25" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="H25" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="I25" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -3786,16 +3789,16 @@
         <v>499</v>
       </c>
       <c r="E26" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="F26" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="H26" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="I26" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -3812,16 +3815,16 @@
         <v>516</v>
       </c>
       <c r="E27" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="F27" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="G27" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="H27" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -3838,16 +3841,16 @@
         <v>517</v>
       </c>
       <c r="E28" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="F28" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="G28" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="H28" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -3864,16 +3867,16 @@
         <v>517</v>
       </c>
       <c r="E29" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="F29" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="G29" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="H29" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -3890,16 +3893,16 @@
         <v>518</v>
       </c>
       <c r="E30" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="F30" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="G30" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="H30" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -3916,19 +3919,19 @@
         <v>519</v>
       </c>
       <c r="E31" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="F31" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="G31" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="H31" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="I31" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -3945,19 +3948,19 @@
         <v>520</v>
       </c>
       <c r="E32" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="F32" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="G32" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="H32" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="I32" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -3974,13 +3977,13 @@
         <v>521</v>
       </c>
       <c r="E33" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="F33" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="H33" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -3997,19 +4000,19 @@
         <v>522</v>
       </c>
       <c r="E34" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="F34" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="G34" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="H34" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="I34" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -4026,16 +4029,16 @@
         <v>523</v>
       </c>
       <c r="E35" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="F35" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="G35" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="H35" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -4052,19 +4055,19 @@
         <v>524</v>
       </c>
       <c r="E36" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="F36" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="G36" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="H36" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="I36" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -4081,16 +4084,16 @@
         <v>525</v>
       </c>
       <c r="E37" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="F37" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="G37" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="H37" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -4107,19 +4110,19 @@
         <v>526</v>
       </c>
       <c r="E38" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="F38" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="G38" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="H38" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="I38" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -4136,16 +4139,16 @@
         <v>527</v>
       </c>
       <c r="E39" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="F39" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="G39" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="H39" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -4162,16 +4165,16 @@
         <v>528</v>
       </c>
       <c r="E40" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="F40" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="G40" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="H40" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -4188,16 +4191,16 @@
         <v>529</v>
       </c>
       <c r="E41" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="F41" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="G41" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="H41" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -4214,16 +4217,16 @@
         <v>530</v>
       </c>
       <c r="E42" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="F42" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="G42" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="H42" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -4240,19 +4243,19 @@
         <v>531</v>
       </c>
       <c r="E43" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="F43" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="G43" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="H43" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="I43" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -4269,19 +4272,19 @@
         <v>532</v>
       </c>
       <c r="E44" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="F44" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="G44" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="H44" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="I44" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -4298,19 +4301,19 @@
         <v>533</v>
       </c>
       <c r="E45" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="F45" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="G45" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="H45" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="I45" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -4327,13 +4330,13 @@
         <v>534</v>
       </c>
       <c r="E46" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="F46" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="H46" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -4350,19 +4353,19 @@
         <v>535</v>
       </c>
       <c r="E47" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="F47" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="G47" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="H47" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="I47" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -4379,16 +4382,16 @@
         <v>536</v>
       </c>
       <c r="E48" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="F48" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="G48" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="H48" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -4405,16 +4408,16 @@
         <v>537</v>
       </c>
       <c r="E49" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="F49" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="G49" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="H49" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -4431,16 +4434,16 @@
         <v>538</v>
       </c>
       <c r="E50" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="F50" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="G50" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="H50" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -4457,16 +4460,16 @@
         <v>539</v>
       </c>
       <c r="E51" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="F51" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="G51" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="H51" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -4483,19 +4486,19 @@
         <v>540</v>
       </c>
       <c r="E52" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="F52" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="G52" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="H52" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="I52" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
     </row>
     <row r="53" spans="1:9">
@@ -4512,19 +4515,19 @@
         <v>541</v>
       </c>
       <c r="E53" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="F53" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="G53" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="H53" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="I53" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
     </row>
     <row r="54" spans="1:9">
@@ -4541,16 +4544,16 @@
         <v>542</v>
       </c>
       <c r="E54" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="F54" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="G54" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="H54" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
     </row>
     <row r="55" spans="1:9">
@@ -4567,19 +4570,19 @@
         <v>543</v>
       </c>
       <c r="E55" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="F55" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="G55" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="H55" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="I55" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
     </row>
     <row r="56" spans="1:9">
@@ -4596,16 +4599,16 @@
         <v>538</v>
       </c>
       <c r="E56" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="F56" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="G56" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="H56" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
     </row>
     <row r="57" spans="1:9">
@@ -4622,13 +4625,13 @@
         <v>544</v>
       </c>
       <c r="E57" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="F57" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="H57" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
     </row>
     <row r="58" spans="1:9">
@@ -4645,16 +4648,16 @@
         <v>545</v>
       </c>
       <c r="E58" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="F58" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="G58" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="H58" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
     </row>
     <row r="59" spans="1:9">
@@ -4671,16 +4674,16 @@
         <v>546</v>
       </c>
       <c r="E59" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="F59" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="G59" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="H59" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
     </row>
     <row r="60" spans="1:9">
@@ -4697,19 +4700,19 @@
         <v>547</v>
       </c>
       <c r="E60" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="F60" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="G60" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="H60" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="I60" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
     </row>
     <row r="61" spans="1:9">
@@ -4726,19 +4729,19 @@
         <v>548</v>
       </c>
       <c r="E61" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="F61" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="G61" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="H61" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="I61" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
     </row>
     <row r="62" spans="1:9">
@@ -4755,16 +4758,16 @@
         <v>527</v>
       </c>
       <c r="E62" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="F62" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="G62" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="H62" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
     </row>
     <row r="63" spans="1:9">
@@ -4781,16 +4784,16 @@
         <v>549</v>
       </c>
       <c r="E63" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="F63" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="H63" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="I63" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
     </row>
     <row r="64" spans="1:9">
@@ -4807,19 +4810,19 @@
         <v>550</v>
       </c>
       <c r="E64" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="F64" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="G64" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="H64" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="I64" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
     </row>
     <row r="65" spans="1:9">
@@ -4836,16 +4839,16 @@
         <v>538</v>
       </c>
       <c r="E65" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="F65" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="G65" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="H65" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
     </row>
     <row r="66" spans="1:9">
@@ -4862,19 +4865,19 @@
         <v>551</v>
       </c>
       <c r="E66" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="F66" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="G66" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="H66" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="I66" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
     </row>
     <row r="67" spans="1:9">
@@ -4891,16 +4894,16 @@
         <v>552</v>
       </c>
       <c r="E67" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="F67" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="G67" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="H67" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
     </row>
     <row r="68" spans="1:9">
@@ -4917,16 +4920,16 @@
         <v>553</v>
       </c>
       <c r="E68" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="F68" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="H68" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="I68" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
     </row>
     <row r="69" spans="1:9">
@@ -4943,16 +4946,16 @@
         <v>554</v>
       </c>
       <c r="E69" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="F69" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="H69" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="I69" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
     </row>
     <row r="70" spans="1:9">
@@ -4969,16 +4972,16 @@
         <v>555</v>
       </c>
       <c r="E70" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="F70" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="H70" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="I70" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
     </row>
     <row r="71" spans="1:9">
@@ -4995,16 +4998,16 @@
         <v>556</v>
       </c>
       <c r="E71" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="F71" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="H71" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="I71" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
     </row>
     <row r="72" spans="1:9">
@@ -5021,16 +5024,16 @@
         <v>557</v>
       </c>
       <c r="E72" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="F72" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="H72" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="I72" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
     </row>
     <row r="73" spans="1:9">
@@ -5047,16 +5050,16 @@
         <v>558</v>
       </c>
       <c r="E73" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="F73" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="H73" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="I73" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
     </row>
     <row r="74" spans="1:9">
@@ -5073,16 +5076,16 @@
         <v>559</v>
       </c>
       <c r="E74" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="F74" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="H74" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="I74" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
     </row>
     <row r="75" spans="1:9">
@@ -5099,13 +5102,13 @@
         <v>560</v>
       </c>
       <c r="E75" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="F75" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="H75" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
     </row>
     <row r="76" spans="1:9">
@@ -5122,19 +5125,19 @@
         <v>561</v>
       </c>
       <c r="E76" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="F76" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="G76" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="H76" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="I76" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
     </row>
     <row r="77" spans="1:9">
@@ -5151,16 +5154,16 @@
         <v>562</v>
       </c>
       <c r="E77" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="F77" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="H77" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="I77" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
     </row>
     <row r="78" spans="1:9">
@@ -5177,19 +5180,19 @@
         <v>563</v>
       </c>
       <c r="E78" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="F78" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="G78" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="H78" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="I78" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
     </row>
     <row r="79" spans="1:9">
@@ -5206,19 +5209,19 @@
         <v>564</v>
       </c>
       <c r="E79" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="F79" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="G79" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="H79" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="I79" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
     </row>
     <row r="80" spans="1:9">
@@ -5235,16 +5238,16 @@
         <v>565</v>
       </c>
       <c r="E80" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="F80" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="H80" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="I80" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
     </row>
     <row r="81" spans="1:9">
@@ -5261,16 +5264,16 @@
         <v>566</v>
       </c>
       <c r="E81" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="F81" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="H81" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="I81" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
     </row>
     <row r="82" spans="1:9">
@@ -5287,16 +5290,16 @@
         <v>567</v>
       </c>
       <c r="E82" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="F82" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="H82" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="I82" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
     </row>
     <row r="83" spans="1:9">
@@ -5313,16 +5316,16 @@
         <v>568</v>
       </c>
       <c r="E83" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="F83" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="H83" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="I83" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
     </row>
     <row r="84" spans="1:9">
@@ -5339,19 +5342,19 @@
         <v>569</v>
       </c>
       <c r="E84" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="F84" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="G84" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="H84" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="I84" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
     </row>
     <row r="85" spans="1:9">
@@ -5368,19 +5371,19 @@
         <v>570</v>
       </c>
       <c r="E85" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="F85" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="G85" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="H85" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="I85" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
     </row>
     <row r="86" spans="1:9">
@@ -5397,19 +5400,19 @@
         <v>571</v>
       </c>
       <c r="E86" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="F86" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="G86" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="H86" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="I86" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
     </row>
     <row r="87" spans="1:9">
@@ -5426,16 +5429,16 @@
         <v>572</v>
       </c>
       <c r="E87" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="F87" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="H87" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="I87" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
     </row>
     <row r="88" spans="1:9">
@@ -5452,13 +5455,13 @@
         <v>573</v>
       </c>
       <c r="E88" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="F88" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="H88" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
     </row>
     <row r="89" spans="1:9">
@@ -5475,16 +5478,16 @@
         <v>574</v>
       </c>
       <c r="E89" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="F89" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="H89" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="I89" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
     </row>
     <row r="90" spans="1:9">
@@ -5501,16 +5504,16 @@
         <v>574</v>
       </c>
       <c r="E90" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="F90" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="H90" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="I90" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
     </row>
     <row r="91" spans="1:9">
@@ -5527,13 +5530,13 @@
         <v>574</v>
       </c>
       <c r="E91" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="F91" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="H91" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
     </row>
     <row r="92" spans="1:9">
@@ -5550,16 +5553,16 @@
         <v>574</v>
       </c>
       <c r="E92" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="F92" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="H92" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="I92" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
     </row>
     <row r="93" spans="1:9">
@@ -5576,16 +5579,16 @@
         <v>575</v>
       </c>
       <c r="E93" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="F93" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="H93" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="I93" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
     </row>
     <row r="94" spans="1:9">
@@ -5602,16 +5605,16 @@
         <v>574</v>
       </c>
       <c r="E94" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="F94" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="H94" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="I94" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
     </row>
     <row r="95" spans="1:9">
@@ -5628,13 +5631,13 @@
         <v>574</v>
       </c>
       <c r="E95" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="F95" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="H95" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
     </row>
     <row r="96" spans="1:9">
@@ -5651,16 +5654,16 @@
         <v>574</v>
       </c>
       <c r="E96" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="F96" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="H96" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="I96" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
     </row>
     <row r="97" spans="1:9">
@@ -5677,13 +5680,13 @@
         <v>574</v>
       </c>
       <c r="E97" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="F97" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="H97" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
     </row>
     <row r="98" spans="1:9">
@@ -5700,16 +5703,16 @@
         <v>574</v>
       </c>
       <c r="E98" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="F98" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="H98" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="I98" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
     </row>
     <row r="99" spans="1:9">
@@ -5726,16 +5729,16 @@
         <v>576</v>
       </c>
       <c r="E99" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="F99" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="H99" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="I99" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
     </row>
     <row r="100" spans="1:9">
@@ -5752,16 +5755,16 @@
         <v>576</v>
       </c>
       <c r="E100" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="F100" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="H100" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="I100" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
     </row>
     <row r="101" spans="1:9">
@@ -5778,16 +5781,16 @@
         <v>577</v>
       </c>
       <c r="E101" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="F101" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="H101" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="I101" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
     </row>
     <row r="102" spans="1:9">
@@ -5804,16 +5807,16 @@
         <v>578</v>
       </c>
       <c r="E102" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="F102" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="H102" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="I102" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
     </row>
     <row r="103" spans="1:9">
@@ -5830,16 +5833,16 @@
         <v>579</v>
       </c>
       <c r="E103" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="F103" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="H103" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="I103" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
     </row>
     <row r="104" spans="1:9">
@@ -5856,16 +5859,16 @@
         <v>580</v>
       </c>
       <c r="E104" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="F104" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="H104" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="I104" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
     </row>
     <row r="105" spans="1:9">
@@ -5882,16 +5885,16 @@
         <v>581</v>
       </c>
       <c r="E105" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="F105" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="H105" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="I105" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
     </row>
     <row r="106" spans="1:9">
@@ -5908,16 +5911,16 @@
         <v>581</v>
       </c>
       <c r="E106" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="F106" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="H106" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="I106" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
     </row>
     <row r="107" spans="1:9">
@@ -5934,16 +5937,16 @@
         <v>582</v>
       </c>
       <c r="E107" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="F107" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="H107" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="I107" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
     </row>
     <row r="108" spans="1:9">
@@ -5960,16 +5963,16 @@
         <v>549</v>
       </c>
       <c r="E108" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="F108" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="H108" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="I108" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
     </row>
     <row r="109" spans="1:9">
@@ -5986,16 +5989,16 @@
         <v>549</v>
       </c>
       <c r="E109" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="F109" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="H109" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="I109" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
     </row>
     <row r="110" spans="1:9">
@@ -6012,16 +6015,16 @@
         <v>583</v>
       </c>
       <c r="E110" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="F110" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="H110" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="I110" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
     </row>
     <row r="111" spans="1:9">
@@ -6038,16 +6041,16 @@
         <v>584</v>
       </c>
       <c r="E111" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="F111" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="H111" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="I111" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
     </row>
     <row r="112" spans="1:9">
@@ -6064,16 +6067,16 @@
         <v>584</v>
       </c>
       <c r="E112" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="F112" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="H112" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="I112" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
     </row>
     <row r="113" spans="1:9">
@@ -6090,16 +6093,16 @@
         <v>585</v>
       </c>
       <c r="E113" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="F113" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="H113" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="I113" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
     </row>
     <row r="114" spans="1:9">
@@ -6116,16 +6119,16 @@
         <v>586</v>
       </c>
       <c r="E114" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="F114" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="H114" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="I114" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
     </row>
     <row r="115" spans="1:9">
@@ -6142,7 +6145,7 @@
         <v>587</v>
       </c>
       <c r="H115" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
     </row>
     <row r="116" spans="1:9">
@@ -6159,16 +6162,16 @@
         <v>588</v>
       </c>
       <c r="E116" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="F116" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="H116" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="I116" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
     </row>
     <row r="117" spans="1:9">
@@ -6185,16 +6188,16 @@
         <v>589</v>
       </c>
       <c r="E117" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="F117" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="H117" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="I117" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
     </row>
     <row r="118" spans="1:9">
@@ -6211,16 +6214,16 @@
         <v>590</v>
       </c>
       <c r="E118" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="F118" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="H118" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="I118" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
     </row>
     <row r="119" spans="1:9">
@@ -6237,16 +6240,16 @@
         <v>591</v>
       </c>
       <c r="E119" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="F119" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="H119" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="I119" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
     </row>
     <row r="120" spans="1:9">
@@ -6263,16 +6266,16 @@
         <v>590</v>
       </c>
       <c r="E120" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="F120" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="H120" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="I120" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
     </row>
     <row r="121" spans="1:9">
@@ -6289,13 +6292,13 @@
         <v>590</v>
       </c>
       <c r="E121" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="F121" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="H121" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
     </row>
     <row r="122" spans="1:9">
@@ -6312,16 +6315,16 @@
         <v>590</v>
       </c>
       <c r="E122" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="F122" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="H122" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="I122" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
     </row>
     <row r="123" spans="1:9">
@@ -6338,16 +6341,16 @@
         <v>592</v>
       </c>
       <c r="E123" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="F123" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="H123" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="I123" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
     </row>
     <row r="124" spans="1:9">
@@ -6364,16 +6367,16 @@
         <v>592</v>
       </c>
       <c r="E124" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="F124" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="H124" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="I124" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
     </row>
     <row r="125" spans="1:9">
@@ -6390,16 +6393,16 @@
         <v>593</v>
       </c>
       <c r="E125" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="F125" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="H125" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="I125" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
     </row>
     <row r="126" spans="1:9">
@@ -6416,13 +6419,13 @@
         <v>594</v>
       </c>
       <c r="E126" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="F126" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="H126" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
     </row>
     <row r="127" spans="1:9">
@@ -6439,16 +6442,16 @@
         <v>594</v>
       </c>
       <c r="E127" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="F127" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="H127" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="I127" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
     </row>
     <row r="128" spans="1:9">
@@ -6465,16 +6468,16 @@
         <v>594</v>
       </c>
       <c r="E128" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="F128" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="H128" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="I128" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
     </row>
     <row r="129" spans="1:9">
@@ -6491,16 +6494,16 @@
         <v>594</v>
       </c>
       <c r="E129" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="F129" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="H129" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="I129" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
     </row>
     <row r="130" spans="1:9">
@@ -6517,16 +6520,16 @@
         <v>595</v>
       </c>
       <c r="E130" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="F130" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="H130" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="I130" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
     </row>
     <row r="131" spans="1:9">
@@ -6543,16 +6546,16 @@
         <v>596</v>
       </c>
       <c r="E131" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="F131" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="H131" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="I131" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
     </row>
     <row r="132" spans="1:9">
@@ -6569,16 +6572,16 @@
         <v>597</v>
       </c>
       <c r="E132" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="F132" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="H132" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="I132" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
     </row>
     <row r="133" spans="1:9">
@@ -6595,16 +6598,16 @@
         <v>598</v>
       </c>
       <c r="E133" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="F133" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="H133" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="I133" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
     </row>
     <row r="134" spans="1:9">
@@ -6621,13 +6624,13 @@
         <v>599</v>
       </c>
       <c r="E134" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="F134" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="H134" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
     </row>
     <row r="135" spans="1:9">
@@ -6644,16 +6647,16 @@
         <v>599</v>
       </c>
       <c r="E135" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="F135" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="H135" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="I135" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
     </row>
     <row r="136" spans="1:9">
@@ -6670,16 +6673,16 @@
         <v>600</v>
       </c>
       <c r="E136" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="F136" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="H136" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="I136" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
     </row>
     <row r="137" spans="1:9">
@@ -6696,16 +6699,16 @@
         <v>601</v>
       </c>
       <c r="E137" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="F137" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="H137" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="I137" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
     </row>
     <row r="138" spans="1:9">
@@ -6722,16 +6725,16 @@
         <v>601</v>
       </c>
       <c r="E138" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="F138" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="H138" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="I138" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
     </row>
     <row r="139" spans="1:9">
@@ -6748,16 +6751,16 @@
         <v>602</v>
       </c>
       <c r="E139" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="F139" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="H139" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="I139" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
     </row>
     <row r="140" spans="1:9">
@@ -6774,16 +6777,16 @@
         <v>603</v>
       </c>
       <c r="E140" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="F140" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="H140" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="I140" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
     </row>
     <row r="141" spans="1:9">
@@ -6800,7 +6803,7 @@
         <v>604</v>
       </c>
       <c r="H141" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
     </row>
     <row r="142" spans="1:9">
@@ -6817,16 +6820,16 @@
         <v>605</v>
       </c>
       <c r="E142" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="F142" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="H142" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="I142" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
     </row>
     <row r="143" spans="1:9">
@@ -6843,16 +6846,16 @@
         <v>606</v>
       </c>
       <c r="E143" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="F143" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="H143" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="I143" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
     </row>
     <row r="144" spans="1:9">
@@ -6869,16 +6872,16 @@
         <v>606</v>
       </c>
       <c r="E144" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="F144" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="H144" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="I144" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
     </row>
     <row r="145" spans="1:9">
@@ -6895,16 +6898,16 @@
         <v>606</v>
       </c>
       <c r="E145" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="F145" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="H145" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="I145" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
     </row>
     <row r="146" spans="1:9">
@@ -6921,16 +6924,16 @@
         <v>607</v>
       </c>
       <c r="E146" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="F146" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="H146" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="I146" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
     </row>
     <row r="147" spans="1:9">
@@ -6947,7 +6950,7 @@
         <v>608</v>
       </c>
       <c r="H147" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
     </row>
     <row r="148" spans="1:9">
@@ -6964,16 +6967,16 @@
         <v>609</v>
       </c>
       <c r="E148" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="F148" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="H148" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="I148" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
     </row>
     <row r="149" spans="1:9">
@@ -6990,16 +6993,16 @@
         <v>610</v>
       </c>
       <c r="E149" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="F149" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="H149" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="I149" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
     </row>
     <row r="150" spans="1:9">
@@ -7016,16 +7019,16 @@
         <v>609</v>
       </c>
       <c r="E150" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="F150" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="H150" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="I150" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
     </row>
     <row r="151" spans="1:9">
@@ -7042,16 +7045,16 @@
         <v>609</v>
       </c>
       <c r="E151" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="F151" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="H151" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="I151" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
     </row>
     <row r="152" spans="1:9">
@@ -7068,16 +7071,16 @@
         <v>611</v>
       </c>
       <c r="E152" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="F152" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="H152" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="I152" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
     </row>
     <row r="153" spans="1:9">
@@ -7094,16 +7097,16 @@
         <v>612</v>
       </c>
       <c r="E153" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="F153" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="H153" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="I153" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
     </row>
     <row r="154" spans="1:9">
@@ -7120,16 +7123,16 @@
         <v>613</v>
       </c>
       <c r="E154" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="F154" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="H154" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="I154" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
     </row>
     <row r="155" spans="1:9">
@@ -7146,16 +7149,16 @@
         <v>614</v>
       </c>
       <c r="E155" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="F155" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="H155" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="I155" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
     </row>
     <row r="156" spans="1:9">
@@ -7172,13 +7175,13 @@
         <v>615</v>
       </c>
       <c r="E156" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="F156" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="H156" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
     </row>
     <row r="157" spans="1:9">
@@ -7195,13 +7198,13 @@
         <v>615</v>
       </c>
       <c r="E157" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="F157" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="H157" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
     </row>
     <row r="158" spans="1:9">
@@ -7218,13 +7221,13 @@
         <v>616</v>
       </c>
       <c r="E158" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="F158" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="H158" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
     </row>
     <row r="159" spans="1:9">
@@ -7241,13 +7244,13 @@
         <v>617</v>
       </c>
       <c r="E159" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="F159" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="H159" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
     </row>
     <row r="160" spans="1:9">
@@ -7264,13 +7267,13 @@
         <v>618</v>
       </c>
       <c r="E160" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="F160" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="H160" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -7287,13 +7290,13 @@
         <v>619</v>
       </c>
       <c r="E161" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="F161" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="H161" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -7310,13 +7313,13 @@
         <v>620</v>
       </c>
       <c r="E162" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="F162" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="H162" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -7333,13 +7336,13 @@
         <v>621</v>
       </c>
       <c r="E163" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="F163" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="H163" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -7356,13 +7359,13 @@
         <v>622</v>
       </c>
       <c r="E164" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="F164" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="H164" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -7379,13 +7382,13 @@
         <v>623</v>
       </c>
       <c r="E165" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="F165" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="H165" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -7402,13 +7405,13 @@
         <v>624</v>
       </c>
       <c r="E166" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="F166" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="H166" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -7425,13 +7428,13 @@
         <v>624</v>
       </c>
       <c r="E167" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="F167" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="H167" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -7448,13 +7451,13 @@
         <v>625</v>
       </c>
       <c r="E168" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="F168" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="H168" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -7471,13 +7474,13 @@
         <v>624</v>
       </c>
       <c r="E169" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="F169" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="H169" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -7494,13 +7497,13 @@
         <v>626</v>
       </c>
       <c r="E170" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="F170" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="H170" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -7517,13 +7520,13 @@
         <v>626</v>
       </c>
       <c r="E171" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="F171" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="H171" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -7540,13 +7543,13 @@
         <v>626</v>
       </c>
       <c r="E172" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="F172" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="H172" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -7563,13 +7566,13 @@
         <v>627</v>
       </c>
       <c r="E173" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="F173" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="H173" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -7586,13 +7589,13 @@
         <v>565</v>
       </c>
       <c r="E174" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="F174" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="H174" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -7609,13 +7612,13 @@
         <v>628</v>
       </c>
       <c r="E175" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="F175" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="H175" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -7632,13 +7635,13 @@
         <v>628</v>
       </c>
       <c r="E176" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="F176" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="H176" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -7655,13 +7658,13 @@
         <v>628</v>
       </c>
       <c r="E177" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="F177" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="H177" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -7678,13 +7681,13 @@
         <v>628</v>
       </c>
       <c r="E178" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="F178" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="H178" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -7701,13 +7704,13 @@
         <v>628</v>
       </c>
       <c r="E179" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="F179" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="H179" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -7724,13 +7727,13 @@
         <v>628</v>
       </c>
       <c r="E180" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="F180" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="H180" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -7747,13 +7750,13 @@
         <v>628</v>
       </c>
       <c r="E181" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="F181" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="H181" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -7770,13 +7773,13 @@
         <v>628</v>
       </c>
       <c r="E182" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="F182" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="H182" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -7793,13 +7796,13 @@
         <v>628</v>
       </c>
       <c r="E183" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="F183" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="H183" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -7816,13 +7819,13 @@
         <v>628</v>
       </c>
       <c r="E184" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="F184" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="H184" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -7839,13 +7842,13 @@
         <v>628</v>
       </c>
       <c r="E185" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="F185" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="H185" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -7862,13 +7865,13 @@
         <v>628</v>
       </c>
       <c r="E186" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="F186" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="H186" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -7885,13 +7888,13 @@
         <v>628</v>
       </c>
       <c r="E187" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="F187" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="H187" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -7908,13 +7911,13 @@
         <v>628</v>
       </c>
       <c r="E188" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="F188" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="H188" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -7931,13 +7934,13 @@
         <v>628</v>
       </c>
       <c r="E189" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="F189" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="H189" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -7954,13 +7957,13 @@
         <v>629</v>
       </c>
       <c r="E190" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="F190" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="H190" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -7977,13 +7980,13 @@
         <v>630</v>
       </c>
       <c r="E191" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="F191" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="H191" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -8000,13 +8003,13 @@
         <v>631</v>
       </c>
       <c r="E192" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="F192" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="H192" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -8023,13 +8026,13 @@
         <v>630</v>
       </c>
       <c r="E193" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="F193" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="H193" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -8046,13 +8049,13 @@
         <v>632</v>
       </c>
       <c r="E194" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="F194" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="H194" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -8069,13 +8072,13 @@
         <v>633</v>
       </c>
       <c r="E195" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="F195" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="H195" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -8092,13 +8095,13 @@
         <v>573</v>
       </c>
       <c r="E196" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="F196" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="H196" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -8115,13 +8118,13 @@
         <v>634</v>
       </c>
       <c r="E197" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="F197" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="H197" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -8138,13 +8141,13 @@
         <v>634</v>
       </c>
       <c r="E198" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="F198" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="H198" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -8161,13 +8164,13 @@
         <v>634</v>
       </c>
       <c r="E199" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="F199" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="H199" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -8184,13 +8187,13 @@
         <v>634</v>
       </c>
       <c r="E200" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="F200" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="H200" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -8207,13 +8210,13 @@
         <v>634</v>
       </c>
       <c r="E201" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="F201" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="H201" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -8230,13 +8233,13 @@
         <v>634</v>
       </c>
       <c r="E202" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="F202" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="H202" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -8253,13 +8256,13 @@
         <v>635</v>
       </c>
       <c r="E203" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="F203" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="H203" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -8276,13 +8279,13 @@
         <v>630</v>
       </c>
       <c r="E204" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="F204" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="H204" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -8299,13 +8302,13 @@
         <v>636</v>
       </c>
       <c r="E205" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="F205" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="H205" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -8322,13 +8325,13 @@
         <v>637</v>
       </c>
       <c r="E206" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="F206" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="H206" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -8345,13 +8348,13 @@
         <v>637</v>
       </c>
       <c r="E207" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="F207" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="H207" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -8368,13 +8371,13 @@
         <v>637</v>
       </c>
       <c r="E208" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="F208" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="H208" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -8391,13 +8394,13 @@
         <v>637</v>
       </c>
       <c r="E209" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="F209" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="H209" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -8414,13 +8417,13 @@
         <v>637</v>
       </c>
       <c r="E210" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="F210" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="H210" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -8437,13 +8440,13 @@
         <v>637</v>
       </c>
       <c r="E211" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="F211" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="H211" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -8460,13 +8463,13 @@
         <v>638</v>
       </c>
       <c r="E212" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="F212" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="H212" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -8483,13 +8486,13 @@
         <v>639</v>
       </c>
       <c r="E213" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="F213" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="H213" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -8506,13 +8509,13 @@
         <v>640</v>
       </c>
       <c r="E214" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="F214" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="H214" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -8529,13 +8532,13 @@
         <v>641</v>
       </c>
       <c r="E215" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="F215" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="H215" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -8552,13 +8555,13 @@
         <v>642</v>
       </c>
       <c r="E216" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="F216" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="H216" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -8575,13 +8578,13 @@
         <v>643</v>
       </c>
       <c r="E217" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="F217" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="H217" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -8598,13 +8601,13 @@
         <v>643</v>
       </c>
       <c r="E218" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="F218" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="H218" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -8621,13 +8624,13 @@
         <v>644</v>
       </c>
       <c r="E219" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="F219" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="H219" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -8644,13 +8647,13 @@
         <v>645</v>
       </c>
       <c r="E220" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="F220" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="H220" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -8667,13 +8670,13 @@
         <v>645</v>
       </c>
       <c r="E221" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="F221" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="H221" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -8690,13 +8693,13 @@
         <v>646</v>
       </c>
       <c r="E222" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="F222" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="H222" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -8713,13 +8716,13 @@
         <v>647</v>
       </c>
       <c r="E223" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="F223" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="H223" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -8736,13 +8739,13 @@
         <v>648</v>
       </c>
       <c r="E224" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="F224" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="H224" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -8759,13 +8762,13 @@
         <v>649</v>
       </c>
       <c r="E225" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="F225" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="H225" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -8782,13 +8785,13 @@
         <v>650</v>
       </c>
       <c r="E226" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="F226" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="H226" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -8805,13 +8808,13 @@
         <v>651</v>
       </c>
       <c r="E227" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="F227" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="H227" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -8828,13 +8831,13 @@
         <v>652</v>
       </c>
       <c r="E228" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="F228" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="H228" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -8851,13 +8854,13 @@
         <v>653</v>
       </c>
       <c r="E229" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="F229" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="H229" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -8874,13 +8877,13 @@
         <v>654</v>
       </c>
       <c r="E230" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="F230" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="H230" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -8897,13 +8900,13 @@
         <v>653</v>
       </c>
       <c r="E231" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="F231" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="H231" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -8920,13 +8923,13 @@
         <v>655</v>
       </c>
       <c r="E232" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="F232" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="H232" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -8943,13 +8946,13 @@
         <v>656</v>
       </c>
       <c r="E233" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="F233" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="H233" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -8966,13 +8969,13 @@
         <v>657</v>
       </c>
       <c r="E234" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="F234" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="H234" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -8989,13 +8992,13 @@
         <v>658</v>
       </c>
       <c r="E235" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="F235" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="H235" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -9012,13 +9015,13 @@
         <v>658</v>
       </c>
       <c r="E236" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="F236" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="H236" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -9035,13 +9038,13 @@
         <v>659</v>
       </c>
       <c r="E237" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="F237" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="H237" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -9058,13 +9061,13 @@
         <v>660</v>
       </c>
       <c r="E238" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="F238" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="H238" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -9081,13 +9084,13 @@
         <v>661</v>
       </c>
       <c r="E239" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="F239" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="H239" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -9104,13 +9107,13 @@
         <v>660</v>
       </c>
       <c r="E240" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="F240" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="H240" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -9127,13 +9130,13 @@
         <v>660</v>
       </c>
       <c r="E241" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="F241" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="H241" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -9150,13 +9153,13 @@
         <v>647</v>
       </c>
       <c r="E242" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="F242" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="H242" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -9173,13 +9176,13 @@
         <v>647</v>
       </c>
       <c r="E243" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="F243" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="H243" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -9196,13 +9199,13 @@
         <v>662</v>
       </c>
       <c r="E244" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="F244" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="H244" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -9219,13 +9222,13 @@
         <v>662</v>
       </c>
       <c r="E245" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="F245" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="H245" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -9242,13 +9245,13 @@
         <v>662</v>
       </c>
       <c r="E246" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="F246" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="H246" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -9265,13 +9268,13 @@
         <v>662</v>
       </c>
       <c r="E247" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="F247" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="H247" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -9288,13 +9291,13 @@
         <v>662</v>
       </c>
       <c r="E248" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="F248" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="H248" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -9311,13 +9314,13 @@
         <v>662</v>
       </c>
       <c r="E249" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="F249" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="H249" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -9334,13 +9337,13 @@
         <v>663</v>
       </c>
       <c r="E250" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="F250" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="H250" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -9357,13 +9360,13 @@
         <v>663</v>
       </c>
       <c r="E251" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="F251" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="H251" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -9380,13 +9383,13 @@
         <v>664</v>
       </c>
       <c r="E252" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="F252" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="H252" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -9403,13 +9406,13 @@
         <v>665</v>
       </c>
       <c r="E253" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="F253" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="H253" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -9426,13 +9429,13 @@
         <v>628</v>
       </c>
       <c r="E254" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="F254" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="H254" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -9449,13 +9452,13 @@
         <v>663</v>
       </c>
       <c r="E255" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="F255" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="H255" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -9472,13 +9475,13 @@
         <v>663</v>
       </c>
       <c r="E256" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="F256" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="H256" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -9495,13 +9498,13 @@
         <v>666</v>
       </c>
       <c r="E257" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="F257" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="H257" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -9518,13 +9521,13 @@
         <v>667</v>
       </c>
       <c r="E258" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="F258" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="H258" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -9541,13 +9544,13 @@
         <v>628</v>
       </c>
       <c r="E259" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="F259" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="H259" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -9564,13 +9567,13 @@
         <v>668</v>
       </c>
       <c r="E260" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="F260" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="H260" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -9587,13 +9590,13 @@
         <v>669</v>
       </c>
       <c r="E261" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="F261" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="H261" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -9610,13 +9613,13 @@
         <v>669</v>
       </c>
       <c r="E262" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="F262" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="H262" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -9633,13 +9636,13 @@
         <v>669</v>
       </c>
       <c r="E263" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="F263" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="H263" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -9656,13 +9659,13 @@
         <v>565</v>
       </c>
       <c r="E264" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="F264" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="H264" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -9679,13 +9682,13 @@
         <v>670</v>
       </c>
       <c r="E265" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="F265" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="H265" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -9702,13 +9705,13 @@
         <v>670</v>
       </c>
       <c r="E266" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="F266" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="H266" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -9725,13 +9728,13 @@
         <v>670</v>
       </c>
       <c r="E267" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="F267" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="H267" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -9748,13 +9751,13 @@
         <v>670</v>
       </c>
       <c r="E268" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="F268" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="H268" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -9771,13 +9774,13 @@
         <v>671</v>
       </c>
       <c r="E269" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="F269" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="H269" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -9794,13 +9797,13 @@
         <v>671</v>
       </c>
       <c r="E270" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="F270" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="H270" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -9817,13 +9820,13 @@
         <v>671</v>
       </c>
       <c r="E271" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="F271" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="H271" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -9840,13 +9843,13 @@
         <v>671</v>
       </c>
       <c r="E272" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="F272" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="H272" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -9863,13 +9866,13 @@
         <v>671</v>
       </c>
       <c r="E273" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="F273" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="H273" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -9886,13 +9889,13 @@
         <v>672</v>
       </c>
       <c r="E274" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="F274" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="H274" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -9909,13 +9912,13 @@
         <v>673</v>
       </c>
       <c r="E275" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="F275" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="H275" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -9932,13 +9935,13 @@
         <v>673</v>
       </c>
       <c r="E276" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="F276" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="H276" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -9955,13 +9958,13 @@
         <v>674</v>
       </c>
       <c r="E277" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="F277" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="H277" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -9978,13 +9981,13 @@
         <v>675</v>
       </c>
       <c r="E278" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="F278" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="H278" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -10001,13 +10004,13 @@
         <v>676</v>
       </c>
       <c r="E279" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="F279" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="H279" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -10024,13 +10027,13 @@
         <v>676</v>
       </c>
       <c r="E280" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="F280" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="H280" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -10047,13 +10050,13 @@
         <v>677</v>
       </c>
       <c r="E281" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="F281" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="H281" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -10070,13 +10073,13 @@
         <v>678</v>
       </c>
       <c r="E282" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="F282" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="H282" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -10093,13 +10096,13 @@
         <v>678</v>
       </c>
       <c r="E283" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="F283" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="H283" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -10116,13 +10119,13 @@
         <v>678</v>
       </c>
       <c r="E284" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="F284" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="H284" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -10139,13 +10142,13 @@
         <v>678</v>
       </c>
       <c r="E285" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="F285" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="H285" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -10162,13 +10165,13 @@
         <v>678</v>
       </c>
       <c r="E286" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="F286" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="H286" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -10185,13 +10188,13 @@
         <v>678</v>
       </c>
       <c r="E287" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="F287" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="H287" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -10208,13 +10211,13 @@
         <v>678</v>
       </c>
       <c r="E288" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="F288" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="H288" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -10231,13 +10234,13 @@
         <v>678</v>
       </c>
       <c r="E289" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="F289" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="H289" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -10254,13 +10257,13 @@
         <v>678</v>
       </c>
       <c r="E290" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="F290" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="H290" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -10277,13 +10280,13 @@
         <v>678</v>
       </c>
       <c r="E291" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="F291" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="H291" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -10300,13 +10303,13 @@
         <v>678</v>
       </c>
       <c r="E292" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="F292" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="H292" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -10323,13 +10326,13 @@
         <v>678</v>
       </c>
       <c r="E293" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="F293" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="H293" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -10346,13 +10349,13 @@
         <v>678</v>
       </c>
       <c r="E294" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="F294" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="H294" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -10369,13 +10372,13 @@
         <v>678</v>
       </c>
       <c r="E295" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="F295" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="H295" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -10392,13 +10395,13 @@
         <v>679</v>
       </c>
       <c r="E296" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="F296" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="H296" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -10415,13 +10418,13 @@
         <v>679</v>
       </c>
       <c r="E297" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="F297" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="H297" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -10438,13 +10441,13 @@
         <v>680</v>
       </c>
       <c r="E298" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="F298" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="H298" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -10461,13 +10464,13 @@
         <v>565</v>
       </c>
       <c r="E299" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="F299" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="H299" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -10484,13 +10487,13 @@
         <v>681</v>
       </c>
       <c r="E300" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="F300" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="H300" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -10507,13 +10510,13 @@
         <v>682</v>
       </c>
       <c r="E301" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="F301" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="H301" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -10530,13 +10533,13 @@
         <v>683</v>
       </c>
       <c r="E302" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="F302" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="H302" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -10553,13 +10556,13 @@
         <v>672</v>
       </c>
       <c r="E303" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="F303" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="H303" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -10576,13 +10579,13 @@
         <v>684</v>
       </c>
       <c r="E304" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="F304" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="H304" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -10599,13 +10602,13 @@
         <v>685</v>
       </c>
       <c r="E305" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="F305" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="H305" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -10622,13 +10625,13 @@
         <v>686</v>
       </c>
       <c r="E306" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="F306" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="H306" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -10645,13 +10648,13 @@
         <v>687</v>
       </c>
       <c r="E307" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="F307" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="H307" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -10668,13 +10671,13 @@
         <v>688</v>
       </c>
       <c r="E308" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="F308" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="H308" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -10691,13 +10694,13 @@
         <v>601</v>
       </c>
       <c r="E309" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="F309" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="H309" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -10714,13 +10717,13 @@
         <v>601</v>
       </c>
       <c r="E310" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="F310" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="H310" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -10737,13 +10740,13 @@
         <v>689</v>
       </c>
       <c r="E311" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="F311" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="H311" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -10760,13 +10763,13 @@
         <v>601</v>
       </c>
       <c r="E312" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="F312" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="H312" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -10783,13 +10786,13 @@
         <v>601</v>
       </c>
       <c r="E313" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="F313" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="H313" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -10806,13 +10809,13 @@
         <v>601</v>
       </c>
       <c r="E314" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="F314" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="H314" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -10829,13 +10832,13 @@
         <v>690</v>
       </c>
       <c r="E315" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="F315" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="H315" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -10852,13 +10855,13 @@
         <v>690</v>
       </c>
       <c r="E316" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="F316" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="H316" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -10875,13 +10878,13 @@
         <v>690</v>
       </c>
       <c r="E317" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="F317" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="H317" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -10898,13 +10901,13 @@
         <v>691</v>
       </c>
       <c r="E318" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="F318" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="H318" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -10921,13 +10924,13 @@
         <v>692</v>
       </c>
       <c r="E319" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="F319" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="H319" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -10944,13 +10947,13 @@
         <v>693</v>
       </c>
       <c r="E320" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="F320" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="H320" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
     </row>
     <row r="321" spans="1:9">
@@ -10967,13 +10970,13 @@
         <v>694</v>
       </c>
       <c r="E321" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="F321" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="H321" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
     </row>
     <row r="322" spans="1:9">
@@ -10990,13 +10993,13 @@
         <v>695</v>
       </c>
       <c r="E322" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="F322" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="H322" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
     </row>
     <row r="323" spans="1:9">
@@ -11013,13 +11016,13 @@
         <v>565</v>
       </c>
       <c r="E323" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="F323" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="H323" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
     </row>
     <row r="324" spans="1:9">
@@ -11036,13 +11039,13 @@
         <v>696</v>
       </c>
       <c r="E324" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="F324" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="H324" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
     </row>
     <row r="325" spans="1:9">
@@ -11059,16 +11062,16 @@
         <v>696</v>
       </c>
       <c r="E325" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="F325" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="H325" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="I325" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
     </row>
     <row r="326" spans="1:9">
@@ -11085,13 +11088,13 @@
         <v>697</v>
       </c>
       <c r="E326" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="F326" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="H326" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
     </row>
     <row r="327" spans="1:9">
@@ -11108,13 +11111,13 @@
         <v>629</v>
       </c>
       <c r="E327" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="F327" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="H327" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
     </row>
     <row r="328" spans="1:9">
@@ -11131,13 +11134,13 @@
         <v>629</v>
       </c>
       <c r="E328" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="F328" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="H328" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
     </row>
     <row r="329" spans="1:9">
@@ -11154,13 +11157,13 @@
         <v>698</v>
       </c>
       <c r="E329" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="F329" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="H329" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
     </row>
     <row r="330" spans="1:9">
@@ -11177,13 +11180,13 @@
         <v>699</v>
       </c>
       <c r="E330" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="F330" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="H330" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
     </row>
     <row r="331" spans="1:9">
@@ -11200,13 +11203,13 @@
         <v>700</v>
       </c>
       <c r="E331" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="F331" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="H331" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
     </row>
     <row r="332" spans="1:9">
@@ -11223,13 +11226,13 @@
         <v>701</v>
       </c>
       <c r="E332" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="F332" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="H332" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
     </row>
     <row r="333" spans="1:9">
@@ -11246,13 +11249,13 @@
         <v>702</v>
       </c>
       <c r="E333" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="F333" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="H333" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
     </row>
     <row r="334" spans="1:9">
@@ -11269,13 +11272,13 @@
         <v>703</v>
       </c>
       <c r="E334" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="F334" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="H334" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
     </row>
     <row r="335" spans="1:9">
@@ -11292,13 +11295,13 @@
         <v>703</v>
       </c>
       <c r="E335" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="F335" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="H335" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
     </row>
     <row r="336" spans="1:9">
@@ -11315,13 +11318,13 @@
         <v>703</v>
       </c>
       <c r="E336" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="F336" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="H336" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -11338,13 +11341,13 @@
         <v>647</v>
       </c>
       <c r="E337" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="F337" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="H337" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -11361,13 +11364,13 @@
         <v>704</v>
       </c>
       <c r="E338" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="F338" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="H338" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -11384,13 +11387,13 @@
         <v>705</v>
       </c>
       <c r="E339" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="F339" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="H339" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -11407,13 +11410,13 @@
         <v>706</v>
       </c>
       <c r="E340" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="F340" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="H340" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -11430,13 +11433,13 @@
         <v>707</v>
       </c>
       <c r="E341" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="F341" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="H341" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -11453,13 +11456,13 @@
         <v>707</v>
       </c>
       <c r="E342" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="F342" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="H342" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -11476,13 +11479,13 @@
         <v>708</v>
       </c>
       <c r="E343" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="F343" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="H343" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -11499,13 +11502,13 @@
         <v>709</v>
       </c>
       <c r="E344" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="F344" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="H344" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -11522,13 +11525,13 @@
         <v>672</v>
       </c>
       <c r="E345" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="F345" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="H345" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -11545,13 +11548,13 @@
         <v>710</v>
       </c>
       <c r="E346" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="F346" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="H346" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -11568,13 +11571,13 @@
         <v>710</v>
       </c>
       <c r="E347" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="F347" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="H347" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -11591,13 +11594,13 @@
         <v>573</v>
       </c>
       <c r="E348" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="F348" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="H348" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -11614,13 +11617,13 @@
         <v>633</v>
       </c>
       <c r="E349" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="F349" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="H349" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -11637,13 +11640,13 @@
         <v>633</v>
       </c>
       <c r="E350" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="F350" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="H350" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -11660,13 +11663,13 @@
         <v>711</v>
       </c>
       <c r="E351" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="F351" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="H351" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -11683,13 +11686,13 @@
         <v>712</v>
       </c>
       <c r="E352" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="F352" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="H352" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -11706,13 +11709,13 @@
         <v>712</v>
       </c>
       <c r="E353" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="F353" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="H353" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -11729,13 +11732,13 @@
         <v>712</v>
       </c>
       <c r="E354" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="F354" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="H354" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -11752,13 +11755,13 @@
         <v>712</v>
       </c>
       <c r="E355" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="F355" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="H355" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -11775,13 +11778,13 @@
         <v>712</v>
       </c>
       <c r="E356" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="F356" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="H356" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -11798,13 +11801,13 @@
         <v>712</v>
       </c>
       <c r="E357" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="F357" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="H357" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -11821,13 +11824,13 @@
         <v>712</v>
       </c>
       <c r="E358" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="F358" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="H358" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -11844,13 +11847,13 @@
         <v>712</v>
       </c>
       <c r="E359" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="F359" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="H359" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -11867,13 +11870,13 @@
         <v>712</v>
       </c>
       <c r="E360" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="F360" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="H360" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -11890,13 +11893,13 @@
         <v>712</v>
       </c>
       <c r="E361" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="F361" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="H361" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -11913,13 +11916,13 @@
         <v>712</v>
       </c>
       <c r="E362" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="F362" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="H362" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -11936,13 +11939,13 @@
         <v>712</v>
       </c>
       <c r="E363" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="F363" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="H363" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -11959,13 +11962,13 @@
         <v>712</v>
       </c>
       <c r="E364" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="F364" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="H364" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -11982,13 +11985,13 @@
         <v>712</v>
       </c>
       <c r="E365" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="F365" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="H365" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -12005,13 +12008,13 @@
         <v>712</v>
       </c>
       <c r="E366" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="F366" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="H366" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -12028,13 +12031,13 @@
         <v>712</v>
       </c>
       <c r="E367" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="F367" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="H367" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -12051,13 +12054,13 @@
         <v>712</v>
       </c>
       <c r="E368" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="F368" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="H368" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
     </row>
     <row r="369" spans="1:9">
@@ -12074,13 +12077,13 @@
         <v>713</v>
       </c>
       <c r="E369" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="F369" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="H369" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
     </row>
     <row r="370" spans="1:9">
@@ -12097,13 +12100,13 @@
         <v>714</v>
       </c>
       <c r="E370" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="F370" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="H370" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
     </row>
     <row r="371" spans="1:9">
@@ -12120,13 +12123,13 @@
         <v>714</v>
       </c>
       <c r="E371" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="F371" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="H371" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
     </row>
     <row r="372" spans="1:9">
@@ -12143,13 +12146,13 @@
         <v>714</v>
       </c>
       <c r="E372" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="F372" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="H372" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
     </row>
     <row r="373" spans="1:9">
@@ -12166,13 +12169,13 @@
         <v>715</v>
       </c>
       <c r="E373" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="F373" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="H373" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
     </row>
     <row r="374" spans="1:9">
@@ -12189,13 +12192,13 @@
         <v>716</v>
       </c>
       <c r="E374" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="F374" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="H374" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
     </row>
     <row r="375" spans="1:9">
@@ -12212,19 +12215,19 @@
         <v>717</v>
       </c>
       <c r="E375" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="F375" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="G375" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="H375" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="I375" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
     </row>
     <row r="376" spans="1:9">
@@ -12241,16 +12244,16 @@
         <v>718</v>
       </c>
       <c r="E376" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="F376" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="G376" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="H376" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
     </row>
     <row r="377" spans="1:9">
@@ -12267,16 +12270,16 @@
         <v>719</v>
       </c>
       <c r="E377" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="F377" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="G377" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="H377" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
     </row>
     <row r="378" spans="1:9">
@@ -12293,13 +12296,13 @@
         <v>720</v>
       </c>
       <c r="E378" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="F378" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="H378" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
     </row>
     <row r="379" spans="1:9">
@@ -12316,13 +12319,13 @@
         <v>721</v>
       </c>
       <c r="E379" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="F379" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="H379" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
     </row>
     <row r="380" spans="1:9">
@@ -12339,16 +12342,16 @@
         <v>722</v>
       </c>
       <c r="E380" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="F380" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="G380" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="H380" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
     </row>
     <row r="381" spans="1:9">
@@ -12365,16 +12368,16 @@
         <v>723</v>
       </c>
       <c r="E381" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="F381" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="G381" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="H381" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
     </row>
     <row r="382" spans="1:9">
@@ -12391,13 +12394,13 @@
         <v>724</v>
       </c>
       <c r="E382" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="F382" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="H382" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
     </row>
     <row r="383" spans="1:9">
@@ -12414,13 +12417,13 @@
         <v>724</v>
       </c>
       <c r="E383" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="F383" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="H383" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
     </row>
     <row r="384" spans="1:9">
@@ -12437,13 +12440,13 @@
         <v>724</v>
       </c>
       <c r="E384" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="F384" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="H384" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
     </row>
     <row r="385" spans="1:9">
@@ -12460,13 +12463,13 @@
         <v>724</v>
       </c>
       <c r="E385" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="F385" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="H385" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
     </row>
     <row r="386" spans="1:9">
@@ -12483,10 +12486,10 @@
         <v>724</v>
       </c>
       <c r="E386" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="F386" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
     </row>
     <row r="387" spans="1:9">
@@ -12503,10 +12506,10 @@
         <v>724</v>
       </c>
       <c r="E387" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="F387" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
     </row>
     <row r="388" spans="1:9">
@@ -12523,10 +12526,10 @@
         <v>724</v>
       </c>
       <c r="E388" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="F388" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
     </row>
     <row r="389" spans="1:9">
@@ -12543,10 +12546,10 @@
         <v>724</v>
       </c>
       <c r="E389" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="F389" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
     </row>
     <row r="390" spans="1:9">
@@ -12563,10 +12566,10 @@
         <v>724</v>
       </c>
       <c r="E390" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="F390" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
     </row>
     <row r="391" spans="1:9">
@@ -12583,10 +12586,10 @@
         <v>724</v>
       </c>
       <c r="E391" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="F391" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
     </row>
     <row r="392" spans="1:9">
@@ -12603,16 +12606,16 @@
         <v>725</v>
       </c>
       <c r="E392" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="F392" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="G392" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="H392" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
     </row>
     <row r="393" spans="1:9">
@@ -12629,16 +12632,16 @@
         <v>726</v>
       </c>
       <c r="E393" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="F393" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="G393" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="H393" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
     </row>
     <row r="394" spans="1:9">
@@ -12655,16 +12658,16 @@
         <v>727</v>
       </c>
       <c r="E394" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="F394" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="G394" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="H394" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
     </row>
     <row r="395" spans="1:9">
@@ -12681,19 +12684,19 @@
         <v>728</v>
       </c>
       <c r="E395" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="F395" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="G395" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="H395" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="I395" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
     </row>
     <row r="396" spans="1:9">
@@ -12707,16 +12710,16 @@
         <v>498</v>
       </c>
       <c r="E396" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="F396" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="G396" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="H396" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
     </row>
     <row r="397" spans="1:9">
@@ -12733,13 +12736,13 @@
         <v>729</v>
       </c>
       <c r="E397" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="F397" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="H397" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
     </row>
     <row r="398" spans="1:9">
@@ -12756,13 +12759,13 @@
         <v>729</v>
       </c>
       <c r="E398" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="F398" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="H398" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
     </row>
     <row r="399" spans="1:9">
@@ -12779,13 +12782,13 @@
         <v>730</v>
       </c>
       <c r="E399" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="F399" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="H399" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
     </row>
     <row r="400" spans="1:9">
@@ -12802,13 +12805,13 @@
         <v>731</v>
       </c>
       <c r="E400" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="F400" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="H400" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
     </row>
     <row r="401" spans="1:9">
@@ -12825,13 +12828,13 @@
         <v>731</v>
       </c>
       <c r="E401" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="F401" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="H401" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
     </row>
     <row r="402" spans="1:9">
@@ -12848,13 +12851,13 @@
         <v>731</v>
       </c>
       <c r="E402" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="F402" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="H402" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
     </row>
     <row r="403" spans="1:9">
@@ -12871,13 +12874,13 @@
         <v>732</v>
       </c>
       <c r="E403" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="F403" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="H403" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
     </row>
     <row r="404" spans="1:9">
@@ -12894,13 +12897,13 @@
         <v>733</v>
       </c>
       <c r="E404" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="F404" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="H404" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
     </row>
     <row r="405" spans="1:9">
@@ -12917,13 +12920,13 @@
         <v>733</v>
       </c>
       <c r="E405" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="F405" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="H405" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
     </row>
     <row r="406" spans="1:9">
@@ -12940,13 +12943,13 @@
         <v>733</v>
       </c>
       <c r="E406" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="F406" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="H406" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
     </row>
     <row r="407" spans="1:9">
@@ -12963,13 +12966,13 @@
         <v>733</v>
       </c>
       <c r="E407" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="F407" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="H407" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
     </row>
     <row r="408" spans="1:9">
@@ -12986,13 +12989,13 @@
         <v>734</v>
       </c>
       <c r="E408" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="F408" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="H408" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
     </row>
     <row r="409" spans="1:9">
@@ -13009,16 +13012,16 @@
         <v>504</v>
       </c>
       <c r="E409" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="F409" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="H409" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="I409" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
     </row>
     <row r="410" spans="1:9">
@@ -13035,13 +13038,13 @@
         <v>735</v>
       </c>
       <c r="E410" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="F410" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="H410" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
     </row>
     <row r="411" spans="1:9">
@@ -13058,16 +13061,16 @@
         <v>511</v>
       </c>
       <c r="E411" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="F411" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="H411" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="I411" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
     </row>
     <row r="412" spans="1:9">
@@ -13084,13 +13087,13 @@
         <v>736</v>
       </c>
       <c r="E412" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="F412" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="H412" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
     </row>
     <row r="413" spans="1:9">
@@ -13107,13 +13110,13 @@
         <v>737</v>
       </c>
       <c r="E413" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="F413" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="H413" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
     </row>
     <row r="414" spans="1:9">
@@ -13130,13 +13133,13 @@
         <v>736</v>
       </c>
       <c r="E414" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="F414" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="H414" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
     </row>
     <row r="415" spans="1:9">
@@ -13153,13 +13156,13 @@
         <v>736</v>
       </c>
       <c r="E415" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="F415" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="H415" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
     </row>
     <row r="416" spans="1:9">
@@ -13176,13 +13179,13 @@
         <v>736</v>
       </c>
       <c r="E416" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="F416" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="H416" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
     </row>
     <row r="417" spans="1:9">
@@ -13199,16 +13202,16 @@
         <v>738</v>
       </c>
       <c r="E417" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="F417" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="H417" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="I417" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
     </row>
     <row r="418" spans="1:9">
@@ -13225,13 +13228,13 @@
         <v>739</v>
       </c>
       <c r="E418" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="F418" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="H418" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
     </row>
     <row r="419" spans="1:9">
@@ -13248,13 +13251,13 @@
         <v>739</v>
       </c>
       <c r="E419" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="F419" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="H419" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
     </row>
     <row r="420" spans="1:9">
@@ -13271,13 +13274,13 @@
         <v>739</v>
       </c>
       <c r="E420" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="F420" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="H420" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
     </row>
     <row r="421" spans="1:9">
@@ -13294,16 +13297,16 @@
         <v>740</v>
       </c>
       <c r="E421" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="F421" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="H421" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="I421" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
     </row>
     <row r="422" spans="1:9">
@@ -13320,19 +13323,19 @@
         <v>513</v>
       </c>
       <c r="E422" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="F422" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="G422" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="H422" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="I422" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
     </row>
     <row r="423" spans="1:9">
@@ -13349,16 +13352,16 @@
         <v>504</v>
       </c>
       <c r="E423" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="F423" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="H423" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="I423" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
     </row>
     <row r="424" spans="1:9">
@@ -13375,13 +13378,13 @@
         <v>741</v>
       </c>
       <c r="E424" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="F424" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="H424" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
     </row>
     <row r="425" spans="1:9">
@@ -13398,13 +13401,13 @@
         <v>741</v>
       </c>
       <c r="E425" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="F425" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="H425" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
     </row>
     <row r="426" spans="1:9">
@@ -13421,13 +13424,13 @@
         <v>742</v>
       </c>
       <c r="E426" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="F426" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="H426" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
     </row>
     <row r="427" spans="1:9">
@@ -13444,16 +13447,16 @@
         <v>504</v>
       </c>
       <c r="E427" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="F427" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="H427" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="I427" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
     </row>
     <row r="428" spans="1:9">
@@ -13470,16 +13473,16 @@
         <v>499</v>
       </c>
       <c r="E428" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="F428" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="H428" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="I428" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
     </row>
     <row r="429" spans="1:9">
@@ -13496,13 +13499,13 @@
         <v>743</v>
       </c>
       <c r="E429" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="F429" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="H429" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
     </row>
     <row r="430" spans="1:9">
@@ -13519,13 +13522,13 @@
         <v>744</v>
       </c>
       <c r="E430" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="F430" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="H430" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
     </row>
     <row r="431" spans="1:9">
@@ -13542,13 +13545,13 @@
         <v>745</v>
       </c>
       <c r="E431" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="F431" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="H431" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
     </row>
     <row r="432" spans="1:9">
@@ -13565,13 +13568,13 @@
         <v>746</v>
       </c>
       <c r="E432" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="F432" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="H432" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -13588,13 +13591,13 @@
         <v>744</v>
       </c>
       <c r="E433" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="F433" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="H433" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -13611,13 +13614,13 @@
         <v>744</v>
       </c>
       <c r="E434" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="F434" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="H434" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -13634,13 +13637,13 @@
         <v>744</v>
       </c>
       <c r="E435" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="F435" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="H435" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -13657,13 +13660,13 @@
         <v>744</v>
       </c>
       <c r="E436" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="F436" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="H436" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -13680,13 +13683,13 @@
         <v>744</v>
       </c>
       <c r="E437" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="F437" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="H437" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -13703,13 +13706,13 @@
         <v>744</v>
       </c>
       <c r="E438" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="F438" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="H438" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -13726,13 +13729,13 @@
         <v>744</v>
       </c>
       <c r="E439" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="F439" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="H439" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -13749,13 +13752,13 @@
         <v>747</v>
       </c>
       <c r="E440" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="F440" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="H440" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -13772,13 +13775,13 @@
         <v>748</v>
       </c>
       <c r="E441" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="F441" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="H441" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -13795,13 +13798,13 @@
         <v>499</v>
       </c>
       <c r="E442" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="F442" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="H442" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -13818,13 +13821,13 @@
         <v>749</v>
       </c>
       <c r="E443" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="F443" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="H443" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -13841,10 +13844,10 @@
         <v>747</v>
       </c>
       <c r="E444" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="F444" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -13861,13 +13864,13 @@
         <v>750</v>
       </c>
       <c r="E445" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="F445" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="H445" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -13884,13 +13887,13 @@
         <v>749</v>
       </c>
       <c r="E446" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="F446" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="H446" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -13904,10 +13907,10 @@
         <v>498</v>
       </c>
       <c r="E447" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="F447" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -13924,13 +13927,13 @@
         <v>751</v>
       </c>
       <c r="E448" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="F448" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="H448" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -13947,13 +13950,13 @@
         <v>751</v>
       </c>
       <c r="E449" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="F449" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="H449" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -13970,13 +13973,13 @@
         <v>752</v>
       </c>
       <c r="E450" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="F450" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="H450" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -13993,13 +13996,13 @@
         <v>753</v>
       </c>
       <c r="E451" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="F451" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="H451" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -14016,13 +14019,13 @@
         <v>753</v>
       </c>
       <c r="E452" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="F452" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="H452" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -14039,13 +14042,13 @@
         <v>753</v>
       </c>
       <c r="E453" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="F453" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="H453" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -14062,13 +14065,13 @@
         <v>753</v>
       </c>
       <c r="E454" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="F454" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="H454" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -14085,13 +14088,13 @@
         <v>753</v>
       </c>
       <c r="E455" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="F455" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="H455" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -14108,13 +14111,13 @@
         <v>754</v>
       </c>
       <c r="E456" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="F456" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="H456" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -14131,13 +14134,13 @@
         <v>755</v>
       </c>
       <c r="E457" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="F457" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="H457" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -14182,13 +14185,13 @@
         <v>757</v>
       </c>
       <c r="E460" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="F460" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="H460" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -14205,13 +14208,13 @@
         <v>758</v>
       </c>
       <c r="E461" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="F461" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="H461" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -14228,13 +14231,13 @@
         <v>758</v>
       </c>
       <c r="E462" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="F462" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="H462" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -14251,13 +14254,13 @@
         <v>759</v>
       </c>
       <c r="E463" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="F463" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="H463" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -14274,13 +14277,13 @@
         <v>760</v>
       </c>
       <c r="E464" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="F464" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="H464" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -14297,13 +14300,13 @@
         <v>760</v>
       </c>
       <c r="E465" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="F465" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="H465" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -14320,13 +14323,13 @@
         <v>761</v>
       </c>
       <c r="E466" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="F466" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="H466" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -14343,13 +14346,13 @@
         <v>762</v>
       </c>
       <c r="E467" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="F467" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="H467" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -14366,13 +14369,13 @@
         <v>763</v>
       </c>
       <c r="E468" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="F468" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="H468" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -14389,13 +14392,13 @@
         <v>763</v>
       </c>
       <c r="E469" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="F469" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="H469" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -14412,13 +14415,13 @@
         <v>764</v>
       </c>
       <c r="E470" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="F470" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="H470" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -14435,13 +14438,13 @@
         <v>764</v>
       </c>
       <c r="E471" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="F471" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="H471" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -14458,13 +14461,13 @@
         <v>764</v>
       </c>
       <c r="E472" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="F472" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="H472" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -14481,13 +14484,13 @@
         <v>764</v>
       </c>
       <c r="E473" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="F473" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="H473" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -14504,13 +14507,13 @@
         <v>764</v>
       </c>
       <c r="E474" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="F474" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="H474" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -14527,13 +14530,13 @@
         <v>764</v>
       </c>
       <c r="E475" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="F475" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="H475" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -14547,16 +14550,16 @@
         <v>498</v>
       </c>
       <c r="D476" t="s">
-        <v>755</v>
+        <v>765</v>
       </c>
       <c r="E476" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="F476" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="H476" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -14570,16 +14573,16 @@
         <v>498</v>
       </c>
       <c r="D477" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="E477" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="F477" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="H477" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -14593,16 +14596,16 @@
         <v>498</v>
       </c>
       <c r="D478" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="E478" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="F478" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="H478" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -14616,16 +14619,16 @@
         <v>498</v>
       </c>
       <c r="D479" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="E479" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="F479" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="H479" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -14639,16 +14642,16 @@
         <v>498</v>
       </c>
       <c r="D480" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="E480" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="F480" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="H480" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -14662,16 +14665,16 @@
         <v>498</v>
       </c>
       <c r="D481" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="E481" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="F481" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="H481" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
     </row>
     <row r="482" spans="1:8">
@@ -14693,10 +14696,10 @@
         <v>498</v>
       </c>
       <c r="D483" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="E483" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
     </row>
     <row r="484" spans="1:8">
@@ -14710,7 +14713,7 @@
         <v>498</v>
       </c>
       <c r="D484" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
     </row>
     <row r="485" spans="1:8">
@@ -14724,7 +14727,7 @@
         <v>498</v>
       </c>
       <c r="D485" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
     </row>
     <row r="486" spans="1:8">
@@ -14738,7 +14741,7 @@
         <v>498</v>
       </c>
       <c r="D486" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
     </row>
     <row r="487" spans="1:8">
@@ -14752,7 +14755,7 @@
         <v>498</v>
       </c>
       <c r="D487" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
     </row>
     <row r="488" spans="1:8">
@@ -14766,7 +14769,7 @@
         <v>498</v>
       </c>
       <c r="D488" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
     </row>
     <row r="489" spans="1:8">
@@ -14780,7 +14783,7 @@
         <v>498</v>
       </c>
       <c r="D489" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
     </row>
     <row r="490" spans="1:8">
@@ -14794,7 +14797,7 @@
         <v>498</v>
       </c>
       <c r="D490" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
     </row>
     <row r="491" spans="1:8">
@@ -14808,7 +14811,7 @@
         <v>498</v>
       </c>
       <c r="D491" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
     </row>
     <row r="492" spans="1:8">
@@ -14822,7 +14825,7 @@
         <v>498</v>
       </c>
       <c r="D492" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
     </row>
   </sheetData>

--- a/helper/Employee.xlsx
+++ b/helper/Employee.xlsx
@@ -1822,7 +1822,7 @@
     <t>Everybody_in_EU,SCR_-_Service_Coordinator</t>
   </si>
   <si>
-    <t>Everybody_in_EU,SCR_Leaders,User_OM_Team,Return_Car_&amp;_Power_Accessories_Team,Vehicle_Trouble_Shooting_Team</t>
+    <t>Everybody_in_EU,SCR_Leaders,User_OM_Team,Return_Car_&amp;_Power_Accessories_Team,Vehicle_Trouble_Shooting_Team,SCR_-_Tag_creator</t>
   </si>
   <si>
     <t>Senior_Analyst_Business_Intelligence,Everybody_in_EU</t>
